--- a/reporting_hierarchy.xlsx
+++ b/reporting_hierarchy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29019"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="139" documentId="11_254B45AE2BF66FFC05FC9890E2159AB6B2E0D67D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D3C29DD-84E2-419E-A2FC-D20AD9F4FD49}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="11_254B45AE2BF66FFC05FC9890E2159AB6B2E0D67D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2032466B-47FC-4C00-A012-01852FE85C74}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="251">
   <si>
     <t>Employee No</t>
   </si>
@@ -232,88 +232,94 @@
     <t>Graphic Designer Specialist</t>
   </si>
   <si>
+    <t>Shrushti Mulage</t>
+  </si>
+  <si>
+    <t>shrushti.mulage@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Ravindra Balasaheb Najan</t>
+  </si>
+  <si>
+    <t>ravindra.najan@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Ecom Senior Specialist</t>
+  </si>
+  <si>
+    <t>Shailesh bhujbal</t>
+  </si>
+  <si>
+    <t>shailesh.bhujbal@urbangabru.co.in</t>
+  </si>
+  <si>
+    <t>Rahul Madhukar Doke</t>
+  </si>
+  <si>
+    <t>rahul.doke@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Digital Marketing</t>
+  </si>
+  <si>
+    <t>Digital Marketing Senior Manager</t>
+  </si>
+  <si>
+    <t>Dhanashree Sachin Kavatage</t>
+  </si>
+  <si>
+    <t>dhanashree.jirage@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Online Operation Specialist</t>
+  </si>
+  <si>
+    <t>Akash Chandrabansi</t>
+  </si>
+  <si>
+    <t>akash.chandrabansi@urbanyog.in</t>
+  </si>
+  <si>
+    <t>Karamveer Gautam</t>
+  </si>
+  <si>
+    <t>karamveer.gautam@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Sushil Nakade</t>
+  </si>
+  <si>
+    <t>sushil.nakade@urbangabru.in</t>
+  </si>
+  <si>
+    <t>opreations</t>
+  </si>
+  <si>
+    <t>Shivam Nimje</t>
+  </si>
+  <si>
+    <t>shivam.nimje@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Digital Marketing Senior Specialist</t>
+  </si>
+  <si>
+    <t>Rahul Doke</t>
+  </si>
+  <si>
+    <t>Suyog Kohale</t>
+  </si>
+  <si>
+    <t>suyog.kohale@urbangabru.in</t>
+  </si>
+  <si>
+    <t>creative editor</t>
+  </si>
+  <si>
+    <t>Video Editor Senior Associate</t>
+  </si>
+  <si>
     <t>Arpita achwal</t>
-  </si>
-  <si>
-    <t>Ravindra Balasaheb Najan</t>
-  </si>
-  <si>
-    <t>ravindra.najan@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Ecom Senior Specialist</t>
-  </si>
-  <si>
-    <t>Shailesh bhujbal</t>
-  </si>
-  <si>
-    <t>shailesh.bhujbal@urbangabru.co.in</t>
-  </si>
-  <si>
-    <t>Rahul Madhukar Doke</t>
-  </si>
-  <si>
-    <t>rahul.doke@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Digital Marketing</t>
-  </si>
-  <si>
-    <t>Digital Marketing Senior Manager</t>
-  </si>
-  <si>
-    <t>Dhanashree Sachin Kavatage</t>
-  </si>
-  <si>
-    <t>dhanashree.jirage@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Online Operation Specialist</t>
-  </si>
-  <si>
-    <t>Akash Chandrabansi</t>
-  </si>
-  <si>
-    <t>akash.chandrabansi@urbanyog.in</t>
-  </si>
-  <si>
-    <t>Karamveer Gautam</t>
-  </si>
-  <si>
-    <t>karamveer.gautam@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Sushil Nakade</t>
-  </si>
-  <si>
-    <t>sushil.nakade@urbangabru.in</t>
-  </si>
-  <si>
-    <t>opreations</t>
-  </si>
-  <si>
-    <t>Shivam Nimje</t>
-  </si>
-  <si>
-    <t>shivam.nimje@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Digital Marketing Senior Specialist</t>
-  </si>
-  <si>
-    <t>Rahul Doke</t>
-  </si>
-  <si>
-    <t>Suyog Kohale</t>
-  </si>
-  <si>
-    <t>suyog.kohale@urbangabru.in</t>
-  </si>
-  <si>
-    <t>creative editor</t>
-  </si>
-  <si>
-    <t>Video Editor Senior Associate</t>
   </si>
   <si>
     <t>Amar Deep Kumar</t>
@@ -718,6 +724,9 @@
   </si>
   <si>
     <t>Content Strategist Senior Associate</t>
+  </si>
+  <si>
+    <t>head</t>
   </si>
   <si>
     <t>Avinash Desale</t>
@@ -1183,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1194,8 +1203,10 @@
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="9" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1608,10 +1619,10 @@
         <v>65</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="J13" s="1">
-        <v>154</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1622,10 +1633,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>25</v>
@@ -1634,13 +1645,13 @@
         <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J14" s="1">
         <v>425</v>
@@ -1654,19 +1665,19 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>18</v>
@@ -1686,10 +1697,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -1698,7 +1709,7 @@
         <v>53</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>16</v>
@@ -1718,10 +1729,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>25</v>
@@ -1750,10 +1761,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>62</v>
@@ -1768,10 +1779,10 @@
         <v>65</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="J18" s="1">
-        <v>154</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1782,16 +1793,16 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>15</v>
@@ -1814,25 +1825,25 @@
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="J20" s="1">
         <v>158</v>
@@ -1846,22 +1857,22 @@
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>43</v>
@@ -1878,25 +1889,25 @@
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="J22" s="1">
         <v>158</v>
@@ -1910,25 +1921,25 @@
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="J23" s="1">
         <v>158</v>
@@ -1942,19 +1953,19 @@
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>16</v>
@@ -1974,7 +1985,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>51</v>
@@ -1986,7 +1997,7 @@
         <v>48</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>18</v>
@@ -2006,10 +2017,10 @@
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>25</v>
@@ -2018,7 +2029,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>37</v>
@@ -2038,10 +2049,10 @@
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>25</v>
@@ -2050,7 +2061,7 @@
         <v>35</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>37</v>
@@ -2070,19 +2081,19 @@
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>16</v>
@@ -2102,19 +2113,19 @@
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>16</v>
@@ -2134,10 +2145,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>25</v>
@@ -2146,10 +2157,10 @@
         <v>26</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>17</v>
@@ -2166,25 +2177,25 @@
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="J31" s="1">
         <v>158</v>
@@ -2198,10 +2209,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>25</v>
@@ -2230,10 +2241,10 @@
         <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>25</v>
@@ -2242,7 +2253,7 @@
         <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>37</v>
@@ -2262,10 +2273,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>25</v>
@@ -2274,13 +2285,13 @@
         <v>26</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J34" s="1">
         <v>425</v>
@@ -2294,10 +2305,10 @@
         <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>25</v>
@@ -2306,13 +2317,13 @@
         <v>26</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J35" s="1">
         <v>425</v>
@@ -2326,25 +2337,25 @@
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J36" s="1">
         <v>615</v>
@@ -2358,22 +2369,22 @@
         <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>43</v>
@@ -2390,28 +2401,28 @@
         <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="J38" s="1">
-        <v>154</v>
+        <v>701</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2422,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>25</v>
@@ -2434,7 +2445,7 @@
         <v>35</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>37</v>
@@ -2454,19 +2465,19 @@
         <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>16</v>
@@ -2486,25 +2497,25 @@
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="J41" s="1">
         <v>158</v>
@@ -2518,19 +2529,19 @@
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>16</v>
@@ -2550,10 +2561,10 @@
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>25</v>
@@ -2562,7 +2573,7 @@
         <v>35</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>37</v>
@@ -2582,28 +2593,28 @@
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="J44" s="1">
-        <v>154</v>
+        <v>701</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2614,22 +2625,22 @@
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>43</v>
@@ -2646,22 +2657,22 @@
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>43</v>
@@ -2678,25 +2689,25 @@
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="J47" s="1">
         <v>158</v>
@@ -2710,25 +2721,25 @@
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="J48" s="1">
         <v>158</v>
@@ -2742,25 +2753,25 @@
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="J49" s="1">
         <v>158</v>
@@ -2774,10 +2785,10 @@
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>25</v>
@@ -2786,7 +2797,7 @@
         <v>35</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>37</v>
@@ -2806,10 +2817,10 @@
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>25</v>
@@ -2818,10 +2829,10 @@
         <v>26</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>17</v>
@@ -2838,22 +2849,22 @@
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>56</v>
@@ -2870,10 +2881,10 @@
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>57</v>
@@ -2882,10 +2893,10 @@
         <v>58</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>56</v>
@@ -2902,22 +2913,22 @@
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>43</v>
@@ -2934,28 +2945,28 @@
         <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="J55" s="1">
-        <v>154</v>
+        <v>701</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30.75">
@@ -2966,25 +2977,25 @@
         <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I56" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="J56" s="1">
         <v>158</v>
@@ -2998,28 +3009,28 @@
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="J57" s="1">
-        <v>154</v>
+        <v>701</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="30.75">
@@ -3030,28 +3041,28 @@
         <v>10</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="J58" s="1">
-        <v>154</v>
+        <v>701</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3062,25 +3073,25 @@
         <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J59" s="1">
         <v>615</v>
@@ -3094,25 +3105,25 @@
         <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="J60" s="1">
         <v>158</v>
@@ -3126,22 +3137,22 @@
         <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>43</v>
@@ -3158,10 +3169,10 @@
         <v>10</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>25</v>
@@ -3170,7 +3181,7 @@
         <v>35</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>37</v>
@@ -3190,10 +3201,10 @@
         <v>10</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>25</v>
@@ -3202,7 +3213,7 @@
         <v>35</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>37</v>
@@ -3222,22 +3233,22 @@
         <v>10</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>43</v>
@@ -3254,22 +3265,22 @@
         <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>43</v>
@@ -3286,19 +3297,19 @@
         <v>10</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>18</v>
@@ -3318,10 +3329,10 @@
         <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>25</v>
@@ -3330,7 +3341,7 @@
         <v>35</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>37</v>
@@ -3347,13 +3358,13 @@
         <v>663</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>25</v>
@@ -3362,7 +3373,7 @@
         <v>35</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>37</v>
@@ -3379,22 +3390,22 @@
         <v>666</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>16</v>
@@ -3411,25 +3422,25 @@
         <v>671</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>43</v>
@@ -3443,25 +3454,25 @@
         <v>672</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>43</v>
@@ -3470,8 +3481,40 @@
         <v>154</v>
       </c>
     </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <v>701</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G72" t="s">
+        <v>228</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J72" s="1">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J71" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J72" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{638F569A-9090-47BA-ADB1-D610E608B36D}"/>
     <hyperlink ref="I4:I5" r:id="rId2" display="hemant.raulo@urbangabru.in" xr:uid="{F027F3A7-1A84-40C7-8699-209295903C83}"/>
@@ -3510,82 +3553,84 @@
     <hyperlink ref="D12" r:id="rId35" xr:uid="{658026AE-F086-405A-B266-00CA96670F76}"/>
     <hyperlink ref="I52" r:id="rId36" xr:uid="{D230CE4C-4D5C-4742-A127-48601BB55C9F}"/>
     <hyperlink ref="I53" r:id="rId37" xr:uid="{CFD8CAD0-E3BB-4C26-B0B3-2476D05B3C82}"/>
-    <hyperlink ref="I13" r:id="rId38" xr:uid="{33BC2698-573A-4CC3-B80C-F643C4572A34}"/>
-    <hyperlink ref="I18" r:id="rId39" xr:uid="{8C8E1891-BB51-45B6-B945-3D6A5E43FD0F}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{4A21746D-8B08-4471-95F9-F2358AAFF29A}"/>
-    <hyperlink ref="I37:I38" r:id="rId41" display="arpita.achwal@urbangabru.in" xr:uid="{78D494FF-FFFC-40A4-B3D8-C962AE1F917C}"/>
-    <hyperlink ref="I44:I46" r:id="rId42" display="arpita.achwal@urbangabru.in" xr:uid="{78176C75-9BAC-41D9-BA0E-5FA02B30BAED}"/>
-    <hyperlink ref="I54:I55" r:id="rId43" display="arpita.achwal@urbangabru.in" xr:uid="{7EBA3319-FDCD-4665-81CA-FB4760873209}"/>
-    <hyperlink ref="I57:I58" r:id="rId44" display="arpita.achwal@urbangabru.in" xr:uid="{CEF7FD65-A95E-4A19-A8C1-EDEE5394858A}"/>
-    <hyperlink ref="I61" r:id="rId45" xr:uid="{AACCE424-ADF3-40DC-AF28-52F6A89CCA77}"/>
-    <hyperlink ref="I64:I65" r:id="rId46" display="arpita.achwal@urbangabru.in" xr:uid="{0DE873A0-BD9C-4A82-8F7A-F5C68EA0FEBB}"/>
-    <hyperlink ref="I70:I71" r:id="rId47" display="arpita.achwal@urbangabru.in" xr:uid="{82B181B4-78C8-4DF9-AD94-318490D08CA9}"/>
-    <hyperlink ref="D13" r:id="rId48" xr:uid="{7902939E-0487-48F1-84D7-CACB529741B0}"/>
-    <hyperlink ref="D14" r:id="rId49" xr:uid="{3AB174BA-7CED-4824-A663-6F227253BD9C}"/>
-    <hyperlink ref="D15" r:id="rId50" xr:uid="{A39FC705-BA1A-42C5-9955-53E724C009F5}"/>
-    <hyperlink ref="D16" r:id="rId51" xr:uid="{B63400E7-FA3C-4250-A756-02968FE61910}"/>
-    <hyperlink ref="D17" r:id="rId52" xr:uid="{D8735FC2-EC88-421B-8865-C4FE808C25EA}"/>
-    <hyperlink ref="D18" r:id="rId53" xr:uid="{A39D22E8-829E-408E-9A29-6AC69A125558}"/>
-    <hyperlink ref="D19" r:id="rId54" xr:uid="{C4514937-C1F9-4E05-9F4E-B78A90D5FF90}"/>
-    <hyperlink ref="D20" r:id="rId55" xr:uid="{7F8983E6-C30E-4371-83E6-E1BC55CAC1F9}"/>
-    <hyperlink ref="D21" r:id="rId56" xr:uid="{E0172095-1727-483E-9C84-789368420BFE}"/>
-    <hyperlink ref="D22" r:id="rId57" xr:uid="{CBF8C6FF-229C-447F-871B-F6EF1DBB1AD0}"/>
-    <hyperlink ref="D23" r:id="rId58" xr:uid="{80366AF4-50BC-4967-A78E-D47375491424}"/>
-    <hyperlink ref="D24" r:id="rId59" xr:uid="{F717CFC2-C0EF-434A-9B39-410B45E8DBF1}"/>
-    <hyperlink ref="D31" r:id="rId60" xr:uid="{564C77A2-C93C-41E3-92EE-584D1829ED3A}"/>
-    <hyperlink ref="I2" r:id="rId61" xr:uid="{C21C51C9-8E57-4306-AE33-5771DA9EDE44}"/>
-    <hyperlink ref="I16" r:id="rId62" xr:uid="{6A0113D1-0959-4068-A664-B46AA0B1D2D1}"/>
-    <hyperlink ref="I19" r:id="rId63" xr:uid="{3B003557-D297-4794-908F-89EC252AAA33}"/>
-    <hyperlink ref="I24" r:id="rId64" xr:uid="{F71DAFC5-7C60-446C-9821-205FEF06ADD1}"/>
-    <hyperlink ref="I28:I29" r:id="rId65" display="rakesh.raulo@urbangabru.in" xr:uid="{AB2C998F-9AAA-423C-B750-1494CDFA5F7C}"/>
-    <hyperlink ref="I40" r:id="rId66" xr:uid="{6AAF4B77-CA93-4DC8-8DAF-F80FD4448AC7}"/>
-    <hyperlink ref="I42" r:id="rId67" xr:uid="{AF208654-2826-41FA-AA0B-97B2CF2997E8}"/>
-    <hyperlink ref="I69" r:id="rId68" xr:uid="{462AE825-8F34-414D-BE17-BF41645E7288}"/>
-    <hyperlink ref="D32" r:id="rId69" xr:uid="{870AB10C-3CF3-4DDC-9EC0-B411812950CC}"/>
-    <hyperlink ref="D33" r:id="rId70" xr:uid="{B2402A95-78BF-4BCE-88CF-EB9D6A842F63}"/>
-    <hyperlink ref="D35" r:id="rId71" xr:uid="{2CB97427-98B8-49D0-ADE6-B829475893D2}"/>
-    <hyperlink ref="D38" r:id="rId72" xr:uid="{33D90B85-D89C-4BB2-B836-561FEABBF159}"/>
-    <hyperlink ref="D39" r:id="rId73" xr:uid="{16DF7F2F-BF7C-4CA7-8233-3C777EE637EF}"/>
-    <hyperlink ref="D40" r:id="rId74" xr:uid="{62BA3FE9-2B7D-4E82-A6AB-861684EE44FF}"/>
-    <hyperlink ref="D41" r:id="rId75" xr:uid="{9453D832-D2B1-4EA4-B67D-ED07B05CB36B}"/>
-    <hyperlink ref="D42" r:id="rId76" xr:uid="{4551821A-2077-4E19-8923-97622E114CC5}"/>
-    <hyperlink ref="D43" r:id="rId77" xr:uid="{80F5A021-7451-45CF-8A55-84C6B184D545}"/>
-    <hyperlink ref="D44" r:id="rId78" xr:uid="{823DA6B3-861B-4DDE-9318-3D9D9501A748}"/>
-    <hyperlink ref="D45" r:id="rId79" xr:uid="{57FB5EFB-0A7A-447E-B048-753DDCBE83BE}"/>
-    <hyperlink ref="D46" r:id="rId80" xr:uid="{65D20DC5-D347-4B92-939D-67C6E9CA4099}"/>
-    <hyperlink ref="D47" r:id="rId81" xr:uid="{C53125F8-9352-487F-84D2-E15D4AB7961A}"/>
-    <hyperlink ref="D48" r:id="rId82" xr:uid="{DFDBB072-57B6-414E-AD32-C43529C0A02E}"/>
-    <hyperlink ref="D36" r:id="rId83" xr:uid="{3188CB5A-A50C-49D2-93D0-605F6447520C}"/>
-    <hyperlink ref="D34" r:id="rId84" xr:uid="{F32CC1AB-1D08-4CBF-8734-41FE9CE792F2}"/>
-    <hyperlink ref="D37" r:id="rId85" xr:uid="{91939463-F347-4EB1-9835-10D0C5847AC2}"/>
-    <hyperlink ref="D50" r:id="rId86" xr:uid="{697A9CA5-37EE-4DA8-8785-23118AA9A986}"/>
-    <hyperlink ref="D51" r:id="rId87" xr:uid="{B837B941-6C09-4383-8340-057EFEEF4C2A}"/>
-    <hyperlink ref="D53" r:id="rId88" xr:uid="{5228BFFC-0024-4B76-A50F-378E909DEB9E}"/>
-    <hyperlink ref="D56" r:id="rId89" xr:uid="{03A49264-3529-4D46-96B4-F9E4B408275C}"/>
-    <hyperlink ref="D57" r:id="rId90" xr:uid="{B80B62FD-0A48-424D-9193-718DE528A3D9}"/>
-    <hyperlink ref="D60" r:id="rId91" xr:uid="{FF27CE65-EDD1-48CB-ADD2-FC1B04379D4F}"/>
-    <hyperlink ref="D61" r:id="rId92" xr:uid="{DD7177EA-B1A0-4A32-8ECC-126A8F698C87}"/>
-    <hyperlink ref="D62" r:id="rId93" xr:uid="{51AD824A-C8CC-4BDA-BDCB-CACD814337EE}"/>
-    <hyperlink ref="D63" r:id="rId94" xr:uid="{4D20B7EA-6506-4321-91D8-D043FDC215DB}"/>
-    <hyperlink ref="D64" r:id="rId95" xr:uid="{53CA0A1B-9838-4F34-9189-994827F11B4F}"/>
-    <hyperlink ref="D65" r:id="rId96" xr:uid="{006B567B-960D-4976-BA47-34C8AAC2EA6B}"/>
-    <hyperlink ref="D66" r:id="rId97" xr:uid="{D77DFDE8-52D1-47B3-937D-8875B12C8187}"/>
-    <hyperlink ref="D67" r:id="rId98" xr:uid="{4DAD1DCD-6DA4-4821-8767-096D23FA684C}"/>
-    <hyperlink ref="D68" r:id="rId99" xr:uid="{DE32128C-030C-49D8-B6C1-826E021812FC}"/>
-    <hyperlink ref="D69" r:id="rId100" xr:uid="{CBA88F32-2246-46B4-AC53-88544E823387}"/>
-    <hyperlink ref="D70" r:id="rId101" xr:uid="{FC846F3F-D1FA-4F31-B652-3CF29A90246C}"/>
-    <hyperlink ref="D71" r:id="rId102" xr:uid="{BFEFF04B-2141-4567-96A6-D3056766BB0D}"/>
-    <hyperlink ref="I36" r:id="rId103" xr:uid="{A6C0CC82-44BA-4222-B39E-D7476DA47C6B}"/>
-    <hyperlink ref="I59" r:id="rId104" xr:uid="{5DC615E7-939C-43DA-B019-1328E3A6AB38}"/>
-    <hyperlink ref="I14" r:id="rId105" xr:uid="{4C4DDAEE-F389-4B2E-BF3A-B7B53B7D3F87}"/>
-    <hyperlink ref="I34:I35" r:id="rId106" display="shailesh.bhujbal@urbangabru.co.in" xr:uid="{4B015309-8B52-4485-9965-99C88E6F4FAC}"/>
-    <hyperlink ref="I20" r:id="rId107" xr:uid="{E2E655CA-8855-4FFF-8D68-FE7BE3856DAD}"/>
-    <hyperlink ref="I22:I23" r:id="rId108" xr:uid="{249F710E-612E-4A2B-9513-A7E0D75A00F0}"/>
-    <hyperlink ref="I31" r:id="rId109" xr:uid="{0DDB982B-4488-4CAE-AE51-CE129FB8AF5D}"/>
-    <hyperlink ref="I41" r:id="rId110" xr:uid="{6CE8AB3C-163D-40F6-96CD-419E037BC515}"/>
-    <hyperlink ref="I47:I49" r:id="rId111" xr:uid="{49138BDB-FD98-425A-8A09-D467631C7A6C}"/>
-    <hyperlink ref="I56" r:id="rId112" xr:uid="{85529956-96FD-44B7-B1B5-B8B96D656A21}"/>
-    <hyperlink ref="I60" r:id="rId113" xr:uid="{B3890C9C-5043-447C-9BE8-849115F9ED91}"/>
+    <hyperlink ref="I21" r:id="rId38" xr:uid="{4A21746D-8B08-4471-95F9-F2358AAFF29A}"/>
+    <hyperlink ref="I61" r:id="rId39" xr:uid="{AACCE424-ADF3-40DC-AF28-52F6A89CCA77}"/>
+    <hyperlink ref="I64:I65" r:id="rId40" display="arpita.achwal@urbangabru.in" xr:uid="{0DE873A0-BD9C-4A82-8F7A-F5C68EA0FEBB}"/>
+    <hyperlink ref="I70:I71" r:id="rId41" display="arpita.achwal@urbangabru.in" xr:uid="{82B181B4-78C8-4DF9-AD94-318490D08CA9}"/>
+    <hyperlink ref="D13" r:id="rId42" xr:uid="{7902939E-0487-48F1-84D7-CACB529741B0}"/>
+    <hyperlink ref="D14" r:id="rId43" xr:uid="{3AB174BA-7CED-4824-A663-6F227253BD9C}"/>
+    <hyperlink ref="D15" r:id="rId44" xr:uid="{A39FC705-BA1A-42C5-9955-53E724C009F5}"/>
+    <hyperlink ref="D16" r:id="rId45" xr:uid="{B63400E7-FA3C-4250-A756-02968FE61910}"/>
+    <hyperlink ref="D17" r:id="rId46" xr:uid="{D8735FC2-EC88-421B-8865-C4FE808C25EA}"/>
+    <hyperlink ref="D18" r:id="rId47" xr:uid="{A39D22E8-829E-408E-9A29-6AC69A125558}"/>
+    <hyperlink ref="D19" r:id="rId48" xr:uid="{C4514937-C1F9-4E05-9F4E-B78A90D5FF90}"/>
+    <hyperlink ref="D20" r:id="rId49" xr:uid="{7F8983E6-C30E-4371-83E6-E1BC55CAC1F9}"/>
+    <hyperlink ref="D21" r:id="rId50" xr:uid="{E0172095-1727-483E-9C84-789368420BFE}"/>
+    <hyperlink ref="D22" r:id="rId51" xr:uid="{CBF8C6FF-229C-447F-871B-F6EF1DBB1AD0}"/>
+    <hyperlink ref="D23" r:id="rId52" xr:uid="{80366AF4-50BC-4967-A78E-D47375491424}"/>
+    <hyperlink ref="D24" r:id="rId53" xr:uid="{F717CFC2-C0EF-434A-9B39-410B45E8DBF1}"/>
+    <hyperlink ref="D31" r:id="rId54" xr:uid="{564C77A2-C93C-41E3-92EE-584D1829ED3A}"/>
+    <hyperlink ref="I2" r:id="rId55" xr:uid="{C21C51C9-8E57-4306-AE33-5771DA9EDE44}"/>
+    <hyperlink ref="I16" r:id="rId56" xr:uid="{6A0113D1-0959-4068-A664-B46AA0B1D2D1}"/>
+    <hyperlink ref="I19" r:id="rId57" xr:uid="{3B003557-D297-4794-908F-89EC252AAA33}"/>
+    <hyperlink ref="I24" r:id="rId58" xr:uid="{F71DAFC5-7C60-446C-9821-205FEF06ADD1}"/>
+    <hyperlink ref="I28:I29" r:id="rId59" display="rakesh.raulo@urbangabru.in" xr:uid="{AB2C998F-9AAA-423C-B750-1494CDFA5F7C}"/>
+    <hyperlink ref="I40" r:id="rId60" xr:uid="{6AAF4B77-CA93-4DC8-8DAF-F80FD4448AC7}"/>
+    <hyperlink ref="I42" r:id="rId61" xr:uid="{AF208654-2826-41FA-AA0B-97B2CF2997E8}"/>
+    <hyperlink ref="I69" r:id="rId62" xr:uid="{462AE825-8F34-414D-BE17-BF41645E7288}"/>
+    <hyperlink ref="D32" r:id="rId63" xr:uid="{870AB10C-3CF3-4DDC-9EC0-B411812950CC}"/>
+    <hyperlink ref="D33" r:id="rId64" xr:uid="{B2402A95-78BF-4BCE-88CF-EB9D6A842F63}"/>
+    <hyperlink ref="D35" r:id="rId65" xr:uid="{2CB97427-98B8-49D0-ADE6-B829475893D2}"/>
+    <hyperlink ref="D38" r:id="rId66" xr:uid="{33D90B85-D89C-4BB2-B836-561FEABBF159}"/>
+    <hyperlink ref="D39" r:id="rId67" xr:uid="{16DF7F2F-BF7C-4CA7-8233-3C777EE637EF}"/>
+    <hyperlink ref="D40" r:id="rId68" xr:uid="{62BA3FE9-2B7D-4E82-A6AB-861684EE44FF}"/>
+    <hyperlink ref="D41" r:id="rId69" xr:uid="{9453D832-D2B1-4EA4-B67D-ED07B05CB36B}"/>
+    <hyperlink ref="D42" r:id="rId70" xr:uid="{4551821A-2077-4E19-8923-97622E114CC5}"/>
+    <hyperlink ref="D43" r:id="rId71" xr:uid="{80F5A021-7451-45CF-8A55-84C6B184D545}"/>
+    <hyperlink ref="D44" r:id="rId72" xr:uid="{823DA6B3-861B-4DDE-9318-3D9D9501A748}"/>
+    <hyperlink ref="D45" r:id="rId73" xr:uid="{57FB5EFB-0A7A-447E-B048-753DDCBE83BE}"/>
+    <hyperlink ref="D46" r:id="rId74" xr:uid="{65D20DC5-D347-4B92-939D-67C6E9CA4099}"/>
+    <hyperlink ref="D47" r:id="rId75" xr:uid="{C53125F8-9352-487F-84D2-E15D4AB7961A}"/>
+    <hyperlink ref="D48" r:id="rId76" xr:uid="{DFDBB072-57B6-414E-AD32-C43529C0A02E}"/>
+    <hyperlink ref="D36" r:id="rId77" xr:uid="{3188CB5A-A50C-49D2-93D0-605F6447520C}"/>
+    <hyperlink ref="D34" r:id="rId78" xr:uid="{F32CC1AB-1D08-4CBF-8734-41FE9CE792F2}"/>
+    <hyperlink ref="D37" r:id="rId79" xr:uid="{91939463-F347-4EB1-9835-10D0C5847AC2}"/>
+    <hyperlink ref="D50" r:id="rId80" xr:uid="{697A9CA5-37EE-4DA8-8785-23118AA9A986}"/>
+    <hyperlink ref="D51" r:id="rId81" xr:uid="{B837B941-6C09-4383-8340-057EFEEF4C2A}"/>
+    <hyperlink ref="D53" r:id="rId82" xr:uid="{5228BFFC-0024-4B76-A50F-378E909DEB9E}"/>
+    <hyperlink ref="D56" r:id="rId83" xr:uid="{03A49264-3529-4D46-96B4-F9E4B408275C}"/>
+    <hyperlink ref="D57" r:id="rId84" xr:uid="{B80B62FD-0A48-424D-9193-718DE528A3D9}"/>
+    <hyperlink ref="D60" r:id="rId85" xr:uid="{FF27CE65-EDD1-48CB-ADD2-FC1B04379D4F}"/>
+    <hyperlink ref="D61" r:id="rId86" xr:uid="{DD7177EA-B1A0-4A32-8ECC-126A8F698C87}"/>
+    <hyperlink ref="D62" r:id="rId87" xr:uid="{51AD824A-C8CC-4BDA-BDCB-CACD814337EE}"/>
+    <hyperlink ref="D63" r:id="rId88" xr:uid="{4D20B7EA-6506-4321-91D8-D043FDC215DB}"/>
+    <hyperlink ref="D64" r:id="rId89" xr:uid="{53CA0A1B-9838-4F34-9189-994827F11B4F}"/>
+    <hyperlink ref="D65" r:id="rId90" xr:uid="{006B567B-960D-4976-BA47-34C8AAC2EA6B}"/>
+    <hyperlink ref="D66" r:id="rId91" xr:uid="{D77DFDE8-52D1-47B3-937D-8875B12C8187}"/>
+    <hyperlink ref="D67" r:id="rId92" xr:uid="{4DAD1DCD-6DA4-4821-8767-096D23FA684C}"/>
+    <hyperlink ref="D68" r:id="rId93" xr:uid="{DE32128C-030C-49D8-B6C1-826E021812FC}"/>
+    <hyperlink ref="D69" r:id="rId94" xr:uid="{CBA88F32-2246-46B4-AC53-88544E823387}"/>
+    <hyperlink ref="D70" r:id="rId95" xr:uid="{FC846F3F-D1FA-4F31-B652-3CF29A90246C}"/>
+    <hyperlink ref="D71" r:id="rId96" xr:uid="{BFEFF04B-2141-4567-96A6-D3056766BB0D}"/>
+    <hyperlink ref="I36" r:id="rId97" xr:uid="{A6C0CC82-44BA-4222-B39E-D7476DA47C6B}"/>
+    <hyperlink ref="I59" r:id="rId98" xr:uid="{5DC615E7-939C-43DA-B019-1328E3A6AB38}"/>
+    <hyperlink ref="I14" r:id="rId99" xr:uid="{4C4DDAEE-F389-4B2E-BF3A-B7B53B7D3F87}"/>
+    <hyperlink ref="I34:I35" r:id="rId100" display="shailesh.bhujbal@urbangabru.co.in" xr:uid="{4B015309-8B52-4485-9965-99C88E6F4FAC}"/>
+    <hyperlink ref="I20" r:id="rId101" xr:uid="{E2E655CA-8855-4FFF-8D68-FE7BE3856DAD}"/>
+    <hyperlink ref="I22:I23" r:id="rId102" xr:uid="{249F710E-612E-4A2B-9513-A7E0D75A00F0}"/>
+    <hyperlink ref="I31" r:id="rId103" xr:uid="{0DDB982B-4488-4CAE-AE51-CE129FB8AF5D}"/>
+    <hyperlink ref="I41" r:id="rId104" xr:uid="{6CE8AB3C-163D-40F6-96CD-419E037BC515}"/>
+    <hyperlink ref="I47:I49" r:id="rId105" xr:uid="{49138BDB-FD98-425A-8A09-D467631C7A6C}"/>
+    <hyperlink ref="I56" r:id="rId106" xr:uid="{85529956-96FD-44B7-B1B5-B8B96D656A21}"/>
+    <hyperlink ref="I60" r:id="rId107" xr:uid="{B3890C9C-5043-447C-9BE8-849115F9ED91}"/>
+    <hyperlink ref="I13" r:id="rId108" xr:uid="{B06B408B-86DE-4DC1-A0B1-E651C3474CC0}"/>
+    <hyperlink ref="D72" r:id="rId109" xr:uid="{2BB55C61-927A-4ACD-BFB5-8BFBEB3AB87D}"/>
+    <hyperlink ref="I72" r:id="rId110" xr:uid="{FE4CB666-8CCD-41A4-88DC-772F7E72B69E}"/>
+    <hyperlink ref="I18" r:id="rId111" xr:uid="{65D62495-7ED6-4AEE-85AA-5E06DD4DCC50}"/>
+    <hyperlink ref="I38" r:id="rId112" xr:uid="{5A19F303-21CE-4C85-8F0C-E1C79BC97EE4}"/>
+    <hyperlink ref="I44" r:id="rId113" xr:uid="{CE65FCF0-CAD9-4672-ABBE-37B0F48F2980}"/>
+    <hyperlink ref="I55" r:id="rId114" xr:uid="{EE4F0454-9D7B-4D12-AF17-1357CE1D3E35}"/>
+    <hyperlink ref="I57:I58" r:id="rId115" display="shrushti.mulage@urbangabru.in" xr:uid="{6033AC21-F7BE-4E51-A959-D5962C670FA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3607,7 +3652,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>61</v>
@@ -3623,10 +3668,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3647,15 +3692,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>47</v>
@@ -3663,7 +3708,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>40</v>
@@ -3679,7 +3724,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
@@ -3695,7 +3740,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -3703,79 +3748,79 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>51</v>
@@ -3783,242 +3828,242 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="76.5">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="76.5">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="76.5">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="76.5">
       <c r="A50" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="76.5">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/reporting_hierarchy.xlsx
+++ b/reporting_hierarchy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="190" documentId="11_254B45AE2BF66FFC05FC9890E2159AB6B2E0D67D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2032466B-47FC-4C00-A012-01852FE85C74}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AEE0F21-4041-49D3-A561-5EA1DF1851CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="256">
   <si>
     <t>Employee No</t>
   </si>
@@ -621,178 +621,194 @@
   </si>
   <si>
     <t xml:space="preserve">
+akshay.patil@urbangabru.co.in</t>
+  </si>
+  <si>
+    <t>Ankit Patil</t>
+  </si>
+  <si>
+    <t>ankit.patil@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Junior Associate</t>
+  </si>
+  <si>
+    <t>Hassaan Syed</t>
+  </si>
+  <si>
+    <t>hassaan.syed@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Prajkta Bhosale</t>
+  </si>
+  <si>
+    <t>prajkta.bhosale@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Content Writer Associate</t>
+  </si>
+  <si>
+    <t>Janhavi Saywan</t>
+  </si>
+  <si>
+    <t>janhavi.saywan@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Influencer Marketing Junior Associate</t>
+  </si>
+  <si>
+    <t>Naomi Uttamchandani</t>
+  </si>
+  <si>
+    <t>naomi.uttamchandani@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Shreyas Shinde</t>
+  </si>
+  <si>
+    <t>shreyas.shinde@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Video Production Associate</t>
+  </si>
+  <si>
+    <t>Priya Saraswat</t>
+  </si>
+  <si>
+    <t>priya.saraswat@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Saniya Jilani Khan</t>
+  </si>
+  <si>
+    <t>saniya.khan@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Tele sales</t>
+  </si>
+  <si>
+    <t>Tele Sales Associate</t>
+  </si>
+  <si>
+    <t>Tanaya Parate</t>
+  </si>
+  <si>
+    <t>tanaya.parate@urbangabru.in</t>
+  </si>
+  <si>
+    <t>New Joiner</t>
+  </si>
+  <si>
+    <t>LG Harsha</t>
+  </si>
+  <si>
+    <t>harsha.lg@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Rajni Kunde</t>
+  </si>
+  <si>
+    <t>rajni.kunde@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Shruti Shinde</t>
+  </si>
+  <si>
+    <t>shruti.shinde@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Nishidha Bagayatkar</t>
+  </si>
+  <si>
+    <t>nishidha.bagayatkar@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Content Strategist Senior Associate</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>Mayur M</t>
+  </si>
+  <si>
+    <t>mayur.mundankar@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Shrishti Bihani</t>
+  </si>
+  <si>
+    <t>shristi.bihani@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Avinash Desale</t>
+  </si>
+  <si>
+    <t>Dhanashree Jirage</t>
+  </si>
+  <si>
+    <t>Ravindra Najan</t>
+  </si>
+  <si>
+    <t>Pratibha Lokhande</t>
+  </si>
+  <si>
+    <t>Aman Singh</t>
+  </si>
+  <si>
+    <t>Pallavi Ohol</t>
+  </si>
+  <si>
+    <t>Abhishek Yadav</t>
+  </si>
+  <si>
+    <t>Amar  Deep</t>
+  </si>
+  <si>
+    <t>RATAN KUMAR  GAUTAM</t>
+  </si>
+  <si>
+    <t>Ajit Kumar</t>
+  </si>
+  <si>
+    <t>Jyoti  Birari</t>
+  </si>
+  <si>
+    <t>Aditya.sawant@urbangabru.co.in</t>
+  </si>
+  <si>
+    <t>Shailesh  Bhujbal</t>
+  </si>
+  <si>
+    <t>Animesh  Srivastava</t>
+  </si>
+  <si>
+    <t>Saurabh Deshmukh</t>
+  </si>
+  <si>
+    <t>sourabh.deshmukh@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Bhushan Ghule</t>
+  </si>
+  <si>
+    <t>Ashwin Panse</t>
+  </si>
+  <si>
+    <t>Ruturaj Vidhate</t>
+  </si>
+  <si>
+    <t>Shahebaj Rahemat Ali Sayyad</t>
+  </si>
+  <si>
+    <t>Ram fhunde</t>
+  </si>
+  <si>
+    <t>Akshay Patil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 akshay.patil@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Ankit Patil</t>
-  </si>
-  <si>
-    <t>ankit.patil@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Junior Associate</t>
-  </si>
-  <si>
-    <t>Hassaan Syed</t>
-  </si>
-  <si>
-    <t>hassaan.syed@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Prajkta Bhosale</t>
-  </si>
-  <si>
-    <t>prajkta.bhosale@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Content Writer Associate</t>
-  </si>
-  <si>
-    <t>Janhavi Saywan</t>
-  </si>
-  <si>
-    <t>janhavi.saywan@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Influencer Marketing Junior Associate</t>
-  </si>
-  <si>
-    <t>Naomi Uttamchandani</t>
-  </si>
-  <si>
-    <t>naomi.uttamchandani@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Shreyas Shinde</t>
-  </si>
-  <si>
-    <t>shreyas.shinde@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Video Production Associate</t>
-  </si>
-  <si>
-    <t>Priya Saraswat</t>
-  </si>
-  <si>
-    <t>priya.saraswat@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Saniya Jilani Khan</t>
-  </si>
-  <si>
-    <t>saniya.khan@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Tele sales</t>
-  </si>
-  <si>
-    <t>Tele Sales Associate</t>
-  </si>
-  <si>
-    <t>Tanaya Parate</t>
-  </si>
-  <si>
-    <t>tanaya.parate@urbangabru.in</t>
-  </si>
-  <si>
-    <t>New Joiner</t>
-  </si>
-  <si>
-    <t>LG Harsha</t>
-  </si>
-  <si>
-    <t>harsha.lg@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Rajni Kunde</t>
-  </si>
-  <si>
-    <t>rajni.kunde@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Shruti Shinde</t>
-  </si>
-  <si>
-    <t>shruti.shinde@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Nishidha Bagayatkar</t>
-  </si>
-  <si>
-    <t>nishidha.bagayatkar@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Content Strategist Senior Associate</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>Avinash Desale</t>
-  </si>
-  <si>
-    <t>Dhanashree Jirage</t>
-  </si>
-  <si>
-    <t>Ravindra Najan</t>
-  </si>
-  <si>
-    <t>Pratibha Lokhande</t>
-  </si>
-  <si>
-    <t>Aman Singh</t>
-  </si>
-  <si>
-    <t>Pallavi Ohol</t>
-  </si>
-  <si>
-    <t>Abhishek Yadav</t>
-  </si>
-  <si>
-    <t>Amar  Deep</t>
-  </si>
-  <si>
-    <t>RATAN KUMAR  GAUTAM</t>
-  </si>
-  <si>
-    <t>Ajit Kumar</t>
-  </si>
-  <si>
-    <t>Jyoti  Birari</t>
-  </si>
-  <si>
-    <t>Aditya.sawant@urbangabru.co.in</t>
-  </si>
-  <si>
-    <t>Shailesh  Bhujbal</t>
-  </si>
-  <si>
-    <t>Animesh  Srivastava</t>
-  </si>
-  <si>
-    <t>Saurabh Deshmukh</t>
-  </si>
-  <si>
-    <t>sourabh.deshmukh@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Bhushan Ghule</t>
-  </si>
-  <si>
-    <t>Ashwin Panse</t>
-  </si>
-  <si>
-    <t>Ruturaj Vidhate</t>
-  </si>
-  <si>
-    <t>Shahebaj Rahemat Ali Sayyad</t>
-  </si>
-  <si>
-    <t>Ram fhunde</t>
-  </si>
-  <si>
-    <t>Akshay Patil</t>
   </si>
 </sst>
 </file>
@@ -1192,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H58"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3510,6 +3526,70 @@
         <v>43</v>
       </c>
       <c r="J72" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73">
+        <v>705</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" t="s">
+        <v>229</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J73" s="1">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
+        <v>706</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" t="s">
+        <v>231</v>
+      </c>
+      <c r="D74" t="s">
+        <v>232</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J74" s="1">
         <v>154</v>
       </c>
     </row>
@@ -3631,6 +3711,9 @@
     <hyperlink ref="I44" r:id="rId113" xr:uid="{CE65FCF0-CAD9-4672-ABBE-37B0F48F2980}"/>
     <hyperlink ref="I55" r:id="rId114" xr:uid="{EE4F0454-9D7B-4D12-AF17-1357CE1D3E35}"/>
     <hyperlink ref="I57:I58" r:id="rId115" display="shrushti.mulage@urbangabru.in" xr:uid="{6033AC21-F7BE-4E51-A959-D5962C670FA3}"/>
+    <hyperlink ref="D73" r:id="rId116" xr:uid="{D4FDC315-7B6D-4469-88E3-1589B741FE41}"/>
+    <hyperlink ref="I73" r:id="rId117" xr:uid="{C558B3C7-EBFE-4FB4-ADD6-6EB2E4AD0F9E}"/>
+    <hyperlink ref="I74" r:id="rId118" xr:uid="{D462771F-AC20-49C3-B70C-FA245A6B1D6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3652,7 +3735,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>61</v>
@@ -3668,7 +3751,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>77</v>
@@ -3692,7 +3775,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>68</v>
@@ -3700,7 +3783,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>47</v>
@@ -3708,7 +3791,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>40</v>
@@ -3724,7 +3807,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
@@ -3740,7 +3823,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -3804,7 +3887,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>96</v>
@@ -3812,7 +3895,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>98</v>
@@ -3828,7 +3911,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>106</v>
@@ -3836,7 +3919,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>114</v>
@@ -3871,12 +3954,12 @@
         <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>71</v>
@@ -3908,7 +3991,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B33" t="s">
         <v>135</v>
@@ -3916,10 +3999,10 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B34" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3940,7 +4023,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>145</v>
@@ -3948,7 +4031,7 @@
     </row>
     <row r="38" spans="1:2" ht="76.5">
       <c r="A38" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>147</v>
@@ -3972,7 +4055,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>156</v>
@@ -3980,7 +4063,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>159</v>
@@ -4004,7 +4087,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>167</v>
@@ -4044,10 +4127,10 @@
     </row>
     <row r="50" spans="1:2" ht="76.5">
       <c r="A50" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:2">

--- a/reporting_hierarchy.xlsx
+++ b/reporting_hierarchy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AEE0F21-4041-49D3-A561-5EA1DF1851CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{817AD7FD-10A5-46F9-8341-F5388DB7319B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="257">
   <si>
     <t>Employee No</t>
   </si>
@@ -427,7 +427,7 @@
     <t>Rahul Kalyankar</t>
   </si>
   <si>
-    <t>rahul.kalyankar@urbanagabru.in</t>
+    <t>Rahul.Kalyankar@urbangabru.in</t>
   </si>
   <si>
     <t>Process improvement</t>
@@ -739,6 +739,9 @@
   </si>
   <si>
     <t>shristi.bihani@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Rahul.Kalyankar@urbangabru.co.in</t>
   </si>
   <si>
     <t>Avinash Desale</t>
@@ -1208,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3591,6 +3594,38 @@
       </c>
       <c r="J74" s="1">
         <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>448</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J75" s="1">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -3672,48 +3707,50 @@
     <hyperlink ref="D46" r:id="rId74" xr:uid="{65D20DC5-D347-4B92-939D-67C6E9CA4099}"/>
     <hyperlink ref="D47" r:id="rId75" xr:uid="{C53125F8-9352-487F-84D2-E15D4AB7961A}"/>
     <hyperlink ref="D48" r:id="rId76" xr:uid="{DFDBB072-57B6-414E-AD32-C43529C0A02E}"/>
-    <hyperlink ref="D36" r:id="rId77" xr:uid="{3188CB5A-A50C-49D2-93D0-605F6447520C}"/>
-    <hyperlink ref="D34" r:id="rId78" xr:uid="{F32CC1AB-1D08-4CBF-8734-41FE9CE792F2}"/>
-    <hyperlink ref="D37" r:id="rId79" xr:uid="{91939463-F347-4EB1-9835-10D0C5847AC2}"/>
-    <hyperlink ref="D50" r:id="rId80" xr:uid="{697A9CA5-37EE-4DA8-8785-23118AA9A986}"/>
-    <hyperlink ref="D51" r:id="rId81" xr:uid="{B837B941-6C09-4383-8340-057EFEEF4C2A}"/>
-    <hyperlink ref="D53" r:id="rId82" xr:uid="{5228BFFC-0024-4B76-A50F-378E909DEB9E}"/>
-    <hyperlink ref="D56" r:id="rId83" xr:uid="{03A49264-3529-4D46-96B4-F9E4B408275C}"/>
-    <hyperlink ref="D57" r:id="rId84" xr:uid="{B80B62FD-0A48-424D-9193-718DE528A3D9}"/>
-    <hyperlink ref="D60" r:id="rId85" xr:uid="{FF27CE65-EDD1-48CB-ADD2-FC1B04379D4F}"/>
-    <hyperlink ref="D61" r:id="rId86" xr:uid="{DD7177EA-B1A0-4A32-8ECC-126A8F698C87}"/>
-    <hyperlink ref="D62" r:id="rId87" xr:uid="{51AD824A-C8CC-4BDA-BDCB-CACD814337EE}"/>
-    <hyperlink ref="D63" r:id="rId88" xr:uid="{4D20B7EA-6506-4321-91D8-D043FDC215DB}"/>
-    <hyperlink ref="D64" r:id="rId89" xr:uid="{53CA0A1B-9838-4F34-9189-994827F11B4F}"/>
-    <hyperlink ref="D65" r:id="rId90" xr:uid="{006B567B-960D-4976-BA47-34C8AAC2EA6B}"/>
-    <hyperlink ref="D66" r:id="rId91" xr:uid="{D77DFDE8-52D1-47B3-937D-8875B12C8187}"/>
-    <hyperlink ref="D67" r:id="rId92" xr:uid="{4DAD1DCD-6DA4-4821-8767-096D23FA684C}"/>
-    <hyperlink ref="D68" r:id="rId93" xr:uid="{DE32128C-030C-49D8-B6C1-826E021812FC}"/>
-    <hyperlink ref="D69" r:id="rId94" xr:uid="{CBA88F32-2246-46B4-AC53-88544E823387}"/>
-    <hyperlink ref="D70" r:id="rId95" xr:uid="{FC846F3F-D1FA-4F31-B652-3CF29A90246C}"/>
-    <hyperlink ref="D71" r:id="rId96" xr:uid="{BFEFF04B-2141-4567-96A6-D3056766BB0D}"/>
-    <hyperlink ref="I36" r:id="rId97" xr:uid="{A6C0CC82-44BA-4222-B39E-D7476DA47C6B}"/>
-    <hyperlink ref="I59" r:id="rId98" xr:uid="{5DC615E7-939C-43DA-B019-1328E3A6AB38}"/>
-    <hyperlink ref="I14" r:id="rId99" xr:uid="{4C4DDAEE-F389-4B2E-BF3A-B7B53B7D3F87}"/>
-    <hyperlink ref="I34:I35" r:id="rId100" display="shailesh.bhujbal@urbangabru.co.in" xr:uid="{4B015309-8B52-4485-9965-99C88E6F4FAC}"/>
-    <hyperlink ref="I20" r:id="rId101" xr:uid="{E2E655CA-8855-4FFF-8D68-FE7BE3856DAD}"/>
-    <hyperlink ref="I22:I23" r:id="rId102" xr:uid="{249F710E-612E-4A2B-9513-A7E0D75A00F0}"/>
-    <hyperlink ref="I31" r:id="rId103" xr:uid="{0DDB982B-4488-4CAE-AE51-CE129FB8AF5D}"/>
-    <hyperlink ref="I41" r:id="rId104" xr:uid="{6CE8AB3C-163D-40F6-96CD-419E037BC515}"/>
-    <hyperlink ref="I47:I49" r:id="rId105" xr:uid="{49138BDB-FD98-425A-8A09-D467631C7A6C}"/>
-    <hyperlink ref="I56" r:id="rId106" xr:uid="{85529956-96FD-44B7-B1B5-B8B96D656A21}"/>
-    <hyperlink ref="I60" r:id="rId107" xr:uid="{B3890C9C-5043-447C-9BE8-849115F9ED91}"/>
-    <hyperlink ref="I13" r:id="rId108" xr:uid="{B06B408B-86DE-4DC1-A0B1-E651C3474CC0}"/>
-    <hyperlink ref="D72" r:id="rId109" xr:uid="{2BB55C61-927A-4ACD-BFB5-8BFBEB3AB87D}"/>
-    <hyperlink ref="I72" r:id="rId110" xr:uid="{FE4CB666-8CCD-41A4-88DC-772F7E72B69E}"/>
-    <hyperlink ref="I18" r:id="rId111" xr:uid="{65D62495-7ED6-4AEE-85AA-5E06DD4DCC50}"/>
-    <hyperlink ref="I38" r:id="rId112" xr:uid="{5A19F303-21CE-4C85-8F0C-E1C79BC97EE4}"/>
-    <hyperlink ref="I44" r:id="rId113" xr:uid="{CE65FCF0-CAD9-4672-ABBE-37B0F48F2980}"/>
-    <hyperlink ref="I55" r:id="rId114" xr:uid="{EE4F0454-9D7B-4D12-AF17-1357CE1D3E35}"/>
-    <hyperlink ref="I57:I58" r:id="rId115" display="shrushti.mulage@urbangabru.in" xr:uid="{6033AC21-F7BE-4E51-A959-D5962C670FA3}"/>
-    <hyperlink ref="D73" r:id="rId116" xr:uid="{D4FDC315-7B6D-4469-88E3-1589B741FE41}"/>
-    <hyperlink ref="I73" r:id="rId117" xr:uid="{C558B3C7-EBFE-4FB4-ADD6-6EB2E4AD0F9E}"/>
-    <hyperlink ref="I74" r:id="rId118" xr:uid="{D462771F-AC20-49C3-B70C-FA245A6B1D6F}"/>
+    <hyperlink ref="D34" r:id="rId77" xr:uid="{F32CC1AB-1D08-4CBF-8734-41FE9CE792F2}"/>
+    <hyperlink ref="D37" r:id="rId78" xr:uid="{91939463-F347-4EB1-9835-10D0C5847AC2}"/>
+    <hyperlink ref="D50" r:id="rId79" xr:uid="{697A9CA5-37EE-4DA8-8785-23118AA9A986}"/>
+    <hyperlink ref="D51" r:id="rId80" xr:uid="{B837B941-6C09-4383-8340-057EFEEF4C2A}"/>
+    <hyperlink ref="D53" r:id="rId81" xr:uid="{5228BFFC-0024-4B76-A50F-378E909DEB9E}"/>
+    <hyperlink ref="D56" r:id="rId82" xr:uid="{03A49264-3529-4D46-96B4-F9E4B408275C}"/>
+    <hyperlink ref="D57" r:id="rId83" xr:uid="{B80B62FD-0A48-424D-9193-718DE528A3D9}"/>
+    <hyperlink ref="D60" r:id="rId84" xr:uid="{FF27CE65-EDD1-48CB-ADD2-FC1B04379D4F}"/>
+    <hyperlink ref="D61" r:id="rId85" xr:uid="{DD7177EA-B1A0-4A32-8ECC-126A8F698C87}"/>
+    <hyperlink ref="D62" r:id="rId86" xr:uid="{51AD824A-C8CC-4BDA-BDCB-CACD814337EE}"/>
+    <hyperlink ref="D63" r:id="rId87" xr:uid="{4D20B7EA-6506-4321-91D8-D043FDC215DB}"/>
+    <hyperlink ref="D64" r:id="rId88" xr:uid="{53CA0A1B-9838-4F34-9189-994827F11B4F}"/>
+    <hyperlink ref="D65" r:id="rId89" xr:uid="{006B567B-960D-4976-BA47-34C8AAC2EA6B}"/>
+    <hyperlink ref="D66" r:id="rId90" xr:uid="{D77DFDE8-52D1-47B3-937D-8875B12C8187}"/>
+    <hyperlink ref="D67" r:id="rId91" xr:uid="{4DAD1DCD-6DA4-4821-8767-096D23FA684C}"/>
+    <hyperlink ref="D68" r:id="rId92" xr:uid="{DE32128C-030C-49D8-B6C1-826E021812FC}"/>
+    <hyperlink ref="D69" r:id="rId93" xr:uid="{CBA88F32-2246-46B4-AC53-88544E823387}"/>
+    <hyperlink ref="D70" r:id="rId94" xr:uid="{FC846F3F-D1FA-4F31-B652-3CF29A90246C}"/>
+    <hyperlink ref="D71" r:id="rId95" xr:uid="{BFEFF04B-2141-4567-96A6-D3056766BB0D}"/>
+    <hyperlink ref="I36" r:id="rId96" xr:uid="{A6C0CC82-44BA-4222-B39E-D7476DA47C6B}"/>
+    <hyperlink ref="I59" r:id="rId97" xr:uid="{5DC615E7-939C-43DA-B019-1328E3A6AB38}"/>
+    <hyperlink ref="I14" r:id="rId98" xr:uid="{4C4DDAEE-F389-4B2E-BF3A-B7B53B7D3F87}"/>
+    <hyperlink ref="I34:I35" r:id="rId99" display="shailesh.bhujbal@urbangabru.co.in" xr:uid="{4B015309-8B52-4485-9965-99C88E6F4FAC}"/>
+    <hyperlink ref="I20" r:id="rId100" xr:uid="{E2E655CA-8855-4FFF-8D68-FE7BE3856DAD}"/>
+    <hyperlink ref="I22:I23" r:id="rId101" xr:uid="{249F710E-612E-4A2B-9513-A7E0D75A00F0}"/>
+    <hyperlink ref="I31" r:id="rId102" xr:uid="{0DDB982B-4488-4CAE-AE51-CE129FB8AF5D}"/>
+    <hyperlink ref="I41" r:id="rId103" xr:uid="{6CE8AB3C-163D-40F6-96CD-419E037BC515}"/>
+    <hyperlink ref="I47:I49" r:id="rId104" xr:uid="{49138BDB-FD98-425A-8A09-D467631C7A6C}"/>
+    <hyperlink ref="I56" r:id="rId105" xr:uid="{85529956-96FD-44B7-B1B5-B8B96D656A21}"/>
+    <hyperlink ref="I60" r:id="rId106" xr:uid="{B3890C9C-5043-447C-9BE8-849115F9ED91}"/>
+    <hyperlink ref="I13" r:id="rId107" xr:uid="{B06B408B-86DE-4DC1-A0B1-E651C3474CC0}"/>
+    <hyperlink ref="D72" r:id="rId108" xr:uid="{2BB55C61-927A-4ACD-BFB5-8BFBEB3AB87D}"/>
+    <hyperlink ref="I72" r:id="rId109" xr:uid="{FE4CB666-8CCD-41A4-88DC-772F7E72B69E}"/>
+    <hyperlink ref="I18" r:id="rId110" xr:uid="{65D62495-7ED6-4AEE-85AA-5E06DD4DCC50}"/>
+    <hyperlink ref="I38" r:id="rId111" xr:uid="{5A19F303-21CE-4C85-8F0C-E1C79BC97EE4}"/>
+    <hyperlink ref="I44" r:id="rId112" xr:uid="{CE65FCF0-CAD9-4672-ABBE-37B0F48F2980}"/>
+    <hyperlink ref="I55" r:id="rId113" xr:uid="{EE4F0454-9D7B-4D12-AF17-1357CE1D3E35}"/>
+    <hyperlink ref="I57:I58" r:id="rId114" display="shrushti.mulage@urbangabru.in" xr:uid="{6033AC21-F7BE-4E51-A959-D5962C670FA3}"/>
+    <hyperlink ref="D73" r:id="rId115" xr:uid="{D4FDC315-7B6D-4469-88E3-1589B741FE41}"/>
+    <hyperlink ref="I73" r:id="rId116" xr:uid="{C558B3C7-EBFE-4FB4-ADD6-6EB2E4AD0F9E}"/>
+    <hyperlink ref="I74" r:id="rId117" xr:uid="{D462771F-AC20-49C3-B70C-FA245A6B1D6F}"/>
+    <hyperlink ref="D36" r:id="rId118" xr:uid="{E91DE87D-A790-4838-8760-70C6AC703D98}"/>
+    <hyperlink ref="I75" r:id="rId119" xr:uid="{8AB72D72-B60D-4E53-A04A-507971B9D6C3}"/>
+    <hyperlink ref="D75" r:id="rId120" xr:uid="{FB78035B-3BB6-44E6-A168-E41DD27DB633}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3735,7 +3772,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>61</v>
@@ -3751,7 +3788,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>77</v>
@@ -3775,7 +3812,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>68</v>
@@ -3783,7 +3820,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>47</v>
@@ -3791,7 +3828,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>40</v>
@@ -3807,7 +3844,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
@@ -3823,7 +3860,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -3887,7 +3924,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>96</v>
@@ -3895,7 +3932,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>98</v>
@@ -3911,7 +3948,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>106</v>
@@ -3919,7 +3956,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>114</v>
@@ -3954,12 +3991,12 @@
         <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>71</v>
@@ -3991,7 +4028,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B33" t="s">
         <v>135</v>
@@ -3999,10 +4036,10 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4023,7 +4060,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>145</v>
@@ -4031,7 +4068,7 @@
     </row>
     <row r="38" spans="1:2" ht="76.5">
       <c r="A38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>147</v>
@@ -4055,7 +4092,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>156</v>
@@ -4063,7 +4100,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>159</v>
@@ -4087,7 +4124,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>167</v>
@@ -4127,10 +4164,10 @@
     </row>
     <row r="50" spans="1:2" ht="76.5">
       <c r="A50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:2">

--- a/reporting_hierarchy.xlsx
+++ b/reporting_hierarchy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29324"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{817AD7FD-10A5-46F9-8341-F5388DB7319B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="320" documentId="11_254B45AE2BF66FFC05FC9890E2159AB6B2E0D67D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D532BEE2-D452-40DD-BFE6-2DA7C7ECD66D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$68</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="289">
   <si>
     <t>Employee No</t>
   </si>
@@ -79,7 +79,7 @@
     <t>Urban Gabru Operations</t>
   </si>
   <si>
-    <t>Opreations</t>
+    <t>Operations</t>
   </si>
   <si>
     <t>Offline Operation Senior Associate</t>
@@ -196,9 +196,6 @@
     <t>Sr.Media Marketing Manager</t>
   </si>
   <si>
-    <t>Operations</t>
-  </si>
-  <si>
     <t>Operations head</t>
   </si>
   <si>
@@ -211,7 +208,7 @@
     <t>Urban Gabru Sourcing</t>
   </si>
   <si>
-    <t>Sourcing</t>
+    <t>Purchase</t>
   </si>
   <si>
     <t>Purchase Manager</t>
@@ -226,73 +223,76 @@
     <t>Urban Gabru Brand</t>
   </si>
   <si>
+    <t xml:space="preserve">Creative </t>
+  </si>
+  <si>
+    <t>Graphic Designer Specialist</t>
+  </si>
+  <si>
+    <t>Shrushti Mulage</t>
+  </si>
+  <si>
+    <t>shrushti.mulage@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Ravindra Balasaheb Najan</t>
+  </si>
+  <si>
+    <t>ravindra.najan@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Ecom Senior Specialist</t>
+  </si>
+  <si>
+    <t>Shailesh bhujbal</t>
+  </si>
+  <si>
+    <t>shailesh.bhujbal@urbangabru.co.in</t>
+  </si>
+  <si>
+    <t>Rahul Madhukar Doke</t>
+  </si>
+  <si>
+    <t>rahul.doke@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Digital Marketing</t>
+  </si>
+  <si>
+    <t>Digital Marketing Senior Manager</t>
+  </si>
+  <si>
+    <t>Dhanashree Sachin Kavatage</t>
+  </si>
+  <si>
+    <t>dhanashree.jirage@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Online Operation Specialist</t>
+  </si>
+  <si>
+    <t>Akash Chandrabansi</t>
+  </si>
+  <si>
+    <t>akash.chandrabansi@urbanyog.in</t>
+  </si>
+  <si>
+    <t>Karamveer Gautam</t>
+  </si>
+  <si>
+    <t>karamveer.gautam@urbangabru.in</t>
+  </si>
+  <si>
     <t>Creative Graphic</t>
   </si>
   <si>
-    <t>Graphic Designer Specialist</t>
-  </si>
-  <si>
-    <t>Shrushti Mulage</t>
-  </si>
-  <si>
-    <t>shrushti.mulage@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Ravindra Balasaheb Najan</t>
-  </si>
-  <si>
-    <t>ravindra.najan@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Ecom Senior Specialist</t>
-  </si>
-  <si>
-    <t>Shailesh bhujbal</t>
-  </si>
-  <si>
-    <t>shailesh.bhujbal@urbangabru.co.in</t>
-  </si>
-  <si>
-    <t>Rahul Madhukar Doke</t>
-  </si>
-  <si>
-    <t>rahul.doke@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Digital Marketing</t>
-  </si>
-  <si>
-    <t>Digital Marketing Senior Manager</t>
-  </si>
-  <si>
-    <t>Dhanashree Sachin Kavatage</t>
-  </si>
-  <si>
-    <t>dhanashree.jirage@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Online Operation Specialist</t>
-  </si>
-  <si>
-    <t>Akash Chandrabansi</t>
-  </si>
-  <si>
-    <t>akash.chandrabansi@urbanyog.in</t>
-  </si>
-  <si>
-    <t>Karamveer Gautam</t>
-  </si>
-  <si>
-    <t>karamveer.gautam@urbangabru.in</t>
-  </si>
-  <si>
     <t>Sushil Nakade</t>
   </si>
   <si>
     <t>sushil.nakade@urbangabru.in</t>
   </si>
   <si>
-    <t>opreations</t>
+    <t>operations</t>
   </si>
   <si>
     <t>Shivam Nimje</t>
@@ -320,12 +320,6 @@
   </si>
   <si>
     <t>Arpita achwal</t>
-  </si>
-  <si>
-    <t>Amar Deep Kumar</t>
-  </si>
-  <si>
-    <t>amardeep.kumar@urbangabru.in</t>
   </si>
   <si>
     <t>Ratan Kumar Gautam</t>
@@ -532,12 +526,6 @@
     <t>Content strategist Associate</t>
   </si>
   <si>
-    <t>Pratik Dere</t>
-  </si>
-  <si>
-    <t>pratik.dere@urbangabru.in</t>
-  </si>
-  <si>
     <t>Ram Funde</t>
   </si>
   <si>
@@ -624,126 +612,236 @@
 akshay.patil@urbangabru.co.in</t>
   </si>
   <si>
-    <t>Ankit Patil</t>
-  </si>
-  <si>
-    <t>ankit.patil@urbangabru.in</t>
+    <t>Hassaan Syed</t>
+  </si>
+  <si>
+    <t>hassaan.syed@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Prajkta Bhosale</t>
+  </si>
+  <si>
+    <t>prajkta.bhosale@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Content Writer Associate</t>
+  </si>
+  <si>
+    <t>Janhavi Saywan</t>
+  </si>
+  <si>
+    <t>janhavi.saywan@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Influencer Marketing Junior Associate</t>
+  </si>
+  <si>
+    <t>Naomi Uttamchandani</t>
+  </si>
+  <si>
+    <t>naomi.uttamchandani@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Shreyas Shinde</t>
+  </si>
+  <si>
+    <t>shreyas.shinde@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Video Production Associate</t>
+  </si>
+  <si>
+    <t>Priya Saraswat</t>
+  </si>
+  <si>
+    <t>priya.saraswat@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Saniya Jilani Khan</t>
+  </si>
+  <si>
+    <t>saniya.khan@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Tele sales</t>
+  </si>
+  <si>
+    <t>Tele Sales Associate</t>
+  </si>
+  <si>
+    <t>Tanaya Parate</t>
+  </si>
+  <si>
+    <t>tanaya.parate@urbangabru.in</t>
+  </si>
+  <si>
+    <t>New Joiner</t>
+  </si>
+  <si>
+    <t>LG Harsha</t>
+  </si>
+  <si>
+    <t>harsha.lg@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Rajni Kunde</t>
+  </si>
+  <si>
+    <t>rajni.kunde@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Shruti Shinde</t>
+  </si>
+  <si>
+    <t>shruti.shinde@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Nishidha Bagayatkar</t>
+  </si>
+  <si>
+    <t>nishidha.bagayatkar@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Content Strategist Senior Associate</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>Mayur M</t>
+  </si>
+  <si>
+    <t>mayur.mundankar@urbangabru.in</t>
   </si>
   <si>
     <t>Junior Associate</t>
   </si>
   <si>
-    <t>Hassaan Syed</t>
-  </si>
-  <si>
-    <t>hassaan.syed@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Prajkta Bhosale</t>
-  </si>
-  <si>
-    <t>prajkta.bhosale@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Content Writer Associate</t>
-  </si>
-  <si>
-    <t>Janhavi Saywan</t>
-  </si>
-  <si>
-    <t>janhavi.saywan@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Influencer Marketing Junior Associate</t>
-  </si>
-  <si>
-    <t>Naomi Uttamchandani</t>
-  </si>
-  <si>
-    <t>naomi.uttamchandani@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Shreyas Shinde</t>
-  </si>
-  <si>
-    <t>shreyas.shinde@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Video Production Associate</t>
-  </si>
-  <si>
-    <t>Priya Saraswat</t>
-  </si>
-  <si>
-    <t>priya.saraswat@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Saniya Jilani Khan</t>
-  </si>
-  <si>
-    <t>saniya.khan@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Tele sales</t>
-  </si>
-  <si>
-    <t>Tele Sales Associate</t>
-  </si>
-  <si>
-    <t>Tanaya Parate</t>
-  </si>
-  <si>
-    <t>tanaya.parate@urbangabru.in</t>
-  </si>
-  <si>
-    <t>New Joiner</t>
-  </si>
-  <si>
-    <t>LG Harsha</t>
-  </si>
-  <si>
-    <t>harsha.lg@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Rajni Kunde</t>
-  </si>
-  <si>
-    <t>rajni.kunde@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Shruti Shinde</t>
-  </si>
-  <si>
-    <t>shruti.shinde@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Nishidha Bagayatkar</t>
-  </si>
-  <si>
-    <t>nishidha.bagayatkar@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Content Strategist Senior Associate</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>Mayur M</t>
-  </si>
-  <si>
-    <t>mayur.mundankar@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Shrishti Bihani</t>
-  </si>
-  <si>
-    <t>shristi.bihani@urbangabru.in</t>
-  </si>
-  <si>
     <t>Rahul.Kalyankar@urbangabru.co.in</t>
   </si>
   <si>
+    <t>Om</t>
+  </si>
+  <si>
+    <t>om.pund@urbangabru.in</t>
+  </si>
+  <si>
+    <t>pranav.narsikar@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Simran</t>
+  </si>
+  <si>
+    <t>simran.wadwe@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Shubham</t>
+  </si>
+  <si>
+    <t>shubham.sharma@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Prashant</t>
+  </si>
+  <si>
+    <t>prashant.pakhare@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Ecommerce Executive</t>
+  </si>
+  <si>
+    <t>Shivam</t>
+  </si>
+  <si>
+    <t>shivam.jha@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Rahul Ramesh</t>
+  </si>
+  <si>
+    <t>rahulramesh.kalyanker@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Gayatri</t>
+  </si>
+  <si>
+    <t>gayatri.mule@urbangabru.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jr Associte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naman </t>
+  </si>
+  <si>
+    <t>naman.babuta@urbangabru.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nisamuddin </t>
+  </si>
+  <si>
+    <t>nisamudheen.p@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Video Lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renu </t>
+  </si>
+  <si>
+    <t>renu.arora@urbangabru.in</t>
+  </si>
+  <si>
+    <r>
+      <t>Purchase Specialist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF242424"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>.  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Juhee </t>
+  </si>
+  <si>
+    <t>juhee.parihar@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Kajal</t>
+  </si>
+  <si>
+    <t>kajal.soni@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Lakshya</t>
+  </si>
+  <si>
+    <t>lakshya.goel@urbangabru.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jr Associate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palak </t>
+  </si>
+  <si>
+    <t>palak.bhalla@urbangabru.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananya </t>
+  </si>
+  <si>
+    <t>ananya.gautam@urbangabru.in</t>
+  </si>
+  <si>
     <t>Avinash Desale</t>
   </si>
   <si>
@@ -768,6 +866,9 @@
     <t>Amar  Deep</t>
   </si>
   <si>
+    <t>amardeep.kumar@urbangabru.in</t>
+  </si>
+  <si>
     <t>RATAN KUMAR  GAUTAM</t>
   </si>
   <si>
@@ -802,6 +903,12 @@
   </si>
   <si>
     <t>Shahebaj Rahemat Ali Sayyad</t>
+  </si>
+  <si>
+    <t>Pratik Dere</t>
+  </si>
+  <si>
+    <t>pratik.dere@urbangabru.in</t>
   </si>
   <si>
     <t>Ram fhunde</t>
@@ -818,7 +925,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,16 +963,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -888,12 +1013,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -906,6 +1046,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1211,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1223,7 +1366,7 @@
     <col min="4" max="4" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1"/>
     <col min="8" max="8" width="25.42578125" customWidth="1"/>
     <col min="9" max="9" width="29.42578125" customWidth="1"/>
   </cols>
@@ -1565,10 +1708,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>18</v>
@@ -1588,19 +1731,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>45</v>
@@ -1620,25 +1763,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="J13" s="1">
         <v>701</v>
@@ -1652,10 +1795,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>25</v>
@@ -1664,13 +1807,13 @@
         <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="J14" s="1">
         <v>425</v>
@@ -1684,19 +1827,19 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>18</v>
@@ -1716,19 +1859,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>16</v>
@@ -1748,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>25</v>
@@ -1780,25 +1923,25 @@
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="J18" s="1">
         <v>701</v>
@@ -1853,7 +1996,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>88</v>
@@ -1862,7 +2005,7 @@
         <v>89</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J20" s="1">
         <v>158</v>
@@ -1882,7 +2025,7 @@
         <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>92</v>
@@ -1902,7 +2045,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
@@ -1917,16 +2060,16 @@
         <v>25</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>89</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J22" s="1">
         <v>158</v>
@@ -1934,71 +2077,71 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>73</v>
+        <v>16</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="J23" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="D24" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>102</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J24" s="1">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>10</v>
@@ -2006,40 +2149,40 @@
       <c r="C25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>51</v>
+      <c r="D25" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="J25" s="1">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>25</v>
@@ -2048,7 +2191,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>37</v>
@@ -2062,7 +2205,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>10</v>
@@ -2074,36 +2217,36 @@
         <v>109</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="J27" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
@@ -2112,7 +2255,7 @@
         <v>85</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>16</v>
@@ -2126,71 +2269,71 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J29" s="1">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="5" t="s">
         <v>117</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>17</v>
+        <v>89</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="J30" s="1">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
@@ -2199,62 +2342,62 @@
         <v>119</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="J31" s="1">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="J32" s="1">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>10</v>
@@ -2269,33 +2412,33 @@
         <v>25</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="J33" s="1">
-        <v>156</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>25</v>
@@ -2304,13 +2447,13 @@
         <v>26</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="J34" s="1">
         <v>425</v>
@@ -2318,7 +2461,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>10</v>
@@ -2330,123 +2473,123 @@
         <v>128</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>71</v>
+        <v>130</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="J35" s="1">
-        <v>425</v>
+        <v>615</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="J36" s="1">
-        <v>615</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="J37" s="1">
-        <v>154</v>
+        <v>701</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="J38" s="1">
-        <v>701</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>10</v>
@@ -2458,27 +2601,27 @@
         <v>143</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="J39" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="30.75">
       <c r="A40" s="1">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
@@ -2486,177 +2629,177 @@
       <c r="C40" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="6" t="s">
         <v>145</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>17</v>
+        <v>89</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="J40" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30.75">
       <c r="A41" s="1">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>73</v>
+        <v>16</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="J41" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="30.75">
       <c r="A42" s="1">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="J42" s="1">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="30.75">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="6" t="s">
         <v>153</v>
       </c>
+      <c r="D43" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>38</v>
+        <v>64</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="J43" s="1">
-        <v>156</v>
+        <v>701</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="J44" s="1">
-        <v>701</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>94</v>
@@ -2670,39 +2813,39 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="J46" s="1">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>10</v>
@@ -2710,23 +2853,23 @@
       <c r="C47" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>89</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J47" s="1">
         <v>158</v>
@@ -2734,231 +2877,231 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="J48" s="1">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1">
-        <v>580</v>
+        <v>603</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D49" s="5" t="s">
         <v>169</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>73</v>
+        <v>116</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="J49" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" s="3" t="s">
         <v>172</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="J50" s="1">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>17</v>
+      <c r="I51" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="J51" s="1">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>56</v>
+        <v>94</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J52" s="1">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D53" s="3" t="s">
         <v>181</v>
       </c>
+      <c r="D53" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="E53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="J53" s="1">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30.75">
       <c r="A54" s="1">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>133</v>
+        <v>183</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="J54" s="1">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>10</v>
@@ -2966,23 +3109,23 @@
       <c r="C55" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="2" t="s">
         <v>186</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="H55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="J55" s="1">
         <v>701</v>
@@ -2990,71 +3133,71 @@
     </row>
     <row r="56" spans="1:10" ht="30.75">
       <c r="A56" s="1">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" s="6" t="s">
         <v>188</v>
       </c>
+      <c r="D56" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="E56" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="J56" s="1">
-        <v>158</v>
+        <v>701</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="J57" s="1">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="30.75">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
@@ -3062,113 +3205,113 @@
       <c r="C58" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="J58" s="1">
-        <v>701</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>133</v>
+        <v>37</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="J59" s="1">
-        <v>615</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="J60" s="1">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>94</v>
@@ -3182,39 +3325,39 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>38</v>
+        <v>94</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J62" s="1">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>10</v>
@@ -3229,123 +3372,123 @@
         <v>25</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="J63" s="1">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="J64" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="J65" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J66" s="1">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>216</v>
@@ -3354,403 +3497,799 @@
         <v>217</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="G67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J67" s="1">
         <v>154</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J67" s="1">
-        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="H68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>38</v>
+        <v>94</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J68" s="1">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="1">
-        <v>666</v>
+      <c r="A69">
+        <v>701</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C69" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G69" t="s">
         <v>221</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="H69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J69" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70">
+        <v>705</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" t="s">
         <v>222</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="1">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1">
-        <v>671</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="H70" s="1" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="J70" s="1">
-        <v>154</v>
+        <v>615</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1">
-        <v>672</v>
+        <v>448</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J71" s="1">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75">
+      <c r="A72" s="8">
+        <v>720</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G71" s="1" t="s">
+      <c r="D72" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="E72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H72" t="s">
+        <v>64</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J72">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75">
+      <c r="A73" s="8">
+        <v>717</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H73" t="s">
         <v>94</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I73" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J73" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
-      <c r="A72">
-        <v>701</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C72" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G72" t="s">
-        <v>228</v>
-      </c>
-      <c r="H72" s="1" t="s">
+    <row r="74" spans="1:10" ht="15.75">
+      <c r="A74" s="8">
+        <v>716</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="H74" t="s">
         <v>94</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J72" s="1">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73">
-        <v>705</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C73" t="s">
-        <v>229</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J73" s="1">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74">
-        <v>706</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C74" t="s">
-        <v>231</v>
-      </c>
-      <c r="D74" t="s">
-        <v>232</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I74" s="2" t="s">
+      <c r="I74" s="3" t="s">
         <v>43</v>
       </c>
       <c r="J74" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1">
-        <v>448</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="1" t="s">
+    <row r="75" spans="1:10" ht="15.75">
+      <c r="A75" s="8">
+        <v>713</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J75" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75">
+      <c r="A76" s="8">
+        <v>712</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H76" t="s">
+        <v>69</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J76" s="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75">
+      <c r="A77" s="8">
+        <v>711</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J77" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75">
+      <c r="A78" s="8">
+        <v>710</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J78" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75">
+      <c r="A79" s="8">
+        <v>724</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F75" s="1" t="s">
+      <c r="G79" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="H79" t="s">
+        <v>130</v>
+      </c>
+      <c r="I79" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J75" s="1">
+      <c r="J79" s="1">
         <v>615</v>
       </c>
     </row>
+    <row r="80" spans="1:10" ht="15.75">
+      <c r="A80" s="8">
+        <v>721</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H80" t="s">
+        <v>94</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J80" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75">
+      <c r="A81" s="8">
+        <v>725</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J81" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75">
+      <c r="A82" s="8">
+        <v>727</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="H82" t="s">
+        <v>175</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J82" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75">
+      <c r="A83" s="8">
+        <v>730</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H83" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J83" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75">
+      <c r="A84" s="8">
+        <v>728</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H84" t="s">
+        <v>89</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J84" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75">
+      <c r="A85" s="8">
+        <v>729</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H85" t="s">
+        <v>130</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J85" s="1">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75">
+      <c r="A86" s="8">
+        <v>733</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J86" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75">
+      <c r="A87" s="8">
+        <v>732</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H87" t="s">
+        <v>69</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J87" s="1">
+        <v>425</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J72" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{638F569A-9090-47BA-ADB1-D610E608B36D}"/>
     <hyperlink ref="I4:I5" r:id="rId2" display="hemant.raulo@urbangabru.in" xr:uid="{F027F3A7-1A84-40C7-8699-209295903C83}"/>
     <hyperlink ref="I10" r:id="rId3" xr:uid="{368822E8-DA0E-4ACA-8F84-8E4BF30ED8C1}"/>
     <hyperlink ref="I11:I12" r:id="rId4" display="hemant.raulo@urbangabru.in" xr:uid="{ABAB82BA-6557-4CC4-97CF-D840DD84EE06}"/>
     <hyperlink ref="I15" r:id="rId5" xr:uid="{E3CF6ABA-BCD4-4397-8765-1D319396C106}"/>
-    <hyperlink ref="I25" r:id="rId6" xr:uid="{CEA99A94-15DC-48B6-B1F2-DE68A886F8FB}"/>
-    <hyperlink ref="I32" r:id="rId7" xr:uid="{39A13FD4-080A-44B7-9F8C-94700230C307}"/>
-    <hyperlink ref="I66" r:id="rId8" xr:uid="{48A7FBF1-91F3-4040-B8DE-87501E505F2C}"/>
+    <hyperlink ref="I24" r:id="rId6" xr:uid="{CEA99A94-15DC-48B6-B1F2-DE68A886F8FB}"/>
+    <hyperlink ref="I31" r:id="rId7" xr:uid="{39A13FD4-080A-44B7-9F8C-94700230C307}"/>
+    <hyperlink ref="I63" r:id="rId8" xr:uid="{48A7FBF1-91F3-4040-B8DE-87501E505F2C}"/>
     <hyperlink ref="I8" r:id="rId9" xr:uid="{DFAB2EC5-8C09-4564-B7BA-8382B61BFF14}"/>
     <hyperlink ref="D4" r:id="rId10" xr:uid="{C60DF700-70F7-44B2-8D62-554517801DFC}"/>
-    <hyperlink ref="D59" r:id="rId11" xr:uid="{B4DC4511-FDA3-4293-90E5-7A5E84BE2C98}"/>
-    <hyperlink ref="D52" r:id="rId12" xr:uid="{DA7D9228-82E2-4129-812D-193889E2BF35}"/>
-    <hyperlink ref="D54" r:id="rId13" xr:uid="{1B7C8BFA-E902-4294-AFE8-10BA2B8CA862}"/>
-    <hyperlink ref="D3" r:id="rId14" xr:uid="{BBBA9D11-4549-4A75-BF48-7C35CABB18EE}"/>
-    <hyperlink ref="D2" r:id="rId15" xr:uid="{7DF72F15-BC44-4863-B795-ED57A5FCA678}"/>
-    <hyperlink ref="D5" r:id="rId16" xr:uid="{FD0395D2-0B70-4F42-A370-413A4DA08528}"/>
-    <hyperlink ref="D6" r:id="rId17" xr:uid="{F868FA14-A578-4DA1-9DA2-7CCE0D99B6C5}"/>
-    <hyperlink ref="D7" r:id="rId18" xr:uid="{A0A7699B-FC02-4FC8-ADF4-FB540B469080}"/>
-    <hyperlink ref="D8" r:id="rId19" xr:uid="{9D1DAD77-D3D3-4B24-9564-CAF1C62154C6}"/>
-    <hyperlink ref="D9" r:id="rId20" xr:uid="{6DF91AF9-5A57-4A3B-BE36-6BADE1C98BB9}"/>
-    <hyperlink ref="D10" r:id="rId21" xr:uid="{6A3ACEDC-4335-4874-8CA7-8F257495968A}"/>
-    <hyperlink ref="I6" r:id="rId22" xr:uid="{112C2CC3-F902-423D-9C5F-F9C2E6627D78}"/>
-    <hyperlink ref="I7" r:id="rId23" xr:uid="{3C2C30D6-BDD4-468D-92FB-DA741C0775A2}"/>
-    <hyperlink ref="I17" r:id="rId24" xr:uid="{146BF3DB-65A6-4B15-A7A0-B33C290217A9}"/>
-    <hyperlink ref="I26:I27" r:id="rId25" display="dhiraj.deshmukh@urbangabru.in" xr:uid="{D1CF1937-2CE4-4ACC-A7E3-1221EA80C107}"/>
-    <hyperlink ref="I33" r:id="rId26" xr:uid="{5CD20840-AC39-454B-AB91-31B92191AE37}"/>
-    <hyperlink ref="I39" r:id="rId27" xr:uid="{EB64FEEB-BC2D-4126-8EE3-1834005CB9F7}"/>
-    <hyperlink ref="I43" r:id="rId28" xr:uid="{096208DA-E231-4CEC-AFF9-826256C95D6A}"/>
-    <hyperlink ref="I50" r:id="rId29" xr:uid="{A21CF0F9-3213-43D7-A413-7A257D8C0E50}"/>
-    <hyperlink ref="I62:I63" r:id="rId30" display="dhiraj.deshmukh@urbangabru.in" xr:uid="{97FB104B-C335-4156-BC01-9B9436223075}"/>
-    <hyperlink ref="I67:I68" r:id="rId31" display="dhiraj.deshmukh@urbangabru.in" xr:uid="{51BE2CCD-3E1C-40A1-B5D7-85090AED00A6}"/>
-    <hyperlink ref="D11" r:id="rId32" xr:uid="{02F65181-4C8F-42C4-902A-CDEE5F0647B6}"/>
-    <hyperlink ref="I30" r:id="rId33" xr:uid="{C23024AB-ED52-41A8-A126-753C6738F61B}"/>
-    <hyperlink ref="I51" r:id="rId34" xr:uid="{FBC8C4E5-4E75-43F4-BD96-B4259DFC017E}"/>
-    <hyperlink ref="D12" r:id="rId35" xr:uid="{658026AE-F086-405A-B266-00CA96670F76}"/>
-    <hyperlink ref="I52" r:id="rId36" xr:uid="{D230CE4C-4D5C-4742-A127-48601BB55C9F}"/>
-    <hyperlink ref="I53" r:id="rId37" xr:uid="{CFD8CAD0-E3BB-4C26-B0B3-2476D05B3C82}"/>
-    <hyperlink ref="I21" r:id="rId38" xr:uid="{4A21746D-8B08-4471-95F9-F2358AAFF29A}"/>
-    <hyperlink ref="I61" r:id="rId39" xr:uid="{AACCE424-ADF3-40DC-AF28-52F6A89CCA77}"/>
-    <hyperlink ref="I64:I65" r:id="rId40" display="arpita.achwal@urbangabru.in" xr:uid="{0DE873A0-BD9C-4A82-8F7A-F5C68EA0FEBB}"/>
-    <hyperlink ref="I70:I71" r:id="rId41" display="arpita.achwal@urbangabru.in" xr:uid="{82B181B4-78C8-4DF9-AD94-318490D08CA9}"/>
-    <hyperlink ref="D13" r:id="rId42" xr:uid="{7902939E-0487-48F1-84D7-CACB529741B0}"/>
-    <hyperlink ref="D14" r:id="rId43" xr:uid="{3AB174BA-7CED-4824-A663-6F227253BD9C}"/>
-    <hyperlink ref="D15" r:id="rId44" xr:uid="{A39FC705-BA1A-42C5-9955-53E724C009F5}"/>
-    <hyperlink ref="D16" r:id="rId45" xr:uid="{B63400E7-FA3C-4250-A756-02968FE61910}"/>
-    <hyperlink ref="D17" r:id="rId46" xr:uid="{D8735FC2-EC88-421B-8865-C4FE808C25EA}"/>
-    <hyperlink ref="D18" r:id="rId47" xr:uid="{A39D22E8-829E-408E-9A29-6AC69A125558}"/>
-    <hyperlink ref="D19" r:id="rId48" xr:uid="{C4514937-C1F9-4E05-9F4E-B78A90D5FF90}"/>
-    <hyperlink ref="D20" r:id="rId49" xr:uid="{7F8983E6-C30E-4371-83E6-E1BC55CAC1F9}"/>
-    <hyperlink ref="D21" r:id="rId50" xr:uid="{E0172095-1727-483E-9C84-789368420BFE}"/>
-    <hyperlink ref="D22" r:id="rId51" xr:uid="{CBF8C6FF-229C-447F-871B-F6EF1DBB1AD0}"/>
-    <hyperlink ref="D23" r:id="rId52" xr:uid="{80366AF4-50BC-4967-A78E-D47375491424}"/>
-    <hyperlink ref="D24" r:id="rId53" xr:uid="{F717CFC2-C0EF-434A-9B39-410B45E8DBF1}"/>
-    <hyperlink ref="D31" r:id="rId54" xr:uid="{564C77A2-C93C-41E3-92EE-584D1829ED3A}"/>
-    <hyperlink ref="I2" r:id="rId55" xr:uid="{C21C51C9-8E57-4306-AE33-5771DA9EDE44}"/>
-    <hyperlink ref="I16" r:id="rId56" xr:uid="{6A0113D1-0959-4068-A664-B46AA0B1D2D1}"/>
-    <hyperlink ref="I19" r:id="rId57" xr:uid="{3B003557-D297-4794-908F-89EC252AAA33}"/>
-    <hyperlink ref="I24" r:id="rId58" xr:uid="{F71DAFC5-7C60-446C-9821-205FEF06ADD1}"/>
-    <hyperlink ref="I28:I29" r:id="rId59" display="rakesh.raulo@urbangabru.in" xr:uid="{AB2C998F-9AAA-423C-B750-1494CDFA5F7C}"/>
-    <hyperlink ref="I40" r:id="rId60" xr:uid="{6AAF4B77-CA93-4DC8-8DAF-F80FD4448AC7}"/>
-    <hyperlink ref="I42" r:id="rId61" xr:uid="{AF208654-2826-41FA-AA0B-97B2CF2997E8}"/>
-    <hyperlink ref="I69" r:id="rId62" xr:uid="{462AE825-8F34-414D-BE17-BF41645E7288}"/>
-    <hyperlink ref="D32" r:id="rId63" xr:uid="{870AB10C-3CF3-4DDC-9EC0-B411812950CC}"/>
-    <hyperlink ref="D33" r:id="rId64" xr:uid="{B2402A95-78BF-4BCE-88CF-EB9D6A842F63}"/>
-    <hyperlink ref="D35" r:id="rId65" xr:uid="{2CB97427-98B8-49D0-ADE6-B829475893D2}"/>
-    <hyperlink ref="D38" r:id="rId66" xr:uid="{33D90B85-D89C-4BB2-B836-561FEABBF159}"/>
-    <hyperlink ref="D39" r:id="rId67" xr:uid="{16DF7F2F-BF7C-4CA7-8233-3C777EE637EF}"/>
-    <hyperlink ref="D40" r:id="rId68" xr:uid="{62BA3FE9-2B7D-4E82-A6AB-861684EE44FF}"/>
-    <hyperlink ref="D41" r:id="rId69" xr:uid="{9453D832-D2B1-4EA4-B67D-ED07B05CB36B}"/>
-    <hyperlink ref="D42" r:id="rId70" xr:uid="{4551821A-2077-4E19-8923-97622E114CC5}"/>
-    <hyperlink ref="D43" r:id="rId71" xr:uid="{80F5A021-7451-45CF-8A55-84C6B184D545}"/>
-    <hyperlink ref="D44" r:id="rId72" xr:uid="{823DA6B3-861B-4DDE-9318-3D9D9501A748}"/>
-    <hyperlink ref="D45" r:id="rId73" xr:uid="{57FB5EFB-0A7A-447E-B048-753DDCBE83BE}"/>
-    <hyperlink ref="D46" r:id="rId74" xr:uid="{65D20DC5-D347-4B92-939D-67C6E9CA4099}"/>
-    <hyperlink ref="D47" r:id="rId75" xr:uid="{C53125F8-9352-487F-84D2-E15D4AB7961A}"/>
-    <hyperlink ref="D48" r:id="rId76" xr:uid="{DFDBB072-57B6-414E-AD32-C43529C0A02E}"/>
-    <hyperlink ref="D34" r:id="rId77" xr:uid="{F32CC1AB-1D08-4CBF-8734-41FE9CE792F2}"/>
-    <hyperlink ref="D37" r:id="rId78" xr:uid="{91939463-F347-4EB1-9835-10D0C5847AC2}"/>
-    <hyperlink ref="D50" r:id="rId79" xr:uid="{697A9CA5-37EE-4DA8-8785-23118AA9A986}"/>
-    <hyperlink ref="D51" r:id="rId80" xr:uid="{B837B941-6C09-4383-8340-057EFEEF4C2A}"/>
-    <hyperlink ref="D53" r:id="rId81" xr:uid="{5228BFFC-0024-4B76-A50F-378E909DEB9E}"/>
-    <hyperlink ref="D56" r:id="rId82" xr:uid="{03A49264-3529-4D46-96B4-F9E4B408275C}"/>
-    <hyperlink ref="D57" r:id="rId83" xr:uid="{B80B62FD-0A48-424D-9193-718DE528A3D9}"/>
-    <hyperlink ref="D60" r:id="rId84" xr:uid="{FF27CE65-EDD1-48CB-ADD2-FC1B04379D4F}"/>
-    <hyperlink ref="D61" r:id="rId85" xr:uid="{DD7177EA-B1A0-4A32-8ECC-126A8F698C87}"/>
-    <hyperlink ref="D62" r:id="rId86" xr:uid="{51AD824A-C8CC-4BDA-BDCB-CACD814337EE}"/>
-    <hyperlink ref="D63" r:id="rId87" xr:uid="{4D20B7EA-6506-4321-91D8-D043FDC215DB}"/>
-    <hyperlink ref="D64" r:id="rId88" xr:uid="{53CA0A1B-9838-4F34-9189-994827F11B4F}"/>
-    <hyperlink ref="D65" r:id="rId89" xr:uid="{006B567B-960D-4976-BA47-34C8AAC2EA6B}"/>
-    <hyperlink ref="D66" r:id="rId90" xr:uid="{D77DFDE8-52D1-47B3-937D-8875B12C8187}"/>
-    <hyperlink ref="D67" r:id="rId91" xr:uid="{4DAD1DCD-6DA4-4821-8767-096D23FA684C}"/>
-    <hyperlink ref="D68" r:id="rId92" xr:uid="{DE32128C-030C-49D8-B6C1-826E021812FC}"/>
-    <hyperlink ref="D69" r:id="rId93" xr:uid="{CBA88F32-2246-46B4-AC53-88544E823387}"/>
-    <hyperlink ref="D70" r:id="rId94" xr:uid="{FC846F3F-D1FA-4F31-B652-3CF29A90246C}"/>
-    <hyperlink ref="D71" r:id="rId95" xr:uid="{BFEFF04B-2141-4567-96A6-D3056766BB0D}"/>
-    <hyperlink ref="I36" r:id="rId96" xr:uid="{A6C0CC82-44BA-4222-B39E-D7476DA47C6B}"/>
-    <hyperlink ref="I59" r:id="rId97" xr:uid="{5DC615E7-939C-43DA-B019-1328E3A6AB38}"/>
-    <hyperlink ref="I14" r:id="rId98" xr:uid="{4C4DDAEE-F389-4B2E-BF3A-B7B53B7D3F87}"/>
-    <hyperlink ref="I34:I35" r:id="rId99" display="shailesh.bhujbal@urbangabru.co.in" xr:uid="{4B015309-8B52-4485-9965-99C88E6F4FAC}"/>
-    <hyperlink ref="I20" r:id="rId100" xr:uid="{E2E655CA-8855-4FFF-8D68-FE7BE3856DAD}"/>
-    <hyperlink ref="I22:I23" r:id="rId101" xr:uid="{249F710E-612E-4A2B-9513-A7E0D75A00F0}"/>
-    <hyperlink ref="I31" r:id="rId102" xr:uid="{0DDB982B-4488-4CAE-AE51-CE129FB8AF5D}"/>
-    <hyperlink ref="I41" r:id="rId103" xr:uid="{6CE8AB3C-163D-40F6-96CD-419E037BC515}"/>
-    <hyperlink ref="I47:I49" r:id="rId104" xr:uid="{49138BDB-FD98-425A-8A09-D467631C7A6C}"/>
-    <hyperlink ref="I56" r:id="rId105" xr:uid="{85529956-96FD-44B7-B1B5-B8B96D656A21}"/>
-    <hyperlink ref="I60" r:id="rId106" xr:uid="{B3890C9C-5043-447C-9BE8-849115F9ED91}"/>
-    <hyperlink ref="I13" r:id="rId107" xr:uid="{B06B408B-86DE-4DC1-A0B1-E651C3474CC0}"/>
-    <hyperlink ref="D72" r:id="rId108" xr:uid="{2BB55C61-927A-4ACD-BFB5-8BFBEB3AB87D}"/>
-    <hyperlink ref="I72" r:id="rId109" xr:uid="{FE4CB666-8CCD-41A4-88DC-772F7E72B69E}"/>
-    <hyperlink ref="I18" r:id="rId110" xr:uid="{65D62495-7ED6-4AEE-85AA-5E06DD4DCC50}"/>
-    <hyperlink ref="I38" r:id="rId111" xr:uid="{5A19F303-21CE-4C85-8F0C-E1C79BC97EE4}"/>
-    <hyperlink ref="I44" r:id="rId112" xr:uid="{CE65FCF0-CAD9-4672-ABBE-37B0F48F2980}"/>
-    <hyperlink ref="I55" r:id="rId113" xr:uid="{EE4F0454-9D7B-4D12-AF17-1357CE1D3E35}"/>
-    <hyperlink ref="I57:I58" r:id="rId114" display="shrushti.mulage@urbangabru.in" xr:uid="{6033AC21-F7BE-4E51-A959-D5962C670FA3}"/>
-    <hyperlink ref="D73" r:id="rId115" xr:uid="{D4FDC315-7B6D-4469-88E3-1589B741FE41}"/>
-    <hyperlink ref="I73" r:id="rId116" xr:uid="{C558B3C7-EBFE-4FB4-ADD6-6EB2E4AD0F9E}"/>
-    <hyperlink ref="I74" r:id="rId117" xr:uid="{D462771F-AC20-49C3-B70C-FA245A6B1D6F}"/>
-    <hyperlink ref="D36" r:id="rId118" xr:uid="{E91DE87D-A790-4838-8760-70C6AC703D98}"/>
-    <hyperlink ref="I75" r:id="rId119" xr:uid="{8AB72D72-B60D-4E53-A04A-507971B9D6C3}"/>
-    <hyperlink ref="D75" r:id="rId120" xr:uid="{FB78035B-3BB6-44E6-A168-E41DD27DB633}"/>
+    <hyperlink ref="D50" r:id="rId11" xr:uid="{DA7D9228-82E2-4129-812D-193889E2BF35}"/>
+    <hyperlink ref="D52" r:id="rId12" xr:uid="{1B7C8BFA-E902-4294-AFE8-10BA2B8CA862}"/>
+    <hyperlink ref="D3" r:id="rId13" xr:uid="{BBBA9D11-4549-4A75-BF48-7C35CABB18EE}"/>
+    <hyperlink ref="D2" r:id="rId14" xr:uid="{7DF72F15-BC44-4863-B795-ED57A5FCA678}"/>
+    <hyperlink ref="D5" r:id="rId15" xr:uid="{FD0395D2-0B70-4F42-A370-413A4DA08528}"/>
+    <hyperlink ref="D6" r:id="rId16" xr:uid="{F868FA14-A578-4DA1-9DA2-7CCE0D99B6C5}"/>
+    <hyperlink ref="D7" r:id="rId17" xr:uid="{A0A7699B-FC02-4FC8-ADF4-FB540B469080}"/>
+    <hyperlink ref="D8" r:id="rId18" xr:uid="{9D1DAD77-D3D3-4B24-9564-CAF1C62154C6}"/>
+    <hyperlink ref="D9" r:id="rId19" xr:uid="{6DF91AF9-5A57-4A3B-BE36-6BADE1C98BB9}"/>
+    <hyperlink ref="D10" r:id="rId20" xr:uid="{6A3ACEDC-4335-4874-8CA7-8F257495968A}"/>
+    <hyperlink ref="I6" r:id="rId21" xr:uid="{112C2CC3-F902-423D-9C5F-F9C2E6627D78}"/>
+    <hyperlink ref="I7" r:id="rId22" xr:uid="{3C2C30D6-BDD4-468D-92FB-DA741C0775A2}"/>
+    <hyperlink ref="I17" r:id="rId23" xr:uid="{146BF3DB-65A6-4B15-A7A0-B33C290217A9}"/>
+    <hyperlink ref="I25:I26" r:id="rId24" display="dhiraj.deshmukh@urbangabru.in" xr:uid="{D1CF1937-2CE4-4ACC-A7E3-1221EA80C107}"/>
+    <hyperlink ref="I32" r:id="rId25" xr:uid="{5CD20840-AC39-454B-AB91-31B92191AE37}"/>
+    <hyperlink ref="I38" r:id="rId26" xr:uid="{EB64FEEB-BC2D-4126-8EE3-1834005CB9F7}"/>
+    <hyperlink ref="I42" r:id="rId27" xr:uid="{096208DA-E231-4CEC-AFF9-826256C95D6A}"/>
+    <hyperlink ref="I48" r:id="rId28" xr:uid="{A21CF0F9-3213-43D7-A413-7A257D8C0E50}"/>
+    <hyperlink ref="I59:I60" r:id="rId29" display="dhiraj.deshmukh@urbangabru.in" xr:uid="{97FB104B-C335-4156-BC01-9B9436223075}"/>
+    <hyperlink ref="I64:I65" r:id="rId30" display="dhiraj.deshmukh@urbangabru.in" xr:uid="{51BE2CCD-3E1C-40A1-B5D7-85090AED00A6}"/>
+    <hyperlink ref="D11" r:id="rId31" xr:uid="{02F65181-4C8F-42C4-902A-CDEE5F0647B6}"/>
+    <hyperlink ref="I29" r:id="rId32" xr:uid="{C23024AB-ED52-41A8-A126-753C6738F61B}"/>
+    <hyperlink ref="I49" r:id="rId33" xr:uid="{FBC8C4E5-4E75-43F4-BD96-B4259DFC017E}"/>
+    <hyperlink ref="D12" r:id="rId34" xr:uid="{658026AE-F086-405A-B266-00CA96670F76}"/>
+    <hyperlink ref="I50" r:id="rId35" xr:uid="{D230CE4C-4D5C-4742-A127-48601BB55C9F}"/>
+    <hyperlink ref="I51" r:id="rId36" xr:uid="{CFD8CAD0-E3BB-4C26-B0B3-2476D05B3C82}"/>
+    <hyperlink ref="I21" r:id="rId37" xr:uid="{4A21746D-8B08-4471-95F9-F2358AAFF29A}"/>
+    <hyperlink ref="I58" r:id="rId38" xr:uid="{AACCE424-ADF3-40DC-AF28-52F6A89CCA77}"/>
+    <hyperlink ref="I61:I62" r:id="rId39" display="arpita.achwal@urbangabru.in" xr:uid="{0DE873A0-BD9C-4A82-8F7A-F5C68EA0FEBB}"/>
+    <hyperlink ref="I67:I68" r:id="rId40" display="arpita.achwal@urbangabru.in" xr:uid="{82B181B4-78C8-4DF9-AD94-318490D08CA9}"/>
+    <hyperlink ref="D13" r:id="rId41" xr:uid="{7902939E-0487-48F1-84D7-CACB529741B0}"/>
+    <hyperlink ref="D14" r:id="rId42" xr:uid="{3AB174BA-7CED-4824-A663-6F227253BD9C}"/>
+    <hyperlink ref="D15" r:id="rId43" xr:uid="{A39FC705-BA1A-42C5-9955-53E724C009F5}"/>
+    <hyperlink ref="D16" r:id="rId44" xr:uid="{B63400E7-FA3C-4250-A756-02968FE61910}"/>
+    <hyperlink ref="D17" r:id="rId45" xr:uid="{D8735FC2-EC88-421B-8865-C4FE808C25EA}"/>
+    <hyperlink ref="D18" r:id="rId46" xr:uid="{A39D22E8-829E-408E-9A29-6AC69A125558}"/>
+    <hyperlink ref="D19" r:id="rId47" xr:uid="{C4514937-C1F9-4E05-9F4E-B78A90D5FF90}"/>
+    <hyperlink ref="D20" r:id="rId48" xr:uid="{7F8983E6-C30E-4371-83E6-E1BC55CAC1F9}"/>
+    <hyperlink ref="D21" r:id="rId49" xr:uid="{E0172095-1727-483E-9C84-789368420BFE}"/>
+    <hyperlink ref="D22" r:id="rId50" xr:uid="{80366AF4-50BC-4967-A78E-D47375491424}"/>
+    <hyperlink ref="D23" r:id="rId51" xr:uid="{F717CFC2-C0EF-434A-9B39-410B45E8DBF1}"/>
+    <hyperlink ref="D30" r:id="rId52" xr:uid="{564C77A2-C93C-41E3-92EE-584D1829ED3A}"/>
+    <hyperlink ref="I2" r:id="rId53" xr:uid="{C21C51C9-8E57-4306-AE33-5771DA9EDE44}"/>
+    <hyperlink ref="I16" r:id="rId54" xr:uid="{6A0113D1-0959-4068-A664-B46AA0B1D2D1}"/>
+    <hyperlink ref="I19" r:id="rId55" xr:uid="{3B003557-D297-4794-908F-89EC252AAA33}"/>
+    <hyperlink ref="I23" r:id="rId56" xr:uid="{F71DAFC5-7C60-446C-9821-205FEF06ADD1}"/>
+    <hyperlink ref="I27:I28" r:id="rId57" display="rakesh.raulo@urbangabru.in" xr:uid="{AB2C998F-9AAA-423C-B750-1494CDFA5F7C}"/>
+    <hyperlink ref="I39" r:id="rId58" xr:uid="{6AAF4B77-CA93-4DC8-8DAF-F80FD4448AC7}"/>
+    <hyperlink ref="I41" r:id="rId59" xr:uid="{AF208654-2826-41FA-AA0B-97B2CF2997E8}"/>
+    <hyperlink ref="I66" r:id="rId60" xr:uid="{462AE825-8F34-414D-BE17-BF41645E7288}"/>
+    <hyperlink ref="D31" r:id="rId61" xr:uid="{870AB10C-3CF3-4DDC-9EC0-B411812950CC}"/>
+    <hyperlink ref="D32" r:id="rId62" xr:uid="{B2402A95-78BF-4BCE-88CF-EB9D6A842F63}"/>
+    <hyperlink ref="D34" r:id="rId63" xr:uid="{2CB97427-98B8-49D0-ADE6-B829475893D2}"/>
+    <hyperlink ref="D37" r:id="rId64" xr:uid="{33D90B85-D89C-4BB2-B836-561FEABBF159}"/>
+    <hyperlink ref="D38" r:id="rId65" xr:uid="{16DF7F2F-BF7C-4CA7-8233-3C777EE637EF}"/>
+    <hyperlink ref="D39" r:id="rId66" xr:uid="{62BA3FE9-2B7D-4E82-A6AB-861684EE44FF}"/>
+    <hyperlink ref="D40" r:id="rId67" xr:uid="{9453D832-D2B1-4EA4-B67D-ED07B05CB36B}"/>
+    <hyperlink ref="D41" r:id="rId68" xr:uid="{4551821A-2077-4E19-8923-97622E114CC5}"/>
+    <hyperlink ref="D42" r:id="rId69" xr:uid="{80F5A021-7451-45CF-8A55-84C6B184D545}"/>
+    <hyperlink ref="D43" r:id="rId70" xr:uid="{823DA6B3-861B-4DDE-9318-3D9D9501A748}"/>
+    <hyperlink ref="D44" r:id="rId71" xr:uid="{57FB5EFB-0A7A-447E-B048-753DDCBE83BE}"/>
+    <hyperlink ref="D45" r:id="rId72" xr:uid="{65D20DC5-D347-4B92-939D-67C6E9CA4099}"/>
+    <hyperlink ref="D46" r:id="rId73" xr:uid="{DFDBB072-57B6-414E-AD32-C43529C0A02E}"/>
+    <hyperlink ref="D33" r:id="rId74" xr:uid="{F32CC1AB-1D08-4CBF-8734-41FE9CE792F2}"/>
+    <hyperlink ref="D36" r:id="rId75" xr:uid="{91939463-F347-4EB1-9835-10D0C5847AC2}"/>
+    <hyperlink ref="D48" r:id="rId76" xr:uid="{697A9CA5-37EE-4DA8-8785-23118AA9A986}"/>
+    <hyperlink ref="D49" r:id="rId77" xr:uid="{B837B941-6C09-4383-8340-057EFEEF4C2A}"/>
+    <hyperlink ref="D51" r:id="rId78" xr:uid="{5228BFFC-0024-4B76-A50F-378E909DEB9E}"/>
+    <hyperlink ref="D54" r:id="rId79" xr:uid="{03A49264-3529-4D46-96B4-F9E4B408275C}"/>
+    <hyperlink ref="D55" r:id="rId80" xr:uid="{B80B62FD-0A48-424D-9193-718DE528A3D9}"/>
+    <hyperlink ref="D57" r:id="rId81" xr:uid="{FF27CE65-EDD1-48CB-ADD2-FC1B04379D4F}"/>
+    <hyperlink ref="D58" r:id="rId82" xr:uid="{DD7177EA-B1A0-4A32-8ECC-126A8F698C87}"/>
+    <hyperlink ref="D59" r:id="rId83" xr:uid="{51AD824A-C8CC-4BDA-BDCB-CACD814337EE}"/>
+    <hyperlink ref="D60" r:id="rId84" xr:uid="{4D20B7EA-6506-4321-91D8-D043FDC215DB}"/>
+    <hyperlink ref="D61" r:id="rId85" xr:uid="{53CA0A1B-9838-4F34-9189-994827F11B4F}"/>
+    <hyperlink ref="D62" r:id="rId86" xr:uid="{006B567B-960D-4976-BA47-34C8AAC2EA6B}"/>
+    <hyperlink ref="D63" r:id="rId87" xr:uid="{D77DFDE8-52D1-47B3-937D-8875B12C8187}"/>
+    <hyperlink ref="D64" r:id="rId88" xr:uid="{4DAD1DCD-6DA4-4821-8767-096D23FA684C}"/>
+    <hyperlink ref="D65" r:id="rId89" xr:uid="{DE32128C-030C-49D8-B6C1-826E021812FC}"/>
+    <hyperlink ref="D66" r:id="rId90" xr:uid="{CBA88F32-2246-46B4-AC53-88544E823387}"/>
+    <hyperlink ref="D67" r:id="rId91" xr:uid="{FC846F3F-D1FA-4F31-B652-3CF29A90246C}"/>
+    <hyperlink ref="D68" r:id="rId92" xr:uid="{BFEFF04B-2141-4567-96A6-D3056766BB0D}"/>
+    <hyperlink ref="I35" r:id="rId93" xr:uid="{A6C0CC82-44BA-4222-B39E-D7476DA47C6B}"/>
+    <hyperlink ref="I14" r:id="rId94" xr:uid="{4C4DDAEE-F389-4B2E-BF3A-B7B53B7D3F87}"/>
+    <hyperlink ref="I33:I34" r:id="rId95" display="shailesh.bhujbal@urbangabru.co.in" xr:uid="{4B015309-8B52-4485-9965-99C88E6F4FAC}"/>
+    <hyperlink ref="I20" r:id="rId96" xr:uid="{E2E655CA-8855-4FFF-8D68-FE7BE3856DAD}"/>
+    <hyperlink ref="I22" r:id="rId97" xr:uid="{249F710E-612E-4A2B-9513-A7E0D75A00F0}"/>
+    <hyperlink ref="I30" r:id="rId98" xr:uid="{0DDB982B-4488-4CAE-AE51-CE129FB8AF5D}"/>
+    <hyperlink ref="I40" r:id="rId99" xr:uid="{6CE8AB3C-163D-40F6-96CD-419E037BC515}"/>
+    <hyperlink ref="I46:I47" r:id="rId100" xr:uid="{49138BDB-FD98-425A-8A09-D467631C7A6C}"/>
+    <hyperlink ref="I54" r:id="rId101" xr:uid="{85529956-96FD-44B7-B1B5-B8B96D656A21}"/>
+    <hyperlink ref="I57" r:id="rId102" xr:uid="{B3890C9C-5043-447C-9BE8-849115F9ED91}"/>
+    <hyperlink ref="I13" r:id="rId103" xr:uid="{B06B408B-86DE-4DC1-A0B1-E651C3474CC0}"/>
+    <hyperlink ref="D69" r:id="rId104" xr:uid="{2BB55C61-927A-4ACD-BFB5-8BFBEB3AB87D}"/>
+    <hyperlink ref="I69" r:id="rId105" xr:uid="{FE4CB666-8CCD-41A4-88DC-772F7E72B69E}"/>
+    <hyperlink ref="I18" r:id="rId106" xr:uid="{65D62495-7ED6-4AEE-85AA-5E06DD4DCC50}"/>
+    <hyperlink ref="I37" r:id="rId107" xr:uid="{5A19F303-21CE-4C85-8F0C-E1C79BC97EE4}"/>
+    <hyperlink ref="I43" r:id="rId108" xr:uid="{CE65FCF0-CAD9-4672-ABBE-37B0F48F2980}"/>
+    <hyperlink ref="I53" r:id="rId109" xr:uid="{EE4F0454-9D7B-4D12-AF17-1357CE1D3E35}"/>
+    <hyperlink ref="I55:I56" r:id="rId110" display="shrushti.mulage@urbangabru.in" xr:uid="{6033AC21-F7BE-4E51-A959-D5962C670FA3}"/>
+    <hyperlink ref="D70" r:id="rId111" xr:uid="{D4FDC315-7B6D-4469-88E3-1589B741FE41}"/>
+    <hyperlink ref="I70" r:id="rId112" xr:uid="{C558B3C7-EBFE-4FB4-ADD6-6EB2E4AD0F9E}"/>
+    <hyperlink ref="D35" r:id="rId113" xr:uid="{E91DE87D-A790-4838-8760-70C6AC703D98}"/>
+    <hyperlink ref="I71" r:id="rId114" xr:uid="{8AB72D72-B60D-4E53-A04A-507971B9D6C3}"/>
+    <hyperlink ref="D71" r:id="rId115" xr:uid="{FB78035B-3BB6-44E6-A168-E41DD27DB633}"/>
+    <hyperlink ref="D72" r:id="rId116" xr:uid="{99C33B73-DF8E-48F4-898C-A8EE9AFBA7F4}"/>
+    <hyperlink ref="I75" r:id="rId117" xr:uid="{D457B946-2C7C-4D94-BB76-75FC21CE52AE}"/>
+    <hyperlink ref="I77" r:id="rId118" xr:uid="{79D99990-0DCC-4038-95CC-DF502FDAB3FC}"/>
+    <hyperlink ref="I78" r:id="rId119" xr:uid="{89E8B74E-5421-47D4-81EB-28C833655F35}"/>
+    <hyperlink ref="I81" r:id="rId120" xr:uid="{91EAD886-D9E8-43C2-A469-FBD57EE676CD}"/>
+    <hyperlink ref="I79" r:id="rId121" xr:uid="{07B08EF3-2DC3-4B36-A0A4-AA3B13FD9442}"/>
+    <hyperlink ref="I85" r:id="rId122" xr:uid="{DBF62D72-BF4A-4175-AEE0-1A67E739CA4C}"/>
+    <hyperlink ref="I82" r:id="rId123" xr:uid="{3460E9AA-2796-472B-9A8C-201426F3C6E0}"/>
+    <hyperlink ref="I84" r:id="rId124" xr:uid="{17A1B2FB-8E41-4354-AEE2-2E9E5B0D2906}"/>
+    <hyperlink ref="I76" r:id="rId125" xr:uid="{5FA8D04A-7C92-467B-94EC-59E9AAF858F0}"/>
+    <hyperlink ref="I87" r:id="rId126" xr:uid="{4C626523-9255-4EE9-B00F-76F0973AB813}"/>
+    <hyperlink ref="I72" r:id="rId127" xr:uid="{C11183B9-2495-4806-B47C-D70E16538657}"/>
+    <hyperlink ref="I73" r:id="rId128" xr:uid="{AD8F2850-D134-4829-A85A-2BD289B20186}"/>
+    <hyperlink ref="I74" r:id="rId129" xr:uid="{403D12D0-12E0-43D5-A47F-365A9BE6811C}"/>
+    <hyperlink ref="I80" r:id="rId130" xr:uid="{F853E0B2-482A-4F07-8009-BC12BE6B115B}"/>
+    <hyperlink ref="I83" r:id="rId131" xr:uid="{390DE4D6-96FF-440B-9454-B84E3B267EA1}"/>
+    <hyperlink ref="I86" r:id="rId132" xr:uid="{74460AC2-C4F4-4242-8DA4-06BB68025728}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3772,26 +4311,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3812,15 +4351,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>47</v>
@@ -3828,7 +4367,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>40</v>
@@ -3844,7 +4383,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
@@ -3860,7 +4399,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -3871,23 +4410,23 @@
         <v>89</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3908,10 +4447,10 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3924,23 +4463,23 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>51</v>
@@ -3948,242 +4487,242 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="76.5">
       <c r="A38" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="76.5">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="76.5">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>284</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>165</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="76.5">
       <c r="A50" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="76.5">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/reporting_hierarchy.xlsx
+++ b/reporting_hierarchy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29423"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="320" documentId="11_254B45AE2BF66FFC05FC9890E2159AB6B2E0D67D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D532BEE2-D452-40DD-BFE6-2DA7C7ECD66D}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="11_254B45AE2BF66FFC05FC9890E2159AB6B2E0D67D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7FA3966-F7D5-4878-ADBA-BB4C8644C06D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$66</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="298">
   <si>
     <t>Employee No</t>
   </si>
@@ -443,6 +443,12 @@
   </si>
   <si>
     <t>Video Editor Associate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nisamuddin </t>
+  </si>
+  <si>
+    <t>nisamudheen.p@urbangabru.in</t>
   </si>
   <si>
     <t>Chirag Chavan</t>
@@ -618,15 +624,6 @@
     <t>hassaan.syed@urbangabru.in</t>
   </si>
   <si>
-    <t>Prajkta Bhosale</t>
-  </si>
-  <si>
-    <t>prajkta.bhosale@urbangabru.in</t>
-  </si>
-  <si>
-    <t>Content Writer Associate</t>
-  </si>
-  <si>
     <t>Janhavi Saywan</t>
   </si>
   <si>
@@ -651,12 +648,6 @@
     <t>Video Production Associate</t>
   </si>
   <si>
-    <t>Priya Saraswat</t>
-  </si>
-  <si>
-    <t>priya.saraswat@urbangabru.in</t>
-  </si>
-  <si>
     <t>Saniya Jilani Khan</t>
   </si>
   <si>
@@ -775,12 +766,6 @@
   </si>
   <si>
     <t>naman.babuta@urbangabru.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nisamuddin </t>
-  </si>
-  <si>
-    <t>nisamudheen.p@urbangabru.in</t>
   </si>
   <si>
     <t>Video Lead</t>
@@ -842,6 +827,49 @@
     <t>ananya.gautam@urbangabru.in</t>
   </si>
   <si>
+    <t xml:space="preserve">Alefia </t>
+  </si>
+  <si>
+    <t>alefia.husain@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Creative Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content Strategy Specialst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natasha </t>
+  </si>
+  <si>
+    <t>natasha.surendran@urbangabru.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content writer Specialist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivani </t>
+  </si>
+  <si>
+    <t>shivani.bagul@urbangabru.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content Strategist Sr Associate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shamit </t>
+  </si>
+  <si>
+    <t>shamit.basode@urbangabru.in</t>
+  </si>
+  <si>
+    <t>AI Video Editor Senior Associate</t>
+  </si>
+  <si>
     <t>Avinash Desale</t>
   </si>
   <si>
@@ -925,7 +953,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -975,8 +1003,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Zoho_Puvi_Regular"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -989,8 +1029,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1028,12 +1074,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1049,6 +1147,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1354,14 +1473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
@@ -2491,7 +2611,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="1">
         <v>461</v>
       </c>
@@ -2513,14 +2633,14 @@
       <c r="G36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" s="1">
-        <v>154</v>
+      <c r="H36" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J36" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2531,19 +2651,19 @@
         <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>64</v>
@@ -2563,10 +2683,10 @@
         <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>25</v>
@@ -2595,10 +2715,10 @@
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>13</v>
@@ -2627,10 +2747,10 @@
         <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>25</v>
@@ -2639,7 +2759,7 @@
         <v>73</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>89</v>
@@ -2659,10 +2779,10 @@
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>13</v>
@@ -2671,7 +2791,7 @@
         <v>85</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>16</v>
@@ -2691,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>25</v>
@@ -2703,7 +2823,7 @@
         <v>35</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>37</v>
@@ -2723,19 +2843,19 @@
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>64</v>
@@ -2755,10 +2875,10 @@
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>61</v>
@@ -2767,7 +2887,7 @@
         <v>134</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>94</v>
@@ -2779,7 +2899,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" ht="15.75">
       <c r="A45" s="1">
         <v>538</v>
       </c>
@@ -2787,10 +2907,10 @@
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>61</v>
@@ -2799,16 +2919,16 @@
         <v>134</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J45" s="1">
-        <v>154</v>
+        <v>163</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J45" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2819,10 +2939,10 @@
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>25</v>
@@ -2831,7 +2951,7 @@
         <v>73</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>89</v>
@@ -2851,10 +2971,10 @@
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>25</v>
@@ -2863,7 +2983,7 @@
         <v>73</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>89</v>
@@ -2883,10 +3003,10 @@
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>25</v>
@@ -2895,7 +3015,7 @@
         <v>35</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>37</v>
@@ -2915,10 +3035,10 @@
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>25</v>
@@ -2927,7 +3047,7 @@
         <v>26</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>116</v>
@@ -2947,10 +3067,10 @@
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>56</v>
@@ -2959,10 +3079,10 @@
         <v>57</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>55</v>
@@ -2979,10 +3099,10 @@
         <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>56</v>
@@ -2991,10 +3111,10 @@
         <v>57</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>55</v>
@@ -3017,13 +3137,13 @@
         <v>131</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>94</v>
@@ -3043,19 +3163,19 @@
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>64</v>
@@ -3075,10 +3195,10 @@
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>25</v>
@@ -3087,7 +3207,7 @@
         <v>73</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>89</v>
@@ -3107,19 +3227,19 @@
         <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>64</v>
@@ -3139,19 +3259,19 @@
         <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>64</v>
@@ -3171,10 +3291,10 @@
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>25</v>
@@ -3183,7 +3303,7 @@
         <v>73</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>89</v>
@@ -3197,48 +3317,48 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="J58" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>25</v>
@@ -3247,7 +3367,7 @@
         <v>35</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>37</v>
@@ -3259,242 +3379,242 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" ht="15.75">
       <c r="A60" s="1">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J60" s="1">
-        <v>156</v>
+        <v>201</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J60" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="J61" s="1">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="J62" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="J63" s="1">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="J64" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75">
       <c r="A65" s="1">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J65" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J65" s="8">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75">
       <c r="A66" s="1">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="1">
-        <v>157</v>
+        <v>217</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J66" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="1">
-        <v>671</v>
+      <c r="A67">
+        <v>701</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>61</v>
@@ -3502,8 +3622,8 @@
       <c r="F67" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>135</v>
+      <c r="G67" t="s">
+        <v>218</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>94</v>
@@ -3516,144 +3636,144 @@
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="1">
-        <v>672</v>
+      <c r="A68">
+        <v>705</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D68" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" t="s">
         <v>219</v>
       </c>
+      <c r="D68" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E68" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J68" s="1">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>448</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J69" s="1">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75">
+      <c r="A70" s="8">
+        <v>720</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J68" s="1">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69">
+      <c r="G70" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H70" t="s">
+        <v>64</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J70">
         <v>701</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C69" t="s">
-        <v>64</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E69" s="1" t="s">
+    </row>
+    <row r="71" spans="1:10" ht="15.75">
+      <c r="A71" s="8">
+        <v>717</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G69" t="s">
-        <v>221</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J69" s="1">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70">
-        <v>705</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C70" t="s">
-        <v>222</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J70" s="1">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1">
-        <v>448</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J71" s="1">
-        <v>615</v>
+      <c r="G71" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J71" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75">
       <c r="A72" s="8">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="8" t="s">
         <v>227</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -3663,94 +3783,94 @@
         <v>134</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H72" t="s">
-        <v>64</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J72">
-        <v>701</v>
+        <v>217</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J72" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75">
       <c r="A73" s="8">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D73" s="8" t="s">
         <v>228</v>
       </c>
+      <c r="D73" s="9" t="s">
+        <v>229</v>
+      </c>
       <c r="E73" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H73" t="s">
-        <v>94</v>
+        <v>105</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J73" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75">
       <c r="A74" s="8">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="J74" s="1">
-        <v>154</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75">
       <c r="A75" s="8">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>25</v>
@@ -3759,7 +3879,7 @@
         <v>35</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>37</v>
@@ -3773,138 +3893,138 @@
     </row>
     <row r="76" spans="1:10" ht="15.75">
       <c r="A76" s="8">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="H76" t="s">
-        <v>69</v>
+        <v>154</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="J76" s="1">
-        <v>425</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75">
       <c r="A77" s="8">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D77" s="9" t="s">
         <v>237</v>
       </c>
+      <c r="D77" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="E77" s="1" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>37</v>
+        <v>239</v>
+      </c>
+      <c r="H77" t="s">
+        <v>130</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="J77" s="1">
-        <v>156</v>
+        <v>615</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75">
       <c r="A78" s="8">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J78" s="1">
-        <v>156</v>
+        <v>163</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J78" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75">
       <c r="A79" s="8">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>241</v>
+        <v>136</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="H79" t="s">
-        <v>130</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J79" s="1">
-        <v>615</v>
+      <c r="H79" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J79" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75">
       <c r="A80" s="8">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>243</v>
@@ -3913,50 +4033,50 @@
         <v>244</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="H80" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J80" s="1">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75">
       <c r="A81" s="8">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D81" s="9" t="s">
         <v>246</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>134</v>
+        <v>248</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="H81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H81" t="s">
         <v>94</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I81" s="3" t="s">
         <v>43</v>
       </c>
       <c r="J81" s="1">
@@ -3965,42 +4085,42 @@
     </row>
     <row r="82" spans="1:10" ht="15.75">
       <c r="A82" s="8">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>57</v>
+        <v>25</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>250</v>
+        <v>148</v>
       </c>
       <c r="H82" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="J82" s="1">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75">
       <c r="A83" s="8">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>251</v>
@@ -4009,62 +4129,62 @@
         <v>252</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="F83" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G83" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="G83" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="H83" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="J83" s="1">
-        <v>154</v>
+        <v>615</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75">
       <c r="A84" s="8">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="8" t="s">
         <v>255</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H84" t="s">
-        <v>89</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J84" s="1">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J84" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75">
       <c r="A85" s="8">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>256</v>
@@ -4073,90 +4193,157 @@
         <v>257</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="G85" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H85" t="s">
+        <v>69</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J85" s="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75">
+      <c r="A86" s="11">
+        <v>740</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="H85" t="s">
-        <v>130</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J85" s="1">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="15.75">
-      <c r="A86" s="8">
-        <v>733</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C86" s="8" t="s">
+      <c r="D86" s="13" t="s">
         <v>259</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J86" s="1">
-        <v>154</v>
+      <c r="F86" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J86" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75">
-      <c r="A87" s="8">
-        <v>732</v>
+      <c r="A87" s="11">
+        <v>741</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D87" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C87" s="12" t="s">
         <v>262</v>
       </c>
+      <c r="D87" s="13" t="s">
+        <v>263</v>
+      </c>
       <c r="E87" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="H87" t="s">
-        <v>69</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J87" s="1">
-        <v>425</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J87" s="8">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="30.75">
+      <c r="A88" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J88" s="8">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="16.5">
+      <c r="A89" s="11">
+        <v>743</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J89" s="8">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75">
+      <c r="H90" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J89" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{638F569A-9090-47BA-ADB1-D610E608B36D}"/>
     <hyperlink ref="I4:I5" r:id="rId2" display="hemant.raulo@urbangabru.in" xr:uid="{F027F3A7-1A84-40C7-8699-209295903C83}"/>
@@ -4165,7 +4352,7 @@
     <hyperlink ref="I15" r:id="rId5" xr:uid="{E3CF6ABA-BCD4-4397-8765-1D319396C106}"/>
     <hyperlink ref="I24" r:id="rId6" xr:uid="{CEA99A94-15DC-48B6-B1F2-DE68A886F8FB}"/>
     <hyperlink ref="I31" r:id="rId7" xr:uid="{39A13FD4-080A-44B7-9F8C-94700230C307}"/>
-    <hyperlink ref="I63" r:id="rId8" xr:uid="{48A7FBF1-91F3-4040-B8DE-87501E505F2C}"/>
+    <hyperlink ref="I61" r:id="rId8" xr:uid="{48A7FBF1-91F3-4040-B8DE-87501E505F2C}"/>
     <hyperlink ref="I8" r:id="rId9" xr:uid="{DFAB2EC5-8C09-4564-B7BA-8382B61BFF14}"/>
     <hyperlink ref="D4" r:id="rId10" xr:uid="{C60DF700-70F7-44B2-8D62-554517801DFC}"/>
     <hyperlink ref="D50" r:id="rId11" xr:uid="{DA7D9228-82E2-4129-812D-193889E2BF35}"/>
@@ -4186,8 +4373,8 @@
     <hyperlink ref="I38" r:id="rId26" xr:uid="{EB64FEEB-BC2D-4126-8EE3-1834005CB9F7}"/>
     <hyperlink ref="I42" r:id="rId27" xr:uid="{096208DA-E231-4CEC-AFF9-826256C95D6A}"/>
     <hyperlink ref="I48" r:id="rId28" xr:uid="{A21CF0F9-3213-43D7-A413-7A257D8C0E50}"/>
-    <hyperlink ref="I59:I60" r:id="rId29" display="dhiraj.deshmukh@urbangabru.in" xr:uid="{97FB104B-C335-4156-BC01-9B9436223075}"/>
-    <hyperlink ref="I64:I65" r:id="rId30" display="dhiraj.deshmukh@urbangabru.in" xr:uid="{51BE2CCD-3E1C-40A1-B5D7-85090AED00A6}"/>
+    <hyperlink ref="I58:I59" r:id="rId29" display="dhiraj.deshmukh@urbangabru.in" xr:uid="{97FB104B-C335-4156-BC01-9B9436223075}"/>
+    <hyperlink ref="I62:I63" r:id="rId30" display="dhiraj.deshmukh@urbangabru.in" xr:uid="{51BE2CCD-3E1C-40A1-B5D7-85090AED00A6}"/>
     <hyperlink ref="D11" r:id="rId31" xr:uid="{02F65181-4C8F-42C4-902A-CDEE5F0647B6}"/>
     <hyperlink ref="I29" r:id="rId32" xr:uid="{C23024AB-ED52-41A8-A126-753C6738F61B}"/>
     <hyperlink ref="I49" r:id="rId33" xr:uid="{FBC8C4E5-4E75-43F4-BD96-B4259DFC017E}"/>
@@ -4195,101 +4382,95 @@
     <hyperlink ref="I50" r:id="rId35" xr:uid="{D230CE4C-4D5C-4742-A127-48601BB55C9F}"/>
     <hyperlink ref="I51" r:id="rId36" xr:uid="{CFD8CAD0-E3BB-4C26-B0B3-2476D05B3C82}"/>
     <hyperlink ref="I21" r:id="rId37" xr:uid="{4A21746D-8B08-4471-95F9-F2358AAFF29A}"/>
-    <hyperlink ref="I58" r:id="rId38" xr:uid="{AACCE424-ADF3-40DC-AF28-52F6A89CCA77}"/>
-    <hyperlink ref="I61:I62" r:id="rId39" display="arpita.achwal@urbangabru.in" xr:uid="{0DE873A0-BD9C-4A82-8F7A-F5C68EA0FEBB}"/>
-    <hyperlink ref="I67:I68" r:id="rId40" display="arpita.achwal@urbangabru.in" xr:uid="{82B181B4-78C8-4DF9-AD94-318490D08CA9}"/>
-    <hyperlink ref="D13" r:id="rId41" xr:uid="{7902939E-0487-48F1-84D7-CACB529741B0}"/>
-    <hyperlink ref="D14" r:id="rId42" xr:uid="{3AB174BA-7CED-4824-A663-6F227253BD9C}"/>
-    <hyperlink ref="D15" r:id="rId43" xr:uid="{A39FC705-BA1A-42C5-9955-53E724C009F5}"/>
-    <hyperlink ref="D16" r:id="rId44" xr:uid="{B63400E7-FA3C-4250-A756-02968FE61910}"/>
-    <hyperlink ref="D17" r:id="rId45" xr:uid="{D8735FC2-EC88-421B-8865-C4FE808C25EA}"/>
-    <hyperlink ref="D18" r:id="rId46" xr:uid="{A39D22E8-829E-408E-9A29-6AC69A125558}"/>
-    <hyperlink ref="D19" r:id="rId47" xr:uid="{C4514937-C1F9-4E05-9F4E-B78A90D5FF90}"/>
-    <hyperlink ref="D20" r:id="rId48" xr:uid="{7F8983E6-C30E-4371-83E6-E1BC55CAC1F9}"/>
-    <hyperlink ref="D21" r:id="rId49" xr:uid="{E0172095-1727-483E-9C84-789368420BFE}"/>
-    <hyperlink ref="D22" r:id="rId50" xr:uid="{80366AF4-50BC-4967-A78E-D47375491424}"/>
-    <hyperlink ref="D23" r:id="rId51" xr:uid="{F717CFC2-C0EF-434A-9B39-410B45E8DBF1}"/>
-    <hyperlink ref="D30" r:id="rId52" xr:uid="{564C77A2-C93C-41E3-92EE-584D1829ED3A}"/>
-    <hyperlink ref="I2" r:id="rId53" xr:uid="{C21C51C9-8E57-4306-AE33-5771DA9EDE44}"/>
-    <hyperlink ref="I16" r:id="rId54" xr:uid="{6A0113D1-0959-4068-A664-B46AA0B1D2D1}"/>
-    <hyperlink ref="I19" r:id="rId55" xr:uid="{3B003557-D297-4794-908F-89EC252AAA33}"/>
-    <hyperlink ref="I23" r:id="rId56" xr:uid="{F71DAFC5-7C60-446C-9821-205FEF06ADD1}"/>
-    <hyperlink ref="I27:I28" r:id="rId57" display="rakesh.raulo@urbangabru.in" xr:uid="{AB2C998F-9AAA-423C-B750-1494CDFA5F7C}"/>
-    <hyperlink ref="I39" r:id="rId58" xr:uid="{6AAF4B77-CA93-4DC8-8DAF-F80FD4448AC7}"/>
-    <hyperlink ref="I41" r:id="rId59" xr:uid="{AF208654-2826-41FA-AA0B-97B2CF2997E8}"/>
-    <hyperlink ref="I66" r:id="rId60" xr:uid="{462AE825-8F34-414D-BE17-BF41645E7288}"/>
-    <hyperlink ref="D31" r:id="rId61" xr:uid="{870AB10C-3CF3-4DDC-9EC0-B411812950CC}"/>
-    <hyperlink ref="D32" r:id="rId62" xr:uid="{B2402A95-78BF-4BCE-88CF-EB9D6A842F63}"/>
-    <hyperlink ref="D34" r:id="rId63" xr:uid="{2CB97427-98B8-49D0-ADE6-B829475893D2}"/>
-    <hyperlink ref="D37" r:id="rId64" xr:uid="{33D90B85-D89C-4BB2-B836-561FEABBF159}"/>
-    <hyperlink ref="D38" r:id="rId65" xr:uid="{16DF7F2F-BF7C-4CA7-8233-3C777EE637EF}"/>
-    <hyperlink ref="D39" r:id="rId66" xr:uid="{62BA3FE9-2B7D-4E82-A6AB-861684EE44FF}"/>
-    <hyperlink ref="D40" r:id="rId67" xr:uid="{9453D832-D2B1-4EA4-B67D-ED07B05CB36B}"/>
-    <hyperlink ref="D41" r:id="rId68" xr:uid="{4551821A-2077-4E19-8923-97622E114CC5}"/>
-    <hyperlink ref="D42" r:id="rId69" xr:uid="{80F5A021-7451-45CF-8A55-84C6B184D545}"/>
-    <hyperlink ref="D43" r:id="rId70" xr:uid="{823DA6B3-861B-4DDE-9318-3D9D9501A748}"/>
-    <hyperlink ref="D44" r:id="rId71" xr:uid="{57FB5EFB-0A7A-447E-B048-753DDCBE83BE}"/>
-    <hyperlink ref="D45" r:id="rId72" xr:uid="{65D20DC5-D347-4B92-939D-67C6E9CA4099}"/>
-    <hyperlink ref="D46" r:id="rId73" xr:uid="{DFDBB072-57B6-414E-AD32-C43529C0A02E}"/>
-    <hyperlink ref="D33" r:id="rId74" xr:uid="{F32CC1AB-1D08-4CBF-8734-41FE9CE792F2}"/>
-    <hyperlink ref="D36" r:id="rId75" xr:uid="{91939463-F347-4EB1-9835-10D0C5847AC2}"/>
-    <hyperlink ref="D48" r:id="rId76" xr:uid="{697A9CA5-37EE-4DA8-8785-23118AA9A986}"/>
-    <hyperlink ref="D49" r:id="rId77" xr:uid="{B837B941-6C09-4383-8340-057EFEEF4C2A}"/>
-    <hyperlink ref="D51" r:id="rId78" xr:uid="{5228BFFC-0024-4B76-A50F-378E909DEB9E}"/>
-    <hyperlink ref="D54" r:id="rId79" xr:uid="{03A49264-3529-4D46-96B4-F9E4B408275C}"/>
-    <hyperlink ref="D55" r:id="rId80" xr:uid="{B80B62FD-0A48-424D-9193-718DE528A3D9}"/>
-    <hyperlink ref="D57" r:id="rId81" xr:uid="{FF27CE65-EDD1-48CB-ADD2-FC1B04379D4F}"/>
-    <hyperlink ref="D58" r:id="rId82" xr:uid="{DD7177EA-B1A0-4A32-8ECC-126A8F698C87}"/>
-    <hyperlink ref="D59" r:id="rId83" xr:uid="{51AD824A-C8CC-4BDA-BDCB-CACD814337EE}"/>
-    <hyperlink ref="D60" r:id="rId84" xr:uid="{4D20B7EA-6506-4321-91D8-D043FDC215DB}"/>
-    <hyperlink ref="D61" r:id="rId85" xr:uid="{53CA0A1B-9838-4F34-9189-994827F11B4F}"/>
-    <hyperlink ref="D62" r:id="rId86" xr:uid="{006B567B-960D-4976-BA47-34C8AAC2EA6B}"/>
-    <hyperlink ref="D63" r:id="rId87" xr:uid="{D77DFDE8-52D1-47B3-937D-8875B12C8187}"/>
-    <hyperlink ref="D64" r:id="rId88" xr:uid="{4DAD1DCD-6DA4-4821-8767-096D23FA684C}"/>
-    <hyperlink ref="D65" r:id="rId89" xr:uid="{DE32128C-030C-49D8-B6C1-826E021812FC}"/>
-    <hyperlink ref="D66" r:id="rId90" xr:uid="{CBA88F32-2246-46B4-AC53-88544E823387}"/>
-    <hyperlink ref="D67" r:id="rId91" xr:uid="{FC846F3F-D1FA-4F31-B652-3CF29A90246C}"/>
-    <hyperlink ref="D68" r:id="rId92" xr:uid="{BFEFF04B-2141-4567-96A6-D3056766BB0D}"/>
-    <hyperlink ref="I35" r:id="rId93" xr:uid="{A6C0CC82-44BA-4222-B39E-D7476DA47C6B}"/>
-    <hyperlink ref="I14" r:id="rId94" xr:uid="{4C4DDAEE-F389-4B2E-BF3A-B7B53B7D3F87}"/>
-    <hyperlink ref="I33:I34" r:id="rId95" display="shailesh.bhujbal@urbangabru.co.in" xr:uid="{4B015309-8B52-4485-9965-99C88E6F4FAC}"/>
-    <hyperlink ref="I20" r:id="rId96" xr:uid="{E2E655CA-8855-4FFF-8D68-FE7BE3856DAD}"/>
-    <hyperlink ref="I22" r:id="rId97" xr:uid="{249F710E-612E-4A2B-9513-A7E0D75A00F0}"/>
-    <hyperlink ref="I30" r:id="rId98" xr:uid="{0DDB982B-4488-4CAE-AE51-CE129FB8AF5D}"/>
-    <hyperlink ref="I40" r:id="rId99" xr:uid="{6CE8AB3C-163D-40F6-96CD-419E037BC515}"/>
-    <hyperlink ref="I46:I47" r:id="rId100" xr:uid="{49138BDB-FD98-425A-8A09-D467631C7A6C}"/>
-    <hyperlink ref="I54" r:id="rId101" xr:uid="{85529956-96FD-44B7-B1B5-B8B96D656A21}"/>
-    <hyperlink ref="I57" r:id="rId102" xr:uid="{B3890C9C-5043-447C-9BE8-849115F9ED91}"/>
-    <hyperlink ref="I13" r:id="rId103" xr:uid="{B06B408B-86DE-4DC1-A0B1-E651C3474CC0}"/>
-    <hyperlink ref="D69" r:id="rId104" xr:uid="{2BB55C61-927A-4ACD-BFB5-8BFBEB3AB87D}"/>
-    <hyperlink ref="I69" r:id="rId105" xr:uid="{FE4CB666-8CCD-41A4-88DC-772F7E72B69E}"/>
-    <hyperlink ref="I18" r:id="rId106" xr:uid="{65D62495-7ED6-4AEE-85AA-5E06DD4DCC50}"/>
-    <hyperlink ref="I37" r:id="rId107" xr:uid="{5A19F303-21CE-4C85-8F0C-E1C79BC97EE4}"/>
-    <hyperlink ref="I43" r:id="rId108" xr:uid="{CE65FCF0-CAD9-4672-ABBE-37B0F48F2980}"/>
-    <hyperlink ref="I53" r:id="rId109" xr:uid="{EE4F0454-9D7B-4D12-AF17-1357CE1D3E35}"/>
-    <hyperlink ref="I55:I56" r:id="rId110" display="shrushti.mulage@urbangabru.in" xr:uid="{6033AC21-F7BE-4E51-A959-D5962C670FA3}"/>
-    <hyperlink ref="D70" r:id="rId111" xr:uid="{D4FDC315-7B6D-4469-88E3-1589B741FE41}"/>
-    <hyperlink ref="I70" r:id="rId112" xr:uid="{C558B3C7-EBFE-4FB4-ADD6-6EB2E4AD0F9E}"/>
-    <hyperlink ref="D35" r:id="rId113" xr:uid="{E91DE87D-A790-4838-8760-70C6AC703D98}"/>
-    <hyperlink ref="I71" r:id="rId114" xr:uid="{8AB72D72-B60D-4E53-A04A-507971B9D6C3}"/>
-    <hyperlink ref="D71" r:id="rId115" xr:uid="{FB78035B-3BB6-44E6-A168-E41DD27DB633}"/>
-    <hyperlink ref="D72" r:id="rId116" xr:uid="{99C33B73-DF8E-48F4-898C-A8EE9AFBA7F4}"/>
-    <hyperlink ref="I75" r:id="rId117" xr:uid="{D457B946-2C7C-4D94-BB76-75FC21CE52AE}"/>
-    <hyperlink ref="I77" r:id="rId118" xr:uid="{79D99990-0DCC-4038-95CC-DF502FDAB3FC}"/>
-    <hyperlink ref="I78" r:id="rId119" xr:uid="{89E8B74E-5421-47D4-81EB-28C833655F35}"/>
-    <hyperlink ref="I81" r:id="rId120" xr:uid="{91EAD886-D9E8-43C2-A469-FBD57EE676CD}"/>
-    <hyperlink ref="I79" r:id="rId121" xr:uid="{07B08EF3-2DC3-4B36-A0A4-AA3B13FD9442}"/>
-    <hyperlink ref="I85" r:id="rId122" xr:uid="{DBF62D72-BF4A-4175-AEE0-1A67E739CA4C}"/>
-    <hyperlink ref="I82" r:id="rId123" xr:uid="{3460E9AA-2796-472B-9A8C-201426F3C6E0}"/>
-    <hyperlink ref="I84" r:id="rId124" xr:uid="{17A1B2FB-8E41-4354-AEE2-2E9E5B0D2906}"/>
-    <hyperlink ref="I76" r:id="rId125" xr:uid="{5FA8D04A-7C92-467B-94EC-59E9AAF858F0}"/>
-    <hyperlink ref="I87" r:id="rId126" xr:uid="{4C626523-9255-4EE9-B00F-76F0973AB813}"/>
-    <hyperlink ref="I72" r:id="rId127" xr:uid="{C11183B9-2495-4806-B47C-D70E16538657}"/>
-    <hyperlink ref="I73" r:id="rId128" xr:uid="{AD8F2850-D134-4829-A85A-2BD289B20186}"/>
-    <hyperlink ref="I74" r:id="rId129" xr:uid="{403D12D0-12E0-43D5-A47F-365A9BE6811C}"/>
-    <hyperlink ref="I80" r:id="rId130" xr:uid="{F853E0B2-482A-4F07-8009-BC12BE6B115B}"/>
-    <hyperlink ref="I83" r:id="rId131" xr:uid="{390DE4D6-96FF-440B-9454-B84E3B267EA1}"/>
-    <hyperlink ref="I86" r:id="rId132" xr:uid="{74460AC2-C4F4-4242-8DA4-06BB68025728}"/>
+    <hyperlink ref="D13" r:id="rId38" xr:uid="{7902939E-0487-48F1-84D7-CACB529741B0}"/>
+    <hyperlink ref="D14" r:id="rId39" xr:uid="{3AB174BA-7CED-4824-A663-6F227253BD9C}"/>
+    <hyperlink ref="D15" r:id="rId40" xr:uid="{A39FC705-BA1A-42C5-9955-53E724C009F5}"/>
+    <hyperlink ref="D16" r:id="rId41" xr:uid="{B63400E7-FA3C-4250-A756-02968FE61910}"/>
+    <hyperlink ref="D17" r:id="rId42" xr:uid="{D8735FC2-EC88-421B-8865-C4FE808C25EA}"/>
+    <hyperlink ref="D18" r:id="rId43" xr:uid="{A39D22E8-829E-408E-9A29-6AC69A125558}"/>
+    <hyperlink ref="D19" r:id="rId44" xr:uid="{C4514937-C1F9-4E05-9F4E-B78A90D5FF90}"/>
+    <hyperlink ref="D20" r:id="rId45" xr:uid="{7F8983E6-C30E-4371-83E6-E1BC55CAC1F9}"/>
+    <hyperlink ref="D21" r:id="rId46" xr:uid="{E0172095-1727-483E-9C84-789368420BFE}"/>
+    <hyperlink ref="D22" r:id="rId47" xr:uid="{80366AF4-50BC-4967-A78E-D47375491424}"/>
+    <hyperlink ref="D23" r:id="rId48" xr:uid="{F717CFC2-C0EF-434A-9B39-410B45E8DBF1}"/>
+    <hyperlink ref="D30" r:id="rId49" xr:uid="{564C77A2-C93C-41E3-92EE-584D1829ED3A}"/>
+    <hyperlink ref="I2" r:id="rId50" xr:uid="{C21C51C9-8E57-4306-AE33-5771DA9EDE44}"/>
+    <hyperlink ref="I16" r:id="rId51" xr:uid="{6A0113D1-0959-4068-A664-B46AA0B1D2D1}"/>
+    <hyperlink ref="I19" r:id="rId52" xr:uid="{3B003557-D297-4794-908F-89EC252AAA33}"/>
+    <hyperlink ref="I23" r:id="rId53" xr:uid="{F71DAFC5-7C60-446C-9821-205FEF06ADD1}"/>
+    <hyperlink ref="I27:I28" r:id="rId54" display="rakesh.raulo@urbangabru.in" xr:uid="{AB2C998F-9AAA-423C-B750-1494CDFA5F7C}"/>
+    <hyperlink ref="I39" r:id="rId55" xr:uid="{6AAF4B77-CA93-4DC8-8DAF-F80FD4448AC7}"/>
+    <hyperlink ref="I41" r:id="rId56" xr:uid="{AF208654-2826-41FA-AA0B-97B2CF2997E8}"/>
+    <hyperlink ref="I64" r:id="rId57" xr:uid="{462AE825-8F34-414D-BE17-BF41645E7288}"/>
+    <hyperlink ref="D31" r:id="rId58" xr:uid="{870AB10C-3CF3-4DDC-9EC0-B411812950CC}"/>
+    <hyperlink ref="D32" r:id="rId59" xr:uid="{B2402A95-78BF-4BCE-88CF-EB9D6A842F63}"/>
+    <hyperlink ref="D34" r:id="rId60" xr:uid="{2CB97427-98B8-49D0-ADE6-B829475893D2}"/>
+    <hyperlink ref="D37" r:id="rId61" xr:uid="{33D90B85-D89C-4BB2-B836-561FEABBF159}"/>
+    <hyperlink ref="D38" r:id="rId62" xr:uid="{16DF7F2F-BF7C-4CA7-8233-3C777EE637EF}"/>
+    <hyperlink ref="D39" r:id="rId63" xr:uid="{62BA3FE9-2B7D-4E82-A6AB-861684EE44FF}"/>
+    <hyperlink ref="D40" r:id="rId64" xr:uid="{9453D832-D2B1-4EA4-B67D-ED07B05CB36B}"/>
+    <hyperlink ref="D41" r:id="rId65" xr:uid="{4551821A-2077-4E19-8923-97622E114CC5}"/>
+    <hyperlink ref="D42" r:id="rId66" xr:uid="{80F5A021-7451-45CF-8A55-84C6B184D545}"/>
+    <hyperlink ref="D43" r:id="rId67" xr:uid="{823DA6B3-861B-4DDE-9318-3D9D9501A748}"/>
+    <hyperlink ref="D44" r:id="rId68" xr:uid="{57FB5EFB-0A7A-447E-B048-753DDCBE83BE}"/>
+    <hyperlink ref="D45" r:id="rId69" xr:uid="{65D20DC5-D347-4B92-939D-67C6E9CA4099}"/>
+    <hyperlink ref="D46" r:id="rId70" xr:uid="{DFDBB072-57B6-414E-AD32-C43529C0A02E}"/>
+    <hyperlink ref="D33" r:id="rId71" xr:uid="{F32CC1AB-1D08-4CBF-8734-41FE9CE792F2}"/>
+    <hyperlink ref="D36" r:id="rId72" xr:uid="{91939463-F347-4EB1-9835-10D0C5847AC2}"/>
+    <hyperlink ref="D48" r:id="rId73" xr:uid="{697A9CA5-37EE-4DA8-8785-23118AA9A986}"/>
+    <hyperlink ref="D49" r:id="rId74" xr:uid="{B837B941-6C09-4383-8340-057EFEEF4C2A}"/>
+    <hyperlink ref="D51" r:id="rId75" xr:uid="{5228BFFC-0024-4B76-A50F-378E909DEB9E}"/>
+    <hyperlink ref="D54" r:id="rId76" xr:uid="{03A49264-3529-4D46-96B4-F9E4B408275C}"/>
+    <hyperlink ref="D55" r:id="rId77" xr:uid="{B80B62FD-0A48-424D-9193-718DE528A3D9}"/>
+    <hyperlink ref="D57" r:id="rId78" xr:uid="{FF27CE65-EDD1-48CB-ADD2-FC1B04379D4F}"/>
+    <hyperlink ref="D58" r:id="rId79" xr:uid="{51AD824A-C8CC-4BDA-BDCB-CACD814337EE}"/>
+    <hyperlink ref="D59" r:id="rId80" xr:uid="{4D20B7EA-6506-4321-91D8-D043FDC215DB}"/>
+    <hyperlink ref="D60" r:id="rId81" xr:uid="{53CA0A1B-9838-4F34-9189-994827F11B4F}"/>
+    <hyperlink ref="D61" r:id="rId82" xr:uid="{D77DFDE8-52D1-47B3-937D-8875B12C8187}"/>
+    <hyperlink ref="D62" r:id="rId83" xr:uid="{4DAD1DCD-6DA4-4821-8767-096D23FA684C}"/>
+    <hyperlink ref="D63" r:id="rId84" xr:uid="{DE32128C-030C-49D8-B6C1-826E021812FC}"/>
+    <hyperlink ref="D64" r:id="rId85" xr:uid="{CBA88F32-2246-46B4-AC53-88544E823387}"/>
+    <hyperlink ref="D65" r:id="rId86" xr:uid="{FC846F3F-D1FA-4F31-B652-3CF29A90246C}"/>
+    <hyperlink ref="D66" r:id="rId87" xr:uid="{BFEFF04B-2141-4567-96A6-D3056766BB0D}"/>
+    <hyperlink ref="I35" r:id="rId88" xr:uid="{A6C0CC82-44BA-4222-B39E-D7476DA47C6B}"/>
+    <hyperlink ref="I14" r:id="rId89" xr:uid="{4C4DDAEE-F389-4B2E-BF3A-B7B53B7D3F87}"/>
+    <hyperlink ref="I33:I34" r:id="rId90" display="shailesh.bhujbal@urbangabru.co.in" xr:uid="{4B015309-8B52-4485-9965-99C88E6F4FAC}"/>
+    <hyperlink ref="I20" r:id="rId91" xr:uid="{E2E655CA-8855-4FFF-8D68-FE7BE3856DAD}"/>
+    <hyperlink ref="I22" r:id="rId92" xr:uid="{249F710E-612E-4A2B-9513-A7E0D75A00F0}"/>
+    <hyperlink ref="I30" r:id="rId93" xr:uid="{0DDB982B-4488-4CAE-AE51-CE129FB8AF5D}"/>
+    <hyperlink ref="I40" r:id="rId94" xr:uid="{6CE8AB3C-163D-40F6-96CD-419E037BC515}"/>
+    <hyperlink ref="I46:I47" r:id="rId95" xr:uid="{49138BDB-FD98-425A-8A09-D467631C7A6C}"/>
+    <hyperlink ref="I54" r:id="rId96" xr:uid="{85529956-96FD-44B7-B1B5-B8B96D656A21}"/>
+    <hyperlink ref="I57" r:id="rId97" xr:uid="{B3890C9C-5043-447C-9BE8-849115F9ED91}"/>
+    <hyperlink ref="I13" r:id="rId98" xr:uid="{B06B408B-86DE-4DC1-A0B1-E651C3474CC0}"/>
+    <hyperlink ref="D67" r:id="rId99" xr:uid="{2BB55C61-927A-4ACD-BFB5-8BFBEB3AB87D}"/>
+    <hyperlink ref="I67" r:id="rId100" xr:uid="{FE4CB666-8CCD-41A4-88DC-772F7E72B69E}"/>
+    <hyperlink ref="I18" r:id="rId101" xr:uid="{65D62495-7ED6-4AEE-85AA-5E06DD4DCC50}"/>
+    <hyperlink ref="I37" r:id="rId102" xr:uid="{5A19F303-21CE-4C85-8F0C-E1C79BC97EE4}"/>
+    <hyperlink ref="I43" r:id="rId103" xr:uid="{CE65FCF0-CAD9-4672-ABBE-37B0F48F2980}"/>
+    <hyperlink ref="I53" r:id="rId104" xr:uid="{EE4F0454-9D7B-4D12-AF17-1357CE1D3E35}"/>
+    <hyperlink ref="I55:I56" r:id="rId105" display="shrushti.mulage@urbangabru.in" xr:uid="{6033AC21-F7BE-4E51-A959-D5962C670FA3}"/>
+    <hyperlink ref="D68" r:id="rId106" xr:uid="{D4FDC315-7B6D-4469-88E3-1589B741FE41}"/>
+    <hyperlink ref="I68" r:id="rId107" xr:uid="{C558B3C7-EBFE-4FB4-ADD6-6EB2E4AD0F9E}"/>
+    <hyperlink ref="D35" r:id="rId108" xr:uid="{E91DE87D-A790-4838-8760-70C6AC703D98}"/>
+    <hyperlink ref="I69" r:id="rId109" xr:uid="{8AB72D72-B60D-4E53-A04A-507971B9D6C3}"/>
+    <hyperlink ref="D69" r:id="rId110" xr:uid="{FB78035B-3BB6-44E6-A168-E41DD27DB633}"/>
+    <hyperlink ref="D70" r:id="rId111" xr:uid="{99C33B73-DF8E-48F4-898C-A8EE9AFBA7F4}"/>
+    <hyperlink ref="I73" r:id="rId112" xr:uid="{D457B946-2C7C-4D94-BB76-75FC21CE52AE}"/>
+    <hyperlink ref="I75" r:id="rId113" xr:uid="{79D99990-0DCC-4038-95CC-DF502FDAB3FC}"/>
+    <hyperlink ref="I76" r:id="rId114" xr:uid="{89E8B74E-5421-47D4-81EB-28C833655F35}"/>
+    <hyperlink ref="I77" r:id="rId115" xr:uid="{07B08EF3-2DC3-4B36-A0A4-AA3B13FD9442}"/>
+    <hyperlink ref="I83" r:id="rId116" xr:uid="{DBF62D72-BF4A-4175-AEE0-1A67E739CA4C}"/>
+    <hyperlink ref="I80" r:id="rId117" xr:uid="{3460E9AA-2796-472B-9A8C-201426F3C6E0}"/>
+    <hyperlink ref="I82" r:id="rId118" xr:uid="{17A1B2FB-8E41-4354-AEE2-2E9E5B0D2906}"/>
+    <hyperlink ref="I74" r:id="rId119" xr:uid="{5FA8D04A-7C92-467B-94EC-59E9AAF858F0}"/>
+    <hyperlink ref="I85" r:id="rId120" xr:uid="{4C626523-9255-4EE9-B00F-76F0973AB813}"/>
+    <hyperlink ref="I70" r:id="rId121" xr:uid="{C11183B9-2495-4806-B47C-D70E16538657}"/>
+    <hyperlink ref="I81" r:id="rId122" xr:uid="{390DE4D6-96FF-440B-9454-B84E3B267EA1}"/>
+    <hyperlink ref="D86" r:id="rId123" xr:uid="{5921F1F7-B8A1-4782-A970-58A9CE9F4724}"/>
+    <hyperlink ref="D87" r:id="rId124" xr:uid="{D3136A9D-F831-4278-BC8A-A868CD17A8D1}"/>
+    <hyperlink ref="D88" r:id="rId125" xr:uid="{118D3B29-FAC4-4608-8C12-BF22A4DE7E59}"/>
+    <hyperlink ref="D89" r:id="rId126" xr:uid="{A10E8DDF-9A5C-4E28-B049-98A52B6962CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4311,7 +4492,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>60</v>
@@ -4327,7 +4508,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>76</v>
@@ -4351,7 +4532,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>67</v>
@@ -4359,7 +4540,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>47</v>
@@ -4367,7 +4548,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>40</v>
@@ -4383,7 +4564,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
@@ -4399,7 +4580,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -4463,15 +4644,15 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>96</v>
@@ -4487,7 +4668,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>104</v>
@@ -4495,7 +4676,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>112</v>
@@ -4530,12 +4711,12 @@
         <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>70</v>
@@ -4567,7 +4748,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s">
         <v>133</v>
@@ -4575,154 +4756,154 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="76.5">
       <c r="A38" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="76.5">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="76.5">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="76.5">
       <c r="A50" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="76.5">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/reporting_hierarchy.xlsx
+++ b/reporting_hierarchy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29423"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="350" documentId="11_254B45AE2BF66FFC05FC9890E2159AB6B2E0D67D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7FA3966-F7D5-4878-ADBA-BB4C8644C06D}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="11_254B45AE2BF66FFC05FC9890E2159AB6B2E0D67D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74522C6-56D8-42A7-B3E1-1E6C3FE1E215}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="311">
   <si>
     <t>Employee No</t>
   </si>
@@ -870,6 +870,46 @@
     <t>AI Video Editor Senior Associate</t>
   </si>
   <si>
+    <t>Shreyas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+shreyas.shinde@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Shahebaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reet </t>
+  </si>
+  <si>
+    <t>reet.kaur@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Brand Collaboration Associate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pramod </t>
+  </si>
+  <si>
+    <t>pramod.mali@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Anurag</t>
+  </si>
+  <si>
+    <t>anurag.kharche@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Purchase Team</t>
+  </si>
+  <si>
+    <t>Senior Purchase Associate</t>
+  </si>
+  <si>
+    <t>Pranav V</t>
+  </si>
+  <si>
     <t>Avinash Desale</t>
   </si>
   <si>
@@ -953,7 +993,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,6 +1055,23 @@
       <name val="Zoho_Puvi_Regular"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1036,7 +1093,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1126,12 +1183,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABABAB"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABABAB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFABABAB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFABABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1167,6 +1265,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1473,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="C79" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87:J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4260,19 +4391,19 @@
         <v>61</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>264</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J87" s="8">
-        <v>725</v>
+        <v>42</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J87" s="1">
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="30.75">
@@ -4339,8 +4470,135 @@
         <v>725</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75">
-      <c r="H90" s="8"/>
+    <row r="90" spans="1:10" ht="30.75">
+      <c r="C90" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="G90" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="H90" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J90" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="C91" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="H91" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J91" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="16.5">
+      <c r="C92" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="G92" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="H92" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J92" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="16.5">
+      <c r="C93" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="G93" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J93" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="16.5">
+      <c r="C94" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F94" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="G94" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="H94" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J94" s="1">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J89" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -4471,6 +4729,12 @@
     <hyperlink ref="D87" r:id="rId124" xr:uid="{D3136A9D-F831-4278-BC8A-A868CD17A8D1}"/>
     <hyperlink ref="D88" r:id="rId125" xr:uid="{118D3B29-FAC4-4608-8C12-BF22A4DE7E59}"/>
     <hyperlink ref="D89" r:id="rId126" xr:uid="{A10E8DDF-9A5C-4E28-B049-98A52B6962CF}"/>
+    <hyperlink ref="I90" r:id="rId127" xr:uid="{80B0000A-E091-4251-98C1-73399F0ED835}"/>
+    <hyperlink ref="I91" r:id="rId128" xr:uid="{7F420AF8-592B-4611-B8B8-B40EB2021CCD}"/>
+    <hyperlink ref="I92" r:id="rId129" xr:uid="{78A5C01D-3543-4B66-AD58-D2039CC80E9A}"/>
+    <hyperlink ref="I93" r:id="rId130" xr:uid="{5ACA79C2-29A8-454B-A677-4AAC5C68B5A3}"/>
+    <hyperlink ref="I94" r:id="rId131" xr:uid="{FAAE0663-972E-4FA0-9874-A7B974BA1019}"/>
+    <hyperlink ref="I87" r:id="rId132" xr:uid="{D206B315-F64F-4C9E-B296-FD59D27E4797}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4492,7 +4756,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>60</v>
@@ -4508,7 +4772,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>76</v>
@@ -4532,7 +4796,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>67</v>
@@ -4540,7 +4804,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>47</v>
@@ -4548,7 +4812,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>40</v>
@@ -4564,7 +4828,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
@@ -4580,7 +4844,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -4644,15 +4908,15 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>96</v>
@@ -4668,7 +4932,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>104</v>
@@ -4676,7 +4940,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>112</v>
@@ -4711,12 +4975,12 @@
         <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>70</v>
@@ -4748,7 +5012,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s">
         <v>133</v>
@@ -4756,10 +5020,10 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4780,7 +5044,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>145</v>
@@ -4788,7 +5052,7 @@
     </row>
     <row r="38" spans="1:2" ht="76.5">
       <c r="A38" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>147</v>
@@ -4812,7 +5076,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>156</v>
@@ -4820,7 +5084,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>159</v>
@@ -4836,15 +5100,15 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>165</v>
@@ -4884,10 +5148,10 @@
     </row>
     <row r="50" spans="1:2" ht="76.5">
       <c r="A50" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:2">

--- a/reporting_hierarchy.xlsx
+++ b/reporting_hierarchy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29609"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="368" documentId="11_254B45AE2BF66FFC05FC9890E2159AB6B2E0D67D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74522C6-56D8-42A7-B3E1-1E6C3FE1E215}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="11_254B45AE2BF66FFC05FC9890E2159AB6B2E0D67D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{942CDC25-439C-4B24-ABAC-D143DD42A06D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$65</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="315">
   <si>
     <t>Employee No</t>
   </si>
@@ -319,7 +319,10 @@
     <t>Video Editor Senior Associate</t>
   </si>
   <si>
-    <t>Arpita achwal</t>
+    <t xml:space="preserve">Nisamuddin </t>
+  </si>
+  <si>
+    <t>nisamudheen.p@urbangabru.in</t>
   </si>
   <si>
     <t>Ratan Kumar Gautam</t>
@@ -443,12 +446,6 @@
   </si>
   <si>
     <t>Video Editor Associate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nisamuddin </t>
-  </si>
-  <si>
-    <t>nisamudheen.p@urbangabru.in</t>
   </si>
   <si>
     <t>Chirag Chavan</t>
@@ -571,7 +568,10 @@
     <t>Purchase Associate</t>
   </si>
   <si>
-    <t>Pranav</t>
+    <t xml:space="preserve">Renu </t>
+  </si>
+  <si>
+    <t>renu.arora@urbangabru.in</t>
   </si>
   <si>
     <t>Radhika Darne</t>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>Senior Process Improvement Associate</t>
+  </si>
+  <si>
+    <t>Arpita achwal</t>
   </si>
   <si>
     <t>Rajpriya Srivastav</t>
@@ -618,12 +621,6 @@
 akshay.patil@urbangabru.co.in</t>
   </si>
   <si>
-    <t>Hassaan Syed</t>
-  </si>
-  <si>
-    <t>hassaan.syed@urbangabru.in</t>
-  </si>
-  <si>
     <t>Janhavi Saywan</t>
   </si>
   <si>
@@ -717,6 +714,9 @@
     <t>om.pund@urbangabru.in</t>
   </si>
   <si>
+    <t>Pranav</t>
+  </si>
+  <si>
     <t>pranav.narsikar@urbangabru.in</t>
   </si>
   <si>
@@ -769,12 +769,6 @@
   </si>
   <si>
     <t>Video Lead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renu </t>
-  </si>
-  <si>
-    <t>renu.arora@urbangabru.in</t>
   </si>
   <si>
     <r>
@@ -877,9 +871,6 @@
 shreyas.shinde@urbangabru.in</t>
   </si>
   <si>
-    <t>Shahebaj</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reet </t>
   </si>
   <si>
@@ -907,7 +898,28 @@
     <t>Senior Purchase Associate</t>
   </si>
   <si>
-    <t>Pranav V</t>
+    <t>Prem</t>
+  </si>
+  <si>
+    <t>prem.karwar@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Ketan</t>
+  </si>
+  <si>
+    <t>ketan.shedage@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Pratik</t>
+  </si>
+  <si>
+    <t>pratik.javiya@urbangabru.in</t>
+  </si>
+  <si>
+    <t>Vaishnav</t>
+  </si>
+  <si>
+    <t>vaishnav.tripathi@urbangabru.in</t>
   </si>
   <si>
     <t>Avinash Desale</t>
@@ -1229,7 +1241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1273,12 +1285,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1604,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C79" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87:J87"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2262,7 +2268,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="1">
         <v>331</v>
       </c>
@@ -2284,14 +2290,14 @@
       <c r="G21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="1">
-        <v>154</v>
+      <c r="I21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2302,10 +2308,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>25</v>
@@ -2314,7 +2320,7 @@
         <v>73</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>89</v>
@@ -2334,10 +2340,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -2346,7 +2352,7 @@
         <v>85</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>16</v>
@@ -2366,7 +2372,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>51</v>
@@ -2378,7 +2384,7 @@
         <v>48</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>18</v>
@@ -2398,10 +2404,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>25</v>
@@ -2410,7 +2416,7 @@
         <v>35</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>37</v>
@@ -2430,10 +2436,10 @@
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>25</v>
@@ -2442,7 +2448,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>37</v>
@@ -2462,10 +2468,10 @@
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
@@ -2474,7 +2480,7 @@
         <v>85</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>16</v>
@@ -2494,10 +2500,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
@@ -2506,7 +2512,7 @@
         <v>85</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>16</v>
@@ -2526,10 +2532,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>25</v>
@@ -2541,7 +2547,7 @@
         <v>68</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>17</v>
@@ -2558,10 +2564,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>25</v>
@@ -2570,7 +2576,7 @@
         <v>73</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>89</v>
@@ -2590,7 +2596,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>70</v>
@@ -2622,10 +2628,10 @@
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>25</v>
@@ -2634,7 +2640,7 @@
         <v>35</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>37</v>
@@ -2654,10 +2660,10 @@
         <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>25</v>
@@ -2666,7 +2672,7 @@
         <v>26</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>69</v>
@@ -2686,10 +2692,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>25</v>
@@ -2718,25 +2724,25 @@
         <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J35" s="1">
         <v>615</v>
@@ -2750,25 +2756,25 @@
         <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="J36" s="8">
         <v>725</v>
@@ -2782,19 +2788,19 @@
         <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>64</v>
@@ -2814,10 +2820,10 @@
         <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>25</v>
@@ -2826,7 +2832,7 @@
         <v>35</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>37</v>
@@ -2846,10 +2852,10 @@
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>13</v>
@@ -2858,7 +2864,7 @@
         <v>85</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>16</v>
@@ -2878,10 +2884,10 @@
         <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>25</v>
@@ -2890,7 +2896,7 @@
         <v>73</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>89</v>
@@ -2910,10 +2916,10 @@
         <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>13</v>
@@ -2922,7 +2928,7 @@
         <v>85</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>16</v>
@@ -2942,10 +2948,10 @@
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>25</v>
@@ -2954,7 +2960,7 @@
         <v>35</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>37</v>
@@ -2974,19 +2980,19 @@
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>64</v>
@@ -2998,7 +3004,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="1">
         <v>537</v>
       </c>
@@ -3006,28 +3012,28 @@
         <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H44" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J44" s="1">
-        <v>154</v>
+      <c r="I44" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75">
@@ -3038,25 +3044,25 @@
         <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="J45" s="8">
         <v>725</v>
@@ -3070,10 +3076,10 @@
         <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>25</v>
@@ -3082,7 +3088,7 @@
         <v>73</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>89</v>
@@ -3102,10 +3108,10 @@
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>25</v>
@@ -3114,7 +3120,7 @@
         <v>73</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>89</v>
@@ -3134,10 +3140,10 @@
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>25</v>
@@ -3146,7 +3152,7 @@
         <v>35</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>37</v>
@@ -3166,10 +3172,10 @@
         <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>25</v>
@@ -3178,10 +3184,10 @@
         <v>26</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>17</v>
@@ -3190,7 +3196,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" ht="15.75">
       <c r="A50" s="1">
         <v>606</v>
       </c>
@@ -3198,10 +3204,10 @@
         <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>56</v>
@@ -3210,19 +3216,19 @@
         <v>57</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H50" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="J50" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="1">
         <v>611</v>
       </c>
@@ -3242,13 +3248,13 @@
         <v>57</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H51" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="J51" s="1">
         <v>163</v>
@@ -3262,10 +3268,10 @@
         <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>180</v>
@@ -3277,7 +3283,7 @@
         <v>182</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>43</v>
@@ -3294,19 +3300,19 @@
         <v>10</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>64</v>
@@ -3326,10 +3332,10 @@
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>25</v>
@@ -3338,7 +3344,7 @@
         <v>73</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>89</v>
@@ -3358,19 +3364,19 @@
         <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>64</v>
@@ -3390,19 +3396,19 @@
         <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>64</v>
@@ -3416,48 +3422,48 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="J57" s="1">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>25</v>
@@ -3466,7 +3472,7 @@
         <v>35</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>37</v>
@@ -3478,114 +3484,114 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" ht="15.75">
       <c r="A59" s="1">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J59" s="8">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>652</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J59" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.75">
-      <c r="A60" s="1">
-        <v>648</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F60" s="1" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J60" s="8">
-        <v>725</v>
+        <v>204</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="1">
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="J61" s="1">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>25</v>
@@ -3594,7 +3600,7 @@
         <v>35</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>37</v>
@@ -3608,287 +3614,287 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="J63" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75">
       <c r="A64" s="1">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J64" s="1">
-        <v>157</v>
+        <v>136</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J64" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75">
       <c r="A65" s="1">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="J65" s="8">
         <v>725</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75">
-      <c r="A66" s="1">
-        <v>672</v>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>701</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G66" t="s">
         <v>217</v>
       </c>
-      <c r="H66" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J66" s="8">
-        <v>725</v>
+      <c r="H66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J66" s="1">
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>65</v>
+        <v>218</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G67" t="s">
-        <v>218</v>
+        <v>130</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="J67" s="1">
-        <v>154</v>
+        <v>615</v>
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68">
-        <v>705</v>
+      <c r="A68" s="1">
+        <v>448</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C68" t="s">
-        <v>219</v>
+        <v>10</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J68" s="1">
         <v>615</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="1">
-        <v>448</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D69" s="3" t="s">
+    <row r="69" spans="1:10" ht="15.75">
+      <c r="A69" s="8">
+        <v>720</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>222</v>
       </c>
+      <c r="D69" s="10" t="s">
+        <v>223</v>
+      </c>
       <c r="E69" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J69" s="1">
-        <v>615</v>
+        <v>135</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H69" t="s">
+        <v>64</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J69">
+        <v>701</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75">
       <c r="A70" s="8">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D70" s="10" t="s">
         <v>224</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H70" t="s">
-        <v>64</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J70">
-        <v>701</v>
+        <v>162</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J70" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75">
       <c r="A71" s="8">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="J71" s="8">
         <v>725</v>
@@ -3896,112 +3902,112 @@
     </row>
     <row r="72" spans="1:10" ht="15.75">
       <c r="A72" s="8">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J72" s="8">
-        <v>725</v>
+        <v>106</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J72" s="1">
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75">
       <c r="A73" s="8">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>37</v>
+        <v>232</v>
+      </c>
+      <c r="H73" t="s">
+        <v>69</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="J73" s="1">
-        <v>156</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75">
       <c r="A74" s="8">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="H74" t="s">
-        <v>69</v>
+        <v>153</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="J74" s="1">
-        <v>425</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75">
       <c r="A75" s="8">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>25</v>
@@ -4010,7 +4016,7 @@
         <v>35</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>37</v>
@@ -4024,95 +4030,95 @@
     </row>
     <row r="76" spans="1:10" ht="15.75">
       <c r="A76" s="8">
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>37</v>
+        <v>239</v>
+      </c>
+      <c r="H76" t="s">
+        <v>131</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="J76" s="1">
-        <v>156</v>
+        <v>615</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75">
       <c r="A77" s="8">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="H77" t="s">
-        <v>130</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J77" s="1">
-        <v>615</v>
+        <v>162</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J77" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75">
       <c r="A78" s="8">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>136</v>
+        <v>242</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="J78" s="8">
         <v>725</v>
@@ -4120,170 +4126,170 @@
     </row>
     <row r="79" spans="1:10" ht="15.75">
       <c r="A79" s="8">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>134</v>
+        <v>56</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J79" s="8">
-        <v>725</v>
+        <v>243</v>
+      </c>
+      <c r="H79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" s="1">
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75">
       <c r="A80" s="8">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D80" s="9" t="s">
         <v>244</v>
       </c>
+      <c r="D80" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E80" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="H80" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J80" s="1">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75">
       <c r="A81" s="8">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D81" s="8" t="s">
         <v>247</v>
       </c>
+      <c r="D81" s="9" t="s">
+        <v>248</v>
+      </c>
       <c r="E81" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="H81" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="J81" s="1">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75">
       <c r="A82" s="8">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="8" t="s">
         <v>250</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="H82" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="J82" s="1">
-        <v>158</v>
+        <v>615</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75">
       <c r="A83" s="8">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="H83" t="s">
-        <v>130</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J83" s="1">
-        <v>615</v>
+        <v>162</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J83" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75">
       <c r="A84" s="8">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>254</v>
@@ -4292,316 +4298,410 @@
         <v>255</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H84" t="s">
+        <v>69</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J84" s="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75">
+      <c r="A85" s="11">
+        <v>740</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J84" s="8">
+      <c r="F85" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J85" s="8">
         <v>725</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="15.75">
-      <c r="A85" s="8">
-        <v>732</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="H85" t="s">
-        <v>69</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J85" s="1">
-        <v>425</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75">
       <c r="A86" s="11">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J86" s="8">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="15.75">
-      <c r="A87" s="11">
-        <v>741</v>
+        <v>42</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J86" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="30.75">
+      <c r="A87" s="14" t="s">
+        <v>263</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>262</v>
+        <v>207</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>264</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>264</v>
+        <v>258</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>266</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J87" s="1">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="30.75">
-      <c r="A88" s="14" t="s">
-        <v>265</v>
+        <v>94</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J87" s="8">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="16.5">
+      <c r="A88" s="11">
+        <v>743</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F88" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>268</v>
+      <c r="F88" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="J88" s="8">
         <v>725</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="16.5">
-      <c r="A89" s="11">
-        <v>743</v>
+    <row r="89" spans="1:10" ht="30.75">
+      <c r="A89">
+        <v>648</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D89" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" s="18" t="s">
         <v>270</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F89" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>271</v>
+      <c r="F89" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="J89" s="8">
         <v>725</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="30.75">
-      <c r="C90" s="18" t="s">
+    <row r="90" spans="1:10" ht="16.5">
+      <c r="A90">
+        <v>748</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="24" t="s">
         <v>273</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F90" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="G90" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="H90" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J90" s="1">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="C91" s="20" t="s">
+      <c r="F90" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G90" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="D91" s="21" t="s">
-        <v>159</v>
+      <c r="H90" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J90" s="8">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="16.5">
+      <c r="A91">
+        <v>745</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="G91" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="H91" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J91" s="1">
-        <v>155</v>
+        <v>258</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J91" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="16.5">
-      <c r="C92" s="23" t="s">
-        <v>275</v>
+      <c r="A92">
+        <v>744</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>277</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F92" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="G92" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="H92" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J92" s="1">
-        <v>156</v>
+        <v>56</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="G92" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J92" s="8">
+        <v>727</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="16.5">
-      <c r="C93" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>279</v>
+      <c r="A93">
+        <v>697</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" t="s">
+        <v>281</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F93" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="G93" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H93" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J93" s="1">
-        <v>157</v>
+      <c r="F93" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J93" s="8">
+        <v>725</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="16.5">
-      <c r="C94" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="D94" s="28" t="s">
-        <v>281</v>
+      <c r="A94">
+        <v>755</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C94" t="s">
+        <v>283</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F94" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="G94" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="H94" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J94" s="1">
-        <v>163</v>
+        <v>61</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I94" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J94" s="8">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="16.5">
+      <c r="A95">
+        <v>753</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" t="s">
+        <v>285</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F95" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J95" s="8">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="16.5">
+      <c r="A96">
+        <v>700</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" t="s">
+        <v>287</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G96" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J96" s="8">
+        <v>725</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J89" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{638F569A-9090-47BA-ADB1-D610E608B36D}"/>
     <hyperlink ref="I4:I5" r:id="rId2" display="hemant.raulo@urbangabru.in" xr:uid="{F027F3A7-1A84-40C7-8699-209295903C83}"/>
@@ -4610,7 +4710,7 @@
     <hyperlink ref="I15" r:id="rId5" xr:uid="{E3CF6ABA-BCD4-4397-8765-1D319396C106}"/>
     <hyperlink ref="I24" r:id="rId6" xr:uid="{CEA99A94-15DC-48B6-B1F2-DE68A886F8FB}"/>
     <hyperlink ref="I31" r:id="rId7" xr:uid="{39A13FD4-080A-44B7-9F8C-94700230C307}"/>
-    <hyperlink ref="I61" r:id="rId8" xr:uid="{48A7FBF1-91F3-4040-B8DE-87501E505F2C}"/>
+    <hyperlink ref="I60" r:id="rId8" xr:uid="{48A7FBF1-91F3-4040-B8DE-87501E505F2C}"/>
     <hyperlink ref="I8" r:id="rId9" xr:uid="{DFAB2EC5-8C09-4564-B7BA-8382B61BFF14}"/>
     <hyperlink ref="D4" r:id="rId10" xr:uid="{C60DF700-70F7-44B2-8D62-554517801DFC}"/>
     <hyperlink ref="D50" r:id="rId11" xr:uid="{DA7D9228-82E2-4129-812D-193889E2BF35}"/>
@@ -4631,110 +4731,104 @@
     <hyperlink ref="I38" r:id="rId26" xr:uid="{EB64FEEB-BC2D-4126-8EE3-1834005CB9F7}"/>
     <hyperlink ref="I42" r:id="rId27" xr:uid="{096208DA-E231-4CEC-AFF9-826256C95D6A}"/>
     <hyperlink ref="I48" r:id="rId28" xr:uid="{A21CF0F9-3213-43D7-A413-7A257D8C0E50}"/>
-    <hyperlink ref="I58:I59" r:id="rId29" display="dhiraj.deshmukh@urbangabru.in" xr:uid="{97FB104B-C335-4156-BC01-9B9436223075}"/>
-    <hyperlink ref="I62:I63" r:id="rId30" display="dhiraj.deshmukh@urbangabru.in" xr:uid="{51BE2CCD-3E1C-40A1-B5D7-85090AED00A6}"/>
+    <hyperlink ref="I57:I58" r:id="rId29" display="dhiraj.deshmukh@urbangabru.in" xr:uid="{97FB104B-C335-4156-BC01-9B9436223075}"/>
+    <hyperlink ref="I61:I62" r:id="rId30" display="dhiraj.deshmukh@urbangabru.in" xr:uid="{51BE2CCD-3E1C-40A1-B5D7-85090AED00A6}"/>
     <hyperlink ref="D11" r:id="rId31" xr:uid="{02F65181-4C8F-42C4-902A-CDEE5F0647B6}"/>
     <hyperlink ref="I29" r:id="rId32" xr:uid="{C23024AB-ED52-41A8-A126-753C6738F61B}"/>
     <hyperlink ref="I49" r:id="rId33" xr:uid="{FBC8C4E5-4E75-43F4-BD96-B4259DFC017E}"/>
     <hyperlink ref="D12" r:id="rId34" xr:uid="{658026AE-F086-405A-B266-00CA96670F76}"/>
-    <hyperlink ref="I50" r:id="rId35" xr:uid="{D230CE4C-4D5C-4742-A127-48601BB55C9F}"/>
-    <hyperlink ref="I51" r:id="rId36" xr:uid="{CFD8CAD0-E3BB-4C26-B0B3-2476D05B3C82}"/>
-    <hyperlink ref="I21" r:id="rId37" xr:uid="{4A21746D-8B08-4471-95F9-F2358AAFF29A}"/>
-    <hyperlink ref="D13" r:id="rId38" xr:uid="{7902939E-0487-48F1-84D7-CACB529741B0}"/>
-    <hyperlink ref="D14" r:id="rId39" xr:uid="{3AB174BA-7CED-4824-A663-6F227253BD9C}"/>
-    <hyperlink ref="D15" r:id="rId40" xr:uid="{A39FC705-BA1A-42C5-9955-53E724C009F5}"/>
-    <hyperlink ref="D16" r:id="rId41" xr:uid="{B63400E7-FA3C-4250-A756-02968FE61910}"/>
-    <hyperlink ref="D17" r:id="rId42" xr:uid="{D8735FC2-EC88-421B-8865-C4FE808C25EA}"/>
-    <hyperlink ref="D18" r:id="rId43" xr:uid="{A39D22E8-829E-408E-9A29-6AC69A125558}"/>
-    <hyperlink ref="D19" r:id="rId44" xr:uid="{C4514937-C1F9-4E05-9F4E-B78A90D5FF90}"/>
-    <hyperlink ref="D20" r:id="rId45" xr:uid="{7F8983E6-C30E-4371-83E6-E1BC55CAC1F9}"/>
-    <hyperlink ref="D21" r:id="rId46" xr:uid="{E0172095-1727-483E-9C84-789368420BFE}"/>
-    <hyperlink ref="D22" r:id="rId47" xr:uid="{80366AF4-50BC-4967-A78E-D47375491424}"/>
-    <hyperlink ref="D23" r:id="rId48" xr:uid="{F717CFC2-C0EF-434A-9B39-410B45E8DBF1}"/>
-    <hyperlink ref="D30" r:id="rId49" xr:uid="{564C77A2-C93C-41E3-92EE-584D1829ED3A}"/>
-    <hyperlink ref="I2" r:id="rId50" xr:uid="{C21C51C9-8E57-4306-AE33-5771DA9EDE44}"/>
-    <hyperlink ref="I16" r:id="rId51" xr:uid="{6A0113D1-0959-4068-A664-B46AA0B1D2D1}"/>
-    <hyperlink ref="I19" r:id="rId52" xr:uid="{3B003557-D297-4794-908F-89EC252AAA33}"/>
-    <hyperlink ref="I23" r:id="rId53" xr:uid="{F71DAFC5-7C60-446C-9821-205FEF06ADD1}"/>
-    <hyperlink ref="I27:I28" r:id="rId54" display="rakesh.raulo@urbangabru.in" xr:uid="{AB2C998F-9AAA-423C-B750-1494CDFA5F7C}"/>
-    <hyperlink ref="I39" r:id="rId55" xr:uid="{6AAF4B77-CA93-4DC8-8DAF-F80FD4448AC7}"/>
-    <hyperlink ref="I41" r:id="rId56" xr:uid="{AF208654-2826-41FA-AA0B-97B2CF2997E8}"/>
-    <hyperlink ref="I64" r:id="rId57" xr:uid="{462AE825-8F34-414D-BE17-BF41645E7288}"/>
-    <hyperlink ref="D31" r:id="rId58" xr:uid="{870AB10C-3CF3-4DDC-9EC0-B411812950CC}"/>
-    <hyperlink ref="D32" r:id="rId59" xr:uid="{B2402A95-78BF-4BCE-88CF-EB9D6A842F63}"/>
-    <hyperlink ref="D34" r:id="rId60" xr:uid="{2CB97427-98B8-49D0-ADE6-B829475893D2}"/>
-    <hyperlink ref="D37" r:id="rId61" xr:uid="{33D90B85-D89C-4BB2-B836-561FEABBF159}"/>
-    <hyperlink ref="D38" r:id="rId62" xr:uid="{16DF7F2F-BF7C-4CA7-8233-3C777EE637EF}"/>
-    <hyperlink ref="D39" r:id="rId63" xr:uid="{62BA3FE9-2B7D-4E82-A6AB-861684EE44FF}"/>
-    <hyperlink ref="D40" r:id="rId64" xr:uid="{9453D832-D2B1-4EA4-B67D-ED07B05CB36B}"/>
-    <hyperlink ref="D41" r:id="rId65" xr:uid="{4551821A-2077-4E19-8923-97622E114CC5}"/>
-    <hyperlink ref="D42" r:id="rId66" xr:uid="{80F5A021-7451-45CF-8A55-84C6B184D545}"/>
-    <hyperlink ref="D43" r:id="rId67" xr:uid="{823DA6B3-861B-4DDE-9318-3D9D9501A748}"/>
-    <hyperlink ref="D44" r:id="rId68" xr:uid="{57FB5EFB-0A7A-447E-B048-753DDCBE83BE}"/>
-    <hyperlink ref="D45" r:id="rId69" xr:uid="{65D20DC5-D347-4B92-939D-67C6E9CA4099}"/>
-    <hyperlink ref="D46" r:id="rId70" xr:uid="{DFDBB072-57B6-414E-AD32-C43529C0A02E}"/>
-    <hyperlink ref="D33" r:id="rId71" xr:uid="{F32CC1AB-1D08-4CBF-8734-41FE9CE792F2}"/>
-    <hyperlink ref="D36" r:id="rId72" xr:uid="{91939463-F347-4EB1-9835-10D0C5847AC2}"/>
-    <hyperlink ref="D48" r:id="rId73" xr:uid="{697A9CA5-37EE-4DA8-8785-23118AA9A986}"/>
-    <hyperlink ref="D49" r:id="rId74" xr:uid="{B837B941-6C09-4383-8340-057EFEEF4C2A}"/>
-    <hyperlink ref="D51" r:id="rId75" xr:uid="{5228BFFC-0024-4B76-A50F-378E909DEB9E}"/>
-    <hyperlink ref="D54" r:id="rId76" xr:uid="{03A49264-3529-4D46-96B4-F9E4B408275C}"/>
-    <hyperlink ref="D55" r:id="rId77" xr:uid="{B80B62FD-0A48-424D-9193-718DE528A3D9}"/>
-    <hyperlink ref="D57" r:id="rId78" xr:uid="{FF27CE65-EDD1-48CB-ADD2-FC1B04379D4F}"/>
-    <hyperlink ref="D58" r:id="rId79" xr:uid="{51AD824A-C8CC-4BDA-BDCB-CACD814337EE}"/>
-    <hyperlink ref="D59" r:id="rId80" xr:uid="{4D20B7EA-6506-4321-91D8-D043FDC215DB}"/>
-    <hyperlink ref="D60" r:id="rId81" xr:uid="{53CA0A1B-9838-4F34-9189-994827F11B4F}"/>
-    <hyperlink ref="D61" r:id="rId82" xr:uid="{D77DFDE8-52D1-47B3-937D-8875B12C8187}"/>
-    <hyperlink ref="D62" r:id="rId83" xr:uid="{4DAD1DCD-6DA4-4821-8767-096D23FA684C}"/>
-    <hyperlink ref="D63" r:id="rId84" xr:uid="{DE32128C-030C-49D8-B6C1-826E021812FC}"/>
-    <hyperlink ref="D64" r:id="rId85" xr:uid="{CBA88F32-2246-46B4-AC53-88544E823387}"/>
-    <hyperlink ref="D65" r:id="rId86" xr:uid="{FC846F3F-D1FA-4F31-B652-3CF29A90246C}"/>
-    <hyperlink ref="D66" r:id="rId87" xr:uid="{BFEFF04B-2141-4567-96A6-D3056766BB0D}"/>
-    <hyperlink ref="I35" r:id="rId88" xr:uid="{A6C0CC82-44BA-4222-B39E-D7476DA47C6B}"/>
-    <hyperlink ref="I14" r:id="rId89" xr:uid="{4C4DDAEE-F389-4B2E-BF3A-B7B53B7D3F87}"/>
-    <hyperlink ref="I33:I34" r:id="rId90" display="shailesh.bhujbal@urbangabru.co.in" xr:uid="{4B015309-8B52-4485-9965-99C88E6F4FAC}"/>
-    <hyperlink ref="I20" r:id="rId91" xr:uid="{E2E655CA-8855-4FFF-8D68-FE7BE3856DAD}"/>
-    <hyperlink ref="I22" r:id="rId92" xr:uid="{249F710E-612E-4A2B-9513-A7E0D75A00F0}"/>
-    <hyperlink ref="I30" r:id="rId93" xr:uid="{0DDB982B-4488-4CAE-AE51-CE129FB8AF5D}"/>
-    <hyperlink ref="I40" r:id="rId94" xr:uid="{6CE8AB3C-163D-40F6-96CD-419E037BC515}"/>
-    <hyperlink ref="I46:I47" r:id="rId95" xr:uid="{49138BDB-FD98-425A-8A09-D467631C7A6C}"/>
-    <hyperlink ref="I54" r:id="rId96" xr:uid="{85529956-96FD-44B7-B1B5-B8B96D656A21}"/>
-    <hyperlink ref="I57" r:id="rId97" xr:uid="{B3890C9C-5043-447C-9BE8-849115F9ED91}"/>
-    <hyperlink ref="I13" r:id="rId98" xr:uid="{B06B408B-86DE-4DC1-A0B1-E651C3474CC0}"/>
-    <hyperlink ref="D67" r:id="rId99" xr:uid="{2BB55C61-927A-4ACD-BFB5-8BFBEB3AB87D}"/>
-    <hyperlink ref="I67" r:id="rId100" xr:uid="{FE4CB666-8CCD-41A4-88DC-772F7E72B69E}"/>
-    <hyperlink ref="I18" r:id="rId101" xr:uid="{65D62495-7ED6-4AEE-85AA-5E06DD4DCC50}"/>
-    <hyperlink ref="I37" r:id="rId102" xr:uid="{5A19F303-21CE-4C85-8F0C-E1C79BC97EE4}"/>
-    <hyperlink ref="I43" r:id="rId103" xr:uid="{CE65FCF0-CAD9-4672-ABBE-37B0F48F2980}"/>
-    <hyperlink ref="I53" r:id="rId104" xr:uid="{EE4F0454-9D7B-4D12-AF17-1357CE1D3E35}"/>
-    <hyperlink ref="I55:I56" r:id="rId105" display="shrushti.mulage@urbangabru.in" xr:uid="{6033AC21-F7BE-4E51-A959-D5962C670FA3}"/>
-    <hyperlink ref="D68" r:id="rId106" xr:uid="{D4FDC315-7B6D-4469-88E3-1589B741FE41}"/>
-    <hyperlink ref="I68" r:id="rId107" xr:uid="{C558B3C7-EBFE-4FB4-ADD6-6EB2E4AD0F9E}"/>
-    <hyperlink ref="D35" r:id="rId108" xr:uid="{E91DE87D-A790-4838-8760-70C6AC703D98}"/>
-    <hyperlink ref="I69" r:id="rId109" xr:uid="{8AB72D72-B60D-4E53-A04A-507971B9D6C3}"/>
-    <hyperlink ref="D69" r:id="rId110" xr:uid="{FB78035B-3BB6-44E6-A168-E41DD27DB633}"/>
-    <hyperlink ref="D70" r:id="rId111" xr:uid="{99C33B73-DF8E-48F4-898C-A8EE9AFBA7F4}"/>
-    <hyperlink ref="I73" r:id="rId112" xr:uid="{D457B946-2C7C-4D94-BB76-75FC21CE52AE}"/>
-    <hyperlink ref="I75" r:id="rId113" xr:uid="{79D99990-0DCC-4038-95CC-DF502FDAB3FC}"/>
-    <hyperlink ref="I76" r:id="rId114" xr:uid="{89E8B74E-5421-47D4-81EB-28C833655F35}"/>
-    <hyperlink ref="I77" r:id="rId115" xr:uid="{07B08EF3-2DC3-4B36-A0A4-AA3B13FD9442}"/>
-    <hyperlink ref="I83" r:id="rId116" xr:uid="{DBF62D72-BF4A-4175-AEE0-1A67E739CA4C}"/>
-    <hyperlink ref="I80" r:id="rId117" xr:uid="{3460E9AA-2796-472B-9A8C-201426F3C6E0}"/>
-    <hyperlink ref="I82" r:id="rId118" xr:uid="{17A1B2FB-8E41-4354-AEE2-2E9E5B0D2906}"/>
-    <hyperlink ref="I74" r:id="rId119" xr:uid="{5FA8D04A-7C92-467B-94EC-59E9AAF858F0}"/>
-    <hyperlink ref="I85" r:id="rId120" xr:uid="{4C626523-9255-4EE9-B00F-76F0973AB813}"/>
-    <hyperlink ref="I70" r:id="rId121" xr:uid="{C11183B9-2495-4806-B47C-D70E16538657}"/>
-    <hyperlink ref="I81" r:id="rId122" xr:uid="{390DE4D6-96FF-440B-9454-B84E3B267EA1}"/>
-    <hyperlink ref="D86" r:id="rId123" xr:uid="{5921F1F7-B8A1-4782-A970-58A9CE9F4724}"/>
-    <hyperlink ref="D87" r:id="rId124" xr:uid="{D3136A9D-F831-4278-BC8A-A868CD17A8D1}"/>
-    <hyperlink ref="D88" r:id="rId125" xr:uid="{118D3B29-FAC4-4608-8C12-BF22A4DE7E59}"/>
-    <hyperlink ref="D89" r:id="rId126" xr:uid="{A10E8DDF-9A5C-4E28-B049-98A52B6962CF}"/>
-    <hyperlink ref="I90" r:id="rId127" xr:uid="{80B0000A-E091-4251-98C1-73399F0ED835}"/>
-    <hyperlink ref="I91" r:id="rId128" xr:uid="{7F420AF8-592B-4611-B8B8-B40EB2021CCD}"/>
-    <hyperlink ref="I92" r:id="rId129" xr:uid="{78A5C01D-3543-4B66-AD58-D2039CC80E9A}"/>
-    <hyperlink ref="I93" r:id="rId130" xr:uid="{5ACA79C2-29A8-454B-A677-4AAC5C68B5A3}"/>
-    <hyperlink ref="I94" r:id="rId131" xr:uid="{FAAE0663-972E-4FA0-9874-A7B974BA1019}"/>
-    <hyperlink ref="I87" r:id="rId132" xr:uid="{D206B315-F64F-4C9E-B296-FD59D27E4797}"/>
+    <hyperlink ref="D13" r:id="rId35" xr:uid="{7902939E-0487-48F1-84D7-CACB529741B0}"/>
+    <hyperlink ref="D14" r:id="rId36" xr:uid="{3AB174BA-7CED-4824-A663-6F227253BD9C}"/>
+    <hyperlink ref="D15" r:id="rId37" xr:uid="{A39FC705-BA1A-42C5-9955-53E724C009F5}"/>
+    <hyperlink ref="D16" r:id="rId38" xr:uid="{B63400E7-FA3C-4250-A756-02968FE61910}"/>
+    <hyperlink ref="D17" r:id="rId39" xr:uid="{D8735FC2-EC88-421B-8865-C4FE808C25EA}"/>
+    <hyperlink ref="D18" r:id="rId40" xr:uid="{A39D22E8-829E-408E-9A29-6AC69A125558}"/>
+    <hyperlink ref="D19" r:id="rId41" xr:uid="{C4514937-C1F9-4E05-9F4E-B78A90D5FF90}"/>
+    <hyperlink ref="D20" r:id="rId42" xr:uid="{7F8983E6-C30E-4371-83E6-E1BC55CAC1F9}"/>
+    <hyperlink ref="D21" r:id="rId43" xr:uid="{E0172095-1727-483E-9C84-789368420BFE}"/>
+    <hyperlink ref="D22" r:id="rId44" xr:uid="{80366AF4-50BC-4967-A78E-D47375491424}"/>
+    <hyperlink ref="D23" r:id="rId45" xr:uid="{F717CFC2-C0EF-434A-9B39-410B45E8DBF1}"/>
+    <hyperlink ref="D30" r:id="rId46" xr:uid="{564C77A2-C93C-41E3-92EE-584D1829ED3A}"/>
+    <hyperlink ref="I2" r:id="rId47" xr:uid="{C21C51C9-8E57-4306-AE33-5771DA9EDE44}"/>
+    <hyperlink ref="I16" r:id="rId48" xr:uid="{6A0113D1-0959-4068-A664-B46AA0B1D2D1}"/>
+    <hyperlink ref="I19" r:id="rId49" xr:uid="{3B003557-D297-4794-908F-89EC252AAA33}"/>
+    <hyperlink ref="I23" r:id="rId50" xr:uid="{F71DAFC5-7C60-446C-9821-205FEF06ADD1}"/>
+    <hyperlink ref="I27:I28" r:id="rId51" display="rakesh.raulo@urbangabru.in" xr:uid="{AB2C998F-9AAA-423C-B750-1494CDFA5F7C}"/>
+    <hyperlink ref="I39" r:id="rId52" xr:uid="{6AAF4B77-CA93-4DC8-8DAF-F80FD4448AC7}"/>
+    <hyperlink ref="I41" r:id="rId53" xr:uid="{AF208654-2826-41FA-AA0B-97B2CF2997E8}"/>
+    <hyperlink ref="I63" r:id="rId54" xr:uid="{462AE825-8F34-414D-BE17-BF41645E7288}"/>
+    <hyperlink ref="D31" r:id="rId55" xr:uid="{870AB10C-3CF3-4DDC-9EC0-B411812950CC}"/>
+    <hyperlink ref="D32" r:id="rId56" xr:uid="{B2402A95-78BF-4BCE-88CF-EB9D6A842F63}"/>
+    <hyperlink ref="D34" r:id="rId57" xr:uid="{2CB97427-98B8-49D0-ADE6-B829475893D2}"/>
+    <hyperlink ref="D37" r:id="rId58" xr:uid="{33D90B85-D89C-4BB2-B836-561FEABBF159}"/>
+    <hyperlink ref="D38" r:id="rId59" xr:uid="{16DF7F2F-BF7C-4CA7-8233-3C777EE637EF}"/>
+    <hyperlink ref="D39" r:id="rId60" xr:uid="{62BA3FE9-2B7D-4E82-A6AB-861684EE44FF}"/>
+    <hyperlink ref="D40" r:id="rId61" xr:uid="{9453D832-D2B1-4EA4-B67D-ED07B05CB36B}"/>
+    <hyperlink ref="D41" r:id="rId62" xr:uid="{4551821A-2077-4E19-8923-97622E114CC5}"/>
+    <hyperlink ref="D42" r:id="rId63" xr:uid="{80F5A021-7451-45CF-8A55-84C6B184D545}"/>
+    <hyperlink ref="D43" r:id="rId64" xr:uid="{823DA6B3-861B-4DDE-9318-3D9D9501A748}"/>
+    <hyperlink ref="D44" r:id="rId65" xr:uid="{57FB5EFB-0A7A-447E-B048-753DDCBE83BE}"/>
+    <hyperlink ref="D45" r:id="rId66" xr:uid="{65D20DC5-D347-4B92-939D-67C6E9CA4099}"/>
+    <hyperlink ref="D46" r:id="rId67" xr:uid="{DFDBB072-57B6-414E-AD32-C43529C0A02E}"/>
+    <hyperlink ref="D33" r:id="rId68" xr:uid="{F32CC1AB-1D08-4CBF-8734-41FE9CE792F2}"/>
+    <hyperlink ref="D36" r:id="rId69" xr:uid="{91939463-F347-4EB1-9835-10D0C5847AC2}"/>
+    <hyperlink ref="D48" r:id="rId70" xr:uid="{697A9CA5-37EE-4DA8-8785-23118AA9A986}"/>
+    <hyperlink ref="D49" r:id="rId71" xr:uid="{B837B941-6C09-4383-8340-057EFEEF4C2A}"/>
+    <hyperlink ref="D51" r:id="rId72" xr:uid="{5228BFFC-0024-4B76-A50F-378E909DEB9E}"/>
+    <hyperlink ref="D54" r:id="rId73" xr:uid="{03A49264-3529-4D46-96B4-F9E4B408275C}"/>
+    <hyperlink ref="D55" r:id="rId74" xr:uid="{B80B62FD-0A48-424D-9193-718DE528A3D9}"/>
+    <hyperlink ref="D57" r:id="rId75" xr:uid="{51AD824A-C8CC-4BDA-BDCB-CACD814337EE}"/>
+    <hyperlink ref="D58" r:id="rId76" xr:uid="{4D20B7EA-6506-4321-91D8-D043FDC215DB}"/>
+    <hyperlink ref="D59" r:id="rId77" xr:uid="{53CA0A1B-9838-4F34-9189-994827F11B4F}"/>
+    <hyperlink ref="D60" r:id="rId78" xr:uid="{D77DFDE8-52D1-47B3-937D-8875B12C8187}"/>
+    <hyperlink ref="D61" r:id="rId79" xr:uid="{4DAD1DCD-6DA4-4821-8767-096D23FA684C}"/>
+    <hyperlink ref="D62" r:id="rId80" xr:uid="{DE32128C-030C-49D8-B6C1-826E021812FC}"/>
+    <hyperlink ref="D63" r:id="rId81" xr:uid="{CBA88F32-2246-46B4-AC53-88544E823387}"/>
+    <hyperlink ref="D64" r:id="rId82" xr:uid="{FC846F3F-D1FA-4F31-B652-3CF29A90246C}"/>
+    <hyperlink ref="D65" r:id="rId83" xr:uid="{BFEFF04B-2141-4567-96A6-D3056766BB0D}"/>
+    <hyperlink ref="I35" r:id="rId84" xr:uid="{A6C0CC82-44BA-4222-B39E-D7476DA47C6B}"/>
+    <hyperlink ref="I14" r:id="rId85" xr:uid="{4C4DDAEE-F389-4B2E-BF3A-B7B53B7D3F87}"/>
+    <hyperlink ref="I33:I34" r:id="rId86" display="shailesh.bhujbal@urbangabru.co.in" xr:uid="{4B015309-8B52-4485-9965-99C88E6F4FAC}"/>
+    <hyperlink ref="I20" r:id="rId87" xr:uid="{E2E655CA-8855-4FFF-8D68-FE7BE3856DAD}"/>
+    <hyperlink ref="I22" r:id="rId88" xr:uid="{249F710E-612E-4A2B-9513-A7E0D75A00F0}"/>
+    <hyperlink ref="I30" r:id="rId89" xr:uid="{0DDB982B-4488-4CAE-AE51-CE129FB8AF5D}"/>
+    <hyperlink ref="I40" r:id="rId90" xr:uid="{6CE8AB3C-163D-40F6-96CD-419E037BC515}"/>
+    <hyperlink ref="I46:I47" r:id="rId91" xr:uid="{49138BDB-FD98-425A-8A09-D467631C7A6C}"/>
+    <hyperlink ref="I54" r:id="rId92" xr:uid="{85529956-96FD-44B7-B1B5-B8B96D656A21}"/>
+    <hyperlink ref="I13" r:id="rId93" xr:uid="{B06B408B-86DE-4DC1-A0B1-E651C3474CC0}"/>
+    <hyperlink ref="D66" r:id="rId94" xr:uid="{2BB55C61-927A-4ACD-BFB5-8BFBEB3AB87D}"/>
+    <hyperlink ref="I66" r:id="rId95" xr:uid="{FE4CB666-8CCD-41A4-88DC-772F7E72B69E}"/>
+    <hyperlink ref="I18" r:id="rId96" xr:uid="{65D62495-7ED6-4AEE-85AA-5E06DD4DCC50}"/>
+    <hyperlink ref="I37" r:id="rId97" xr:uid="{5A19F303-21CE-4C85-8F0C-E1C79BC97EE4}"/>
+    <hyperlink ref="I43" r:id="rId98" xr:uid="{CE65FCF0-CAD9-4672-ABBE-37B0F48F2980}"/>
+    <hyperlink ref="I53" r:id="rId99" xr:uid="{EE4F0454-9D7B-4D12-AF17-1357CE1D3E35}"/>
+    <hyperlink ref="I55:I56" r:id="rId100" display="shrushti.mulage@urbangabru.in" xr:uid="{6033AC21-F7BE-4E51-A959-D5962C670FA3}"/>
+    <hyperlink ref="D67" r:id="rId101" xr:uid="{D4FDC315-7B6D-4469-88E3-1589B741FE41}"/>
+    <hyperlink ref="I67" r:id="rId102" xr:uid="{C558B3C7-EBFE-4FB4-ADD6-6EB2E4AD0F9E}"/>
+    <hyperlink ref="D35" r:id="rId103" xr:uid="{E91DE87D-A790-4838-8760-70C6AC703D98}"/>
+    <hyperlink ref="I68" r:id="rId104" xr:uid="{8AB72D72-B60D-4E53-A04A-507971B9D6C3}"/>
+    <hyperlink ref="D68" r:id="rId105" xr:uid="{FB78035B-3BB6-44E6-A168-E41DD27DB633}"/>
+    <hyperlink ref="D69" r:id="rId106" xr:uid="{99C33B73-DF8E-48F4-898C-A8EE9AFBA7F4}"/>
+    <hyperlink ref="I72" r:id="rId107" xr:uid="{D457B946-2C7C-4D94-BB76-75FC21CE52AE}"/>
+    <hyperlink ref="I74" r:id="rId108" xr:uid="{79D99990-0DCC-4038-95CC-DF502FDAB3FC}"/>
+    <hyperlink ref="I75" r:id="rId109" xr:uid="{89E8B74E-5421-47D4-81EB-28C833655F35}"/>
+    <hyperlink ref="I76" r:id="rId110" xr:uid="{07B08EF3-2DC3-4B36-A0A4-AA3B13FD9442}"/>
+    <hyperlink ref="I82" r:id="rId111" xr:uid="{DBF62D72-BF4A-4175-AEE0-1A67E739CA4C}"/>
+    <hyperlink ref="I81" r:id="rId112" xr:uid="{17A1B2FB-8E41-4354-AEE2-2E9E5B0D2906}"/>
+    <hyperlink ref="I73" r:id="rId113" xr:uid="{5FA8D04A-7C92-467B-94EC-59E9AAF858F0}"/>
+    <hyperlink ref="I84" r:id="rId114" xr:uid="{4C626523-9255-4EE9-B00F-76F0973AB813}"/>
+    <hyperlink ref="I69" r:id="rId115" xr:uid="{C11183B9-2495-4806-B47C-D70E16538657}"/>
+    <hyperlink ref="I80" r:id="rId116" xr:uid="{390DE4D6-96FF-440B-9454-B84E3B267EA1}"/>
+    <hyperlink ref="D85" r:id="rId117" xr:uid="{5921F1F7-B8A1-4782-A970-58A9CE9F4724}"/>
+    <hyperlink ref="D86" r:id="rId118" xr:uid="{D3136A9D-F831-4278-BC8A-A868CD17A8D1}"/>
+    <hyperlink ref="D87" r:id="rId119" xr:uid="{118D3B29-FAC4-4608-8C12-BF22A4DE7E59}"/>
+    <hyperlink ref="D88" r:id="rId120" xr:uid="{A10E8DDF-9A5C-4E28-B049-98A52B6962CF}"/>
+    <hyperlink ref="I86" r:id="rId121" xr:uid="{D206B315-F64F-4C9E-B296-FD59D27E4797}"/>
+    <hyperlink ref="D93" r:id="rId122" xr:uid="{E2AC356F-F8D6-4803-BD26-AE375B64FF26}"/>
+    <hyperlink ref="D94" r:id="rId123" xr:uid="{5F97099F-E2AB-408E-A2BC-18981B2E44D3}"/>
+    <hyperlink ref="D95" r:id="rId124" xr:uid="{5C22A409-37B7-4AE5-B5C2-FCEF1ED98164}"/>
+    <hyperlink ref="D96" r:id="rId125" xr:uid="{A8371D30-DE01-45D4-8DC0-BFBD01BB6550}"/>
+    <hyperlink ref="I79" r:id="rId126" xr:uid="{63798F09-5DBC-4424-BDDA-41CF55BABD4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4756,7 +4850,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>60</v>
@@ -4772,7 +4866,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>76</v>
@@ -4796,7 +4890,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>67</v>
@@ -4804,7 +4898,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>47</v>
@@ -4812,7 +4906,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>40</v>
@@ -4828,7 +4922,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
@@ -4844,7 +4938,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -4892,10 +4986,10 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4908,23 +5002,23 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>51</v>
@@ -4932,55 +5026,55 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>70</v>
@@ -4988,154 +5082,154 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="76.5">
       <c r="A38" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="76.5">
       <c r="A39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="76.5">
       <c r="A40" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5148,26 +5242,26 @@
     </row>
     <row r="50" spans="1:2" ht="76.5">
       <c r="A50" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="76.5">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
